--- a/save/FJSP/606/train_PPO_6 x 6/training_100.xlsx
+++ b/save/FJSP/606/train_PPO_6 x 6/training_100.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CW301"/>
+  <dimension ref="A1:CW333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92440,6 +92440,9766 @@
         <v>95</v>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>10</v>
+      </c>
+      <c r="B302" t="n">
+        <v>81</v>
+      </c>
+      <c r="C302" t="n">
+        <v>107</v>
+      </c>
+      <c r="D302" t="n">
+        <v>110</v>
+      </c>
+      <c r="E302" t="n">
+        <v>98</v>
+      </c>
+      <c r="F302" t="n">
+        <v>142</v>
+      </c>
+      <c r="G302" t="n">
+        <v>165</v>
+      </c>
+      <c r="H302" t="n">
+        <v>146</v>
+      </c>
+      <c r="I302" t="n">
+        <v>86</v>
+      </c>
+      <c r="J302" t="n">
+        <v>154</v>
+      </c>
+      <c r="K302" t="n">
+        <v>107</v>
+      </c>
+      <c r="L302" t="n">
+        <v>76</v>
+      </c>
+      <c r="M302" t="n">
+        <v>122</v>
+      </c>
+      <c r="N302" t="n">
+        <v>110</v>
+      </c>
+      <c r="O302" t="n">
+        <v>96</v>
+      </c>
+      <c r="P302" t="n">
+        <v>83</v>
+      </c>
+      <c r="Q302" t="n">
+        <v>118</v>
+      </c>
+      <c r="R302" t="n">
+        <v>91</v>
+      </c>
+      <c r="S302" t="n">
+        <v>86</v>
+      </c>
+      <c r="T302" t="n">
+        <v>100</v>
+      </c>
+      <c r="U302" t="n">
+        <v>93</v>
+      </c>
+      <c r="V302" t="n">
+        <v>100</v>
+      </c>
+      <c r="W302" t="n">
+        <v>102</v>
+      </c>
+      <c r="X302" t="n">
+        <v>102</v>
+      </c>
+      <c r="Y302" t="n">
+        <v>93</v>
+      </c>
+      <c r="Z302" t="n">
+        <v>109</v>
+      </c>
+      <c r="AA302" t="n">
+        <v>96</v>
+      </c>
+      <c r="AB302" t="n">
+        <v>129</v>
+      </c>
+      <c r="AC302" t="n">
+        <v>86</v>
+      </c>
+      <c r="AD302" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE302" t="n">
+        <v>76</v>
+      </c>
+      <c r="AF302" t="n">
+        <v>99</v>
+      </c>
+      <c r="AG302" t="n">
+        <v>91</v>
+      </c>
+      <c r="AH302" t="n">
+        <v>115</v>
+      </c>
+      <c r="AI302" t="n">
+        <v>83</v>
+      </c>
+      <c r="AJ302" t="n">
+        <v>97</v>
+      </c>
+      <c r="AK302" t="n">
+        <v>92</v>
+      </c>
+      <c r="AL302" t="n">
+        <v>92</v>
+      </c>
+      <c r="AM302" t="n">
+        <v>103</v>
+      </c>
+      <c r="AN302" t="n">
+        <v>116</v>
+      </c>
+      <c r="AO302" t="n">
+        <v>97</v>
+      </c>
+      <c r="AP302" t="n">
+        <v>97</v>
+      </c>
+      <c r="AQ302" t="n">
+        <v>118</v>
+      </c>
+      <c r="AR302" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS302" t="n">
+        <v>108</v>
+      </c>
+      <c r="AT302" t="n">
+        <v>105</v>
+      </c>
+      <c r="AU302" t="n">
+        <v>99</v>
+      </c>
+      <c r="AV302" t="n">
+        <v>86</v>
+      </c>
+      <c r="AW302" t="n">
+        <v>101</v>
+      </c>
+      <c r="AX302" t="n">
+        <v>82</v>
+      </c>
+      <c r="AY302" t="n">
+        <v>118</v>
+      </c>
+      <c r="AZ302" t="n">
+        <v>107</v>
+      </c>
+      <c r="BA302" t="n">
+        <v>104</v>
+      </c>
+      <c r="BB302" t="n">
+        <v>111</v>
+      </c>
+      <c r="BC302" t="n">
+        <v>108</v>
+      </c>
+      <c r="BD302" t="n">
+        <v>129</v>
+      </c>
+      <c r="BE302" t="n">
+        <v>91</v>
+      </c>
+      <c r="BF302" t="n">
+        <v>72</v>
+      </c>
+      <c r="BG302" t="n">
+        <v>111</v>
+      </c>
+      <c r="BH302" t="n">
+        <v>126</v>
+      </c>
+      <c r="BI302" t="n">
+        <v>93</v>
+      </c>
+      <c r="BJ302" t="n">
+        <v>117</v>
+      </c>
+      <c r="BK302" t="n">
+        <v>113</v>
+      </c>
+      <c r="BL302" t="n">
+        <v>86</v>
+      </c>
+      <c r="BM302" t="n">
+        <v>92</v>
+      </c>
+      <c r="BN302" t="n">
+        <v>93</v>
+      </c>
+      <c r="BO302" t="n">
+        <v>93</v>
+      </c>
+      <c r="BP302" t="n">
+        <v>84</v>
+      </c>
+      <c r="BQ302" t="n">
+        <v>105</v>
+      </c>
+      <c r="BR302" t="n">
+        <v>85</v>
+      </c>
+      <c r="BS302" t="n">
+        <v>94</v>
+      </c>
+      <c r="BT302" t="n">
+        <v>88</v>
+      </c>
+      <c r="BU302" t="n">
+        <v>107</v>
+      </c>
+      <c r="BV302" t="n">
+        <v>87</v>
+      </c>
+      <c r="BW302" t="n">
+        <v>121</v>
+      </c>
+      <c r="BX302" t="n">
+        <v>100</v>
+      </c>
+      <c r="BY302" t="n">
+        <v>113</v>
+      </c>
+      <c r="BZ302" t="n">
+        <v>80</v>
+      </c>
+      <c r="CA302" t="n">
+        <v>118</v>
+      </c>
+      <c r="CB302" t="n">
+        <v>126</v>
+      </c>
+      <c r="CC302" t="n">
+        <v>82</v>
+      </c>
+      <c r="CD302" t="n">
+        <v>86</v>
+      </c>
+      <c r="CE302" t="n">
+        <v>97</v>
+      </c>
+      <c r="CF302" t="n">
+        <v>96</v>
+      </c>
+      <c r="CG302" t="n">
+        <v>96</v>
+      </c>
+      <c r="CH302" t="n">
+        <v>113</v>
+      </c>
+      <c r="CI302" t="n">
+        <v>102</v>
+      </c>
+      <c r="CJ302" t="n">
+        <v>99</v>
+      </c>
+      <c r="CK302" t="n">
+        <v>122</v>
+      </c>
+      <c r="CL302" t="n">
+        <v>101</v>
+      </c>
+      <c r="CM302" t="n">
+        <v>95</v>
+      </c>
+      <c r="CN302" t="n">
+        <v>105</v>
+      </c>
+      <c r="CO302" t="n">
+        <v>79</v>
+      </c>
+      <c r="CP302" t="n">
+        <v>124</v>
+      </c>
+      <c r="CQ302" t="n">
+        <v>97</v>
+      </c>
+      <c r="CR302" t="n">
+        <v>145</v>
+      </c>
+      <c r="CS302" t="n">
+        <v>95</v>
+      </c>
+      <c r="CT302" t="n">
+        <v>113</v>
+      </c>
+      <c r="CU302" t="n">
+        <v>95</v>
+      </c>
+      <c r="CV302" t="n">
+        <v>124</v>
+      </c>
+      <c r="CW302" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>20</v>
+      </c>
+      <c r="B303" t="n">
+        <v>107</v>
+      </c>
+      <c r="C303" t="n">
+        <v>105</v>
+      </c>
+      <c r="D303" t="n">
+        <v>96</v>
+      </c>
+      <c r="E303" t="n">
+        <v>99</v>
+      </c>
+      <c r="F303" t="n">
+        <v>110</v>
+      </c>
+      <c r="G303" t="n">
+        <v>128</v>
+      </c>
+      <c r="H303" t="n">
+        <v>144</v>
+      </c>
+      <c r="I303" t="n">
+        <v>84</v>
+      </c>
+      <c r="J303" t="n">
+        <v>104</v>
+      </c>
+      <c r="K303" t="n">
+        <v>108</v>
+      </c>
+      <c r="L303" t="n">
+        <v>74</v>
+      </c>
+      <c r="M303" t="n">
+        <v>119</v>
+      </c>
+      <c r="N303" t="n">
+        <v>123</v>
+      </c>
+      <c r="O303" t="n">
+        <v>98</v>
+      </c>
+      <c r="P303" t="n">
+        <v>85</v>
+      </c>
+      <c r="Q303" t="n">
+        <v>90</v>
+      </c>
+      <c r="R303" t="n">
+        <v>77</v>
+      </c>
+      <c r="S303" t="n">
+        <v>111</v>
+      </c>
+      <c r="T303" t="n">
+        <v>90</v>
+      </c>
+      <c r="U303" t="n">
+        <v>87</v>
+      </c>
+      <c r="V303" t="n">
+        <v>113</v>
+      </c>
+      <c r="W303" t="n">
+        <v>109</v>
+      </c>
+      <c r="X303" t="n">
+        <v>103</v>
+      </c>
+      <c r="Y303" t="n">
+        <v>101</v>
+      </c>
+      <c r="Z303" t="n">
+        <v>114</v>
+      </c>
+      <c r="AA303" t="n">
+        <v>93</v>
+      </c>
+      <c r="AB303" t="n">
+        <v>125</v>
+      </c>
+      <c r="AC303" t="n">
+        <v>115</v>
+      </c>
+      <c r="AD303" t="n">
+        <v>90</v>
+      </c>
+      <c r="AE303" t="n">
+        <v>82</v>
+      </c>
+      <c r="AF303" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG303" t="n">
+        <v>94</v>
+      </c>
+      <c r="AH303" t="n">
+        <v>104</v>
+      </c>
+      <c r="AI303" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ303" t="n">
+        <v>103</v>
+      </c>
+      <c r="AK303" t="n">
+        <v>113</v>
+      </c>
+      <c r="AL303" t="n">
+        <v>121</v>
+      </c>
+      <c r="AM303" t="n">
+        <v>105</v>
+      </c>
+      <c r="AN303" t="n">
+        <v>112</v>
+      </c>
+      <c r="AO303" t="n">
+        <v>114</v>
+      </c>
+      <c r="AP303" t="n">
+        <v>82</v>
+      </c>
+      <c r="AQ303" t="n">
+        <v>94</v>
+      </c>
+      <c r="AR303" t="n">
+        <v>96</v>
+      </c>
+      <c r="AS303" t="n">
+        <v>68</v>
+      </c>
+      <c r="AT303" t="n">
+        <v>130</v>
+      </c>
+      <c r="AU303" t="n">
+        <v>94</v>
+      </c>
+      <c r="AV303" t="n">
+        <v>95</v>
+      </c>
+      <c r="AW303" t="n">
+        <v>117</v>
+      </c>
+      <c r="AX303" t="n">
+        <v>70</v>
+      </c>
+      <c r="AY303" t="n">
+        <v>135</v>
+      </c>
+      <c r="AZ303" t="n">
+        <v>106</v>
+      </c>
+      <c r="BA303" t="n">
+        <v>109</v>
+      </c>
+      <c r="BB303" t="n">
+        <v>107</v>
+      </c>
+      <c r="BC303" t="n">
+        <v>108</v>
+      </c>
+      <c r="BD303" t="n">
+        <v>93</v>
+      </c>
+      <c r="BE303" t="n">
+        <v>87</v>
+      </c>
+      <c r="BF303" t="n">
+        <v>91</v>
+      </c>
+      <c r="BG303" t="n">
+        <v>116</v>
+      </c>
+      <c r="BH303" t="n">
+        <v>95</v>
+      </c>
+      <c r="BI303" t="n">
+        <v>91</v>
+      </c>
+      <c r="BJ303" t="n">
+        <v>154</v>
+      </c>
+      <c r="BK303" t="n">
+        <v>118</v>
+      </c>
+      <c r="BL303" t="n">
+        <v>77</v>
+      </c>
+      <c r="BM303" t="n">
+        <v>125</v>
+      </c>
+      <c r="BN303" t="n">
+        <v>90</v>
+      </c>
+      <c r="BO303" t="n">
+        <v>86</v>
+      </c>
+      <c r="BP303" t="n">
+        <v>73</v>
+      </c>
+      <c r="BQ303" t="n">
+        <v>95</v>
+      </c>
+      <c r="BR303" t="n">
+        <v>81</v>
+      </c>
+      <c r="BS303" t="n">
+        <v>93</v>
+      </c>
+      <c r="BT303" t="n">
+        <v>79</v>
+      </c>
+      <c r="BU303" t="n">
+        <v>109</v>
+      </c>
+      <c r="BV303" t="n">
+        <v>92</v>
+      </c>
+      <c r="BW303" t="n">
+        <v>101</v>
+      </c>
+      <c r="BX303" t="n">
+        <v>93</v>
+      </c>
+      <c r="BY303" t="n">
+        <v>107</v>
+      </c>
+      <c r="BZ303" t="n">
+        <v>80</v>
+      </c>
+      <c r="CA303" t="n">
+        <v>146</v>
+      </c>
+      <c r="CB303" t="n">
+        <v>126</v>
+      </c>
+      <c r="CC303" t="n">
+        <v>80</v>
+      </c>
+      <c r="CD303" t="n">
+        <v>93</v>
+      </c>
+      <c r="CE303" t="n">
+        <v>69</v>
+      </c>
+      <c r="CF303" t="n">
+        <v>91</v>
+      </c>
+      <c r="CG303" t="n">
+        <v>98</v>
+      </c>
+      <c r="CH303" t="n">
+        <v>118</v>
+      </c>
+      <c r="CI303" t="n">
+        <v>111</v>
+      </c>
+      <c r="CJ303" t="n">
+        <v>98</v>
+      </c>
+      <c r="CK303" t="n">
+        <v>135</v>
+      </c>
+      <c r="CL303" t="n">
+        <v>126</v>
+      </c>
+      <c r="CM303" t="n">
+        <v>111</v>
+      </c>
+      <c r="CN303" t="n">
+        <v>99</v>
+      </c>
+      <c r="CO303" t="n">
+        <v>72</v>
+      </c>
+      <c r="CP303" t="n">
+        <v>124</v>
+      </c>
+      <c r="CQ303" t="n">
+        <v>96</v>
+      </c>
+      <c r="CR303" t="n">
+        <v>112</v>
+      </c>
+      <c r="CS303" t="n">
+        <v>89</v>
+      </c>
+      <c r="CT303" t="n">
+        <v>110</v>
+      </c>
+      <c r="CU303" t="n">
+        <v>95</v>
+      </c>
+      <c r="CV303" t="n">
+        <v>122</v>
+      </c>
+      <c r="CW303" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>30</v>
+      </c>
+      <c r="B304" t="n">
+        <v>95</v>
+      </c>
+      <c r="C304" t="n">
+        <v>89</v>
+      </c>
+      <c r="D304" t="n">
+        <v>93</v>
+      </c>
+      <c r="E304" t="n">
+        <v>79</v>
+      </c>
+      <c r="F304" t="n">
+        <v>110</v>
+      </c>
+      <c r="G304" t="n">
+        <v>118</v>
+      </c>
+      <c r="H304" t="n">
+        <v>116</v>
+      </c>
+      <c r="I304" t="n">
+        <v>84</v>
+      </c>
+      <c r="J304" t="n">
+        <v>104</v>
+      </c>
+      <c r="K304" t="n">
+        <v>108</v>
+      </c>
+      <c r="L304" t="n">
+        <v>74</v>
+      </c>
+      <c r="M304" t="n">
+        <v>120</v>
+      </c>
+      <c r="N304" t="n">
+        <v>96</v>
+      </c>
+      <c r="O304" t="n">
+        <v>93</v>
+      </c>
+      <c r="P304" t="n">
+        <v>93</v>
+      </c>
+      <c r="Q304" t="n">
+        <v>94</v>
+      </c>
+      <c r="R304" t="n">
+        <v>77</v>
+      </c>
+      <c r="S304" t="n">
+        <v>105</v>
+      </c>
+      <c r="T304" t="n">
+        <v>106</v>
+      </c>
+      <c r="U304" t="n">
+        <v>87</v>
+      </c>
+      <c r="V304" t="n">
+        <v>119</v>
+      </c>
+      <c r="W304" t="n">
+        <v>109</v>
+      </c>
+      <c r="X304" t="n">
+        <v>103</v>
+      </c>
+      <c r="Y304" t="n">
+        <v>101</v>
+      </c>
+      <c r="Z304" t="n">
+        <v>131</v>
+      </c>
+      <c r="AA304" t="n">
+        <v>103</v>
+      </c>
+      <c r="AB304" t="n">
+        <v>122</v>
+      </c>
+      <c r="AC304" t="n">
+        <v>115</v>
+      </c>
+      <c r="AD304" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE304" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF304" t="n">
+        <v>127</v>
+      </c>
+      <c r="AG304" t="n">
+        <v>94</v>
+      </c>
+      <c r="AH304" t="n">
+        <v>104</v>
+      </c>
+      <c r="AI304" t="n">
+        <v>89</v>
+      </c>
+      <c r="AJ304" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK304" t="n">
+        <v>113</v>
+      </c>
+      <c r="AL304" t="n">
+        <v>121</v>
+      </c>
+      <c r="AM304" t="n">
+        <v>107</v>
+      </c>
+      <c r="AN304" t="n">
+        <v>112</v>
+      </c>
+      <c r="AO304" t="n">
+        <v>88</v>
+      </c>
+      <c r="AP304" t="n">
+        <v>82</v>
+      </c>
+      <c r="AQ304" t="n">
+        <v>114</v>
+      </c>
+      <c r="AR304" t="n">
+        <v>96</v>
+      </c>
+      <c r="AS304" t="n">
+        <v>68</v>
+      </c>
+      <c r="AT304" t="n">
+        <v>149</v>
+      </c>
+      <c r="AU304" t="n">
+        <v>96</v>
+      </c>
+      <c r="AV304" t="n">
+        <v>96</v>
+      </c>
+      <c r="AW304" t="n">
+        <v>117</v>
+      </c>
+      <c r="AX304" t="n">
+        <v>70</v>
+      </c>
+      <c r="AY304" t="n">
+        <v>109</v>
+      </c>
+      <c r="AZ304" t="n">
+        <v>125</v>
+      </c>
+      <c r="BA304" t="n">
+        <v>119</v>
+      </c>
+      <c r="BB304" t="n">
+        <v>107</v>
+      </c>
+      <c r="BC304" t="n">
+        <v>115</v>
+      </c>
+      <c r="BD304" t="n">
+        <v>96</v>
+      </c>
+      <c r="BE304" t="n">
+        <v>87</v>
+      </c>
+      <c r="BF304" t="n">
+        <v>89</v>
+      </c>
+      <c r="BG304" t="n">
+        <v>121</v>
+      </c>
+      <c r="BH304" t="n">
+        <v>93</v>
+      </c>
+      <c r="BI304" t="n">
+        <v>91</v>
+      </c>
+      <c r="BJ304" t="n">
+        <v>126</v>
+      </c>
+      <c r="BK304" t="n">
+        <v>93</v>
+      </c>
+      <c r="BL304" t="n">
+        <v>77</v>
+      </c>
+      <c r="BM304" t="n">
+        <v>91</v>
+      </c>
+      <c r="BN304" t="n">
+        <v>91</v>
+      </c>
+      <c r="BO304" t="n">
+        <v>83</v>
+      </c>
+      <c r="BP304" t="n">
+        <v>77</v>
+      </c>
+      <c r="BQ304" t="n">
+        <v>95</v>
+      </c>
+      <c r="BR304" t="n">
+        <v>81</v>
+      </c>
+      <c r="BS304" t="n">
+        <v>93</v>
+      </c>
+      <c r="BT304" t="n">
+        <v>79</v>
+      </c>
+      <c r="BU304" t="n">
+        <v>105</v>
+      </c>
+      <c r="BV304" t="n">
+        <v>92</v>
+      </c>
+      <c r="BW304" t="n">
+        <v>105</v>
+      </c>
+      <c r="BX304" t="n">
+        <v>87</v>
+      </c>
+      <c r="BY304" t="n">
+        <v>119</v>
+      </c>
+      <c r="BZ304" t="n">
+        <v>80</v>
+      </c>
+      <c r="CA304" t="n">
+        <v>146</v>
+      </c>
+      <c r="CB304" t="n">
+        <v>123</v>
+      </c>
+      <c r="CC304" t="n">
+        <v>80</v>
+      </c>
+      <c r="CD304" t="n">
+        <v>91</v>
+      </c>
+      <c r="CE304" t="n">
+        <v>78</v>
+      </c>
+      <c r="CF304" t="n">
+        <v>97</v>
+      </c>
+      <c r="CG304" t="n">
+        <v>89</v>
+      </c>
+      <c r="CH304" t="n">
+        <v>116</v>
+      </c>
+      <c r="CI304" t="n">
+        <v>104</v>
+      </c>
+      <c r="CJ304" t="n">
+        <v>85</v>
+      </c>
+      <c r="CK304" t="n">
+        <v>135</v>
+      </c>
+      <c r="CL304" t="n">
+        <v>145</v>
+      </c>
+      <c r="CM304" t="n">
+        <v>111</v>
+      </c>
+      <c r="CN304" t="n">
+        <v>92</v>
+      </c>
+      <c r="CO304" t="n">
+        <v>83</v>
+      </c>
+      <c r="CP304" t="n">
+        <v>127</v>
+      </c>
+      <c r="CQ304" t="n">
+        <v>93</v>
+      </c>
+      <c r="CR304" t="n">
+        <v>113</v>
+      </c>
+      <c r="CS304" t="n">
+        <v>96</v>
+      </c>
+      <c r="CT304" t="n">
+        <v>110</v>
+      </c>
+      <c r="CU304" t="n">
+        <v>91</v>
+      </c>
+      <c r="CV304" t="n">
+        <v>124</v>
+      </c>
+      <c r="CW304" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>40</v>
+      </c>
+      <c r="B305" t="n">
+        <v>104</v>
+      </c>
+      <c r="C305" t="n">
+        <v>95</v>
+      </c>
+      <c r="D305" t="n">
+        <v>93</v>
+      </c>
+      <c r="E305" t="n">
+        <v>97</v>
+      </c>
+      <c r="F305" t="n">
+        <v>106</v>
+      </c>
+      <c r="G305" t="n">
+        <v>126</v>
+      </c>
+      <c r="H305" t="n">
+        <v>111</v>
+      </c>
+      <c r="I305" t="n">
+        <v>86</v>
+      </c>
+      <c r="J305" t="n">
+        <v>104</v>
+      </c>
+      <c r="K305" t="n">
+        <v>120</v>
+      </c>
+      <c r="L305" t="n">
+        <v>74</v>
+      </c>
+      <c r="M305" t="n">
+        <v>119</v>
+      </c>
+      <c r="N305" t="n">
+        <v>89</v>
+      </c>
+      <c r="O305" t="n">
+        <v>98</v>
+      </c>
+      <c r="P305" t="n">
+        <v>85</v>
+      </c>
+      <c r="Q305" t="n">
+        <v>97</v>
+      </c>
+      <c r="R305" t="n">
+        <v>90</v>
+      </c>
+      <c r="S305" t="n">
+        <v>107</v>
+      </c>
+      <c r="T305" t="n">
+        <v>92</v>
+      </c>
+      <c r="U305" t="n">
+        <v>87</v>
+      </c>
+      <c r="V305" t="n">
+        <v>127</v>
+      </c>
+      <c r="W305" t="n">
+        <v>140</v>
+      </c>
+      <c r="X305" t="n">
+        <v>99</v>
+      </c>
+      <c r="Y305" t="n">
+        <v>101</v>
+      </c>
+      <c r="Z305" t="n">
+        <v>105</v>
+      </c>
+      <c r="AA305" t="n">
+        <v>98</v>
+      </c>
+      <c r="AB305" t="n">
+        <v>115</v>
+      </c>
+      <c r="AC305" t="n">
+        <v>115</v>
+      </c>
+      <c r="AD305" t="n">
+        <v>82</v>
+      </c>
+      <c r="AE305" t="n">
+        <v>79</v>
+      </c>
+      <c r="AF305" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG305" t="n">
+        <v>94</v>
+      </c>
+      <c r="AH305" t="n">
+        <v>104</v>
+      </c>
+      <c r="AI305" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ305" t="n">
+        <v>118</v>
+      </c>
+      <c r="AK305" t="n">
+        <v>99</v>
+      </c>
+      <c r="AL305" t="n">
+        <v>121</v>
+      </c>
+      <c r="AM305" t="n">
+        <v>94</v>
+      </c>
+      <c r="AN305" t="n">
+        <v>111</v>
+      </c>
+      <c r="AO305" t="n">
+        <v>90</v>
+      </c>
+      <c r="AP305" t="n">
+        <v>80</v>
+      </c>
+      <c r="AQ305" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR305" t="n">
+        <v>105</v>
+      </c>
+      <c r="AS305" t="n">
+        <v>82</v>
+      </c>
+      <c r="AT305" t="n">
+        <v>134</v>
+      </c>
+      <c r="AU305" t="n">
+        <v>105</v>
+      </c>
+      <c r="AV305" t="n">
+        <v>114</v>
+      </c>
+      <c r="AW305" t="n">
+        <v>117</v>
+      </c>
+      <c r="AX305" t="n">
+        <v>70</v>
+      </c>
+      <c r="AY305" t="n">
+        <v>108</v>
+      </c>
+      <c r="AZ305" t="n">
+        <v>110</v>
+      </c>
+      <c r="BA305" t="n">
+        <v>117</v>
+      </c>
+      <c r="BB305" t="n">
+        <v>102</v>
+      </c>
+      <c r="BC305" t="n">
+        <v>108</v>
+      </c>
+      <c r="BD305" t="n">
+        <v>90</v>
+      </c>
+      <c r="BE305" t="n">
+        <v>92</v>
+      </c>
+      <c r="BF305" t="n">
+        <v>89</v>
+      </c>
+      <c r="BG305" t="n">
+        <v>120</v>
+      </c>
+      <c r="BH305" t="n">
+        <v>132</v>
+      </c>
+      <c r="BI305" t="n">
+        <v>106</v>
+      </c>
+      <c r="BJ305" t="n">
+        <v>104</v>
+      </c>
+      <c r="BK305" t="n">
+        <v>127</v>
+      </c>
+      <c r="BL305" t="n">
+        <v>77</v>
+      </c>
+      <c r="BM305" t="n">
+        <v>126</v>
+      </c>
+      <c r="BN305" t="n">
+        <v>94</v>
+      </c>
+      <c r="BO305" t="n">
+        <v>86</v>
+      </c>
+      <c r="BP305" t="n">
+        <v>78</v>
+      </c>
+      <c r="BQ305" t="n">
+        <v>95</v>
+      </c>
+      <c r="BR305" t="n">
+        <v>80</v>
+      </c>
+      <c r="BS305" t="n">
+        <v>99</v>
+      </c>
+      <c r="BT305" t="n">
+        <v>71</v>
+      </c>
+      <c r="BU305" t="n">
+        <v>104</v>
+      </c>
+      <c r="BV305" t="n">
+        <v>98</v>
+      </c>
+      <c r="BW305" t="n">
+        <v>100</v>
+      </c>
+      <c r="BX305" t="n">
+        <v>98</v>
+      </c>
+      <c r="BY305" t="n">
+        <v>127</v>
+      </c>
+      <c r="BZ305" t="n">
+        <v>80</v>
+      </c>
+      <c r="CA305" t="n">
+        <v>146</v>
+      </c>
+      <c r="CB305" t="n">
+        <v>123</v>
+      </c>
+      <c r="CC305" t="n">
+        <v>80</v>
+      </c>
+      <c r="CD305" t="n">
+        <v>92</v>
+      </c>
+      <c r="CE305" t="n">
+        <v>73</v>
+      </c>
+      <c r="CF305" t="n">
+        <v>85</v>
+      </c>
+      <c r="CG305" t="n">
+        <v>98</v>
+      </c>
+      <c r="CH305" t="n">
+        <v>118</v>
+      </c>
+      <c r="CI305" t="n">
+        <v>97</v>
+      </c>
+      <c r="CJ305" t="n">
+        <v>85</v>
+      </c>
+      <c r="CK305" t="n">
+        <v>129</v>
+      </c>
+      <c r="CL305" t="n">
+        <v>121</v>
+      </c>
+      <c r="CM305" t="n">
+        <v>95</v>
+      </c>
+      <c r="CN305" t="n">
+        <v>100</v>
+      </c>
+      <c r="CO305" t="n">
+        <v>80</v>
+      </c>
+      <c r="CP305" t="n">
+        <v>123</v>
+      </c>
+      <c r="CQ305" t="n">
+        <v>95</v>
+      </c>
+      <c r="CR305" t="n">
+        <v>128</v>
+      </c>
+      <c r="CS305" t="n">
+        <v>97</v>
+      </c>
+      <c r="CT305" t="n">
+        <v>96</v>
+      </c>
+      <c r="CU305" t="n">
+        <v>94</v>
+      </c>
+      <c r="CV305" t="n">
+        <v>118</v>
+      </c>
+      <c r="CW305" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>50</v>
+      </c>
+      <c r="B306" t="n">
+        <v>132</v>
+      </c>
+      <c r="C306" t="n">
+        <v>94</v>
+      </c>
+      <c r="D306" t="n">
+        <v>95</v>
+      </c>
+      <c r="E306" t="n">
+        <v>98</v>
+      </c>
+      <c r="F306" t="n">
+        <v>97</v>
+      </c>
+      <c r="G306" t="n">
+        <v>121</v>
+      </c>
+      <c r="H306" t="n">
+        <v>112</v>
+      </c>
+      <c r="I306" t="n">
+        <v>89</v>
+      </c>
+      <c r="J306" t="n">
+        <v>105</v>
+      </c>
+      <c r="K306" t="n">
+        <v>106</v>
+      </c>
+      <c r="L306" t="n">
+        <v>76</v>
+      </c>
+      <c r="M306" t="n">
+        <v>116</v>
+      </c>
+      <c r="N306" t="n">
+        <v>131</v>
+      </c>
+      <c r="O306" t="n">
+        <v>94</v>
+      </c>
+      <c r="P306" t="n">
+        <v>123</v>
+      </c>
+      <c r="Q306" t="n">
+        <v>97</v>
+      </c>
+      <c r="R306" t="n">
+        <v>77</v>
+      </c>
+      <c r="S306" t="n">
+        <v>120</v>
+      </c>
+      <c r="T306" t="n">
+        <v>92</v>
+      </c>
+      <c r="U306" t="n">
+        <v>104</v>
+      </c>
+      <c r="V306" t="n">
+        <v>138</v>
+      </c>
+      <c r="W306" t="n">
+        <v>110</v>
+      </c>
+      <c r="X306" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y306" t="n">
+        <v>101</v>
+      </c>
+      <c r="Z306" t="n">
+        <v>105</v>
+      </c>
+      <c r="AA306" t="n">
+        <v>98</v>
+      </c>
+      <c r="AB306" t="n">
+        <v>102</v>
+      </c>
+      <c r="AC306" t="n">
+        <v>89</v>
+      </c>
+      <c r="AD306" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE306" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF306" t="n">
+        <v>128</v>
+      </c>
+      <c r="AG306" t="n">
+        <v>79</v>
+      </c>
+      <c r="AH306" t="n">
+        <v>87</v>
+      </c>
+      <c r="AI306" t="n">
+        <v>82</v>
+      </c>
+      <c r="AJ306" t="n">
+        <v>119</v>
+      </c>
+      <c r="AK306" t="n">
+        <v>90</v>
+      </c>
+      <c r="AL306" t="n">
+        <v>121</v>
+      </c>
+      <c r="AM306" t="n">
+        <v>94</v>
+      </c>
+      <c r="AN306" t="n">
+        <v>113</v>
+      </c>
+      <c r="AO306" t="n">
+        <v>89</v>
+      </c>
+      <c r="AP306" t="n">
+        <v>76</v>
+      </c>
+      <c r="AQ306" t="n">
+        <v>122</v>
+      </c>
+      <c r="AR306" t="n">
+        <v>107</v>
+      </c>
+      <c r="AS306" t="n">
+        <v>108</v>
+      </c>
+      <c r="AT306" t="n">
+        <v>89</v>
+      </c>
+      <c r="AU306" t="n">
+        <v>105</v>
+      </c>
+      <c r="AV306" t="n">
+        <v>87</v>
+      </c>
+      <c r="AW306" t="n">
+        <v>132</v>
+      </c>
+      <c r="AX306" t="n">
+        <v>70</v>
+      </c>
+      <c r="AY306" t="n">
+        <v>108</v>
+      </c>
+      <c r="AZ306" t="n">
+        <v>114</v>
+      </c>
+      <c r="BA306" t="n">
+        <v>117</v>
+      </c>
+      <c r="BB306" t="n">
+        <v>102</v>
+      </c>
+      <c r="BC306" t="n">
+        <v>112</v>
+      </c>
+      <c r="BD306" t="n">
+        <v>89</v>
+      </c>
+      <c r="BE306" t="n">
+        <v>92</v>
+      </c>
+      <c r="BF306" t="n">
+        <v>71</v>
+      </c>
+      <c r="BG306" t="n">
+        <v>107</v>
+      </c>
+      <c r="BH306" t="n">
+        <v>110</v>
+      </c>
+      <c r="BI306" t="n">
+        <v>93</v>
+      </c>
+      <c r="BJ306" t="n">
+        <v>108</v>
+      </c>
+      <c r="BK306" t="n">
+        <v>139</v>
+      </c>
+      <c r="BL306" t="n">
+        <v>86</v>
+      </c>
+      <c r="BM306" t="n">
+        <v>92</v>
+      </c>
+      <c r="BN306" t="n">
+        <v>96</v>
+      </c>
+      <c r="BO306" t="n">
+        <v>83</v>
+      </c>
+      <c r="BP306" t="n">
+        <v>78</v>
+      </c>
+      <c r="BQ306" t="n">
+        <v>127</v>
+      </c>
+      <c r="BR306" t="n">
+        <v>83</v>
+      </c>
+      <c r="BS306" t="n">
+        <v>94</v>
+      </c>
+      <c r="BT306" t="n">
+        <v>67</v>
+      </c>
+      <c r="BU306" t="n">
+        <v>104</v>
+      </c>
+      <c r="BV306" t="n">
+        <v>103</v>
+      </c>
+      <c r="BW306" t="n">
+        <v>120</v>
+      </c>
+      <c r="BX306" t="n">
+        <v>91</v>
+      </c>
+      <c r="BY306" t="n">
+        <v>111</v>
+      </c>
+      <c r="BZ306" t="n">
+        <v>80</v>
+      </c>
+      <c r="CA306" t="n">
+        <v>146</v>
+      </c>
+      <c r="CB306" t="n">
+        <v>126</v>
+      </c>
+      <c r="CC306" t="n">
+        <v>81</v>
+      </c>
+      <c r="CD306" t="n">
+        <v>79</v>
+      </c>
+      <c r="CE306" t="n">
+        <v>79</v>
+      </c>
+      <c r="CF306" t="n">
+        <v>90</v>
+      </c>
+      <c r="CG306" t="n">
+        <v>89</v>
+      </c>
+      <c r="CH306" t="n">
+        <v>151</v>
+      </c>
+      <c r="CI306" t="n">
+        <v>94</v>
+      </c>
+      <c r="CJ306" t="n">
+        <v>85</v>
+      </c>
+      <c r="CK306" t="n">
+        <v>127</v>
+      </c>
+      <c r="CL306" t="n">
+        <v>101</v>
+      </c>
+      <c r="CM306" t="n">
+        <v>101</v>
+      </c>
+      <c r="CN306" t="n">
+        <v>95</v>
+      </c>
+      <c r="CO306" t="n">
+        <v>80</v>
+      </c>
+      <c r="CP306" t="n">
+        <v>127</v>
+      </c>
+      <c r="CQ306" t="n">
+        <v>99</v>
+      </c>
+      <c r="CR306" t="n">
+        <v>128</v>
+      </c>
+      <c r="CS306" t="n">
+        <v>97</v>
+      </c>
+      <c r="CT306" t="n">
+        <v>110</v>
+      </c>
+      <c r="CU306" t="n">
+        <v>99</v>
+      </c>
+      <c r="CV306" t="n">
+        <v>116</v>
+      </c>
+      <c r="CW306" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>60</v>
+      </c>
+      <c r="B307" t="n">
+        <v>101</v>
+      </c>
+      <c r="C307" t="n">
+        <v>94</v>
+      </c>
+      <c r="D307" t="n">
+        <v>99</v>
+      </c>
+      <c r="E307" t="n">
+        <v>91</v>
+      </c>
+      <c r="F307" t="n">
+        <v>160</v>
+      </c>
+      <c r="G307" t="n">
+        <v>115</v>
+      </c>
+      <c r="H307" t="n">
+        <v>113</v>
+      </c>
+      <c r="I307" t="n">
+        <v>89</v>
+      </c>
+      <c r="J307" t="n">
+        <v>127</v>
+      </c>
+      <c r="K307" t="n">
+        <v>106</v>
+      </c>
+      <c r="L307" t="n">
+        <v>76</v>
+      </c>
+      <c r="M307" t="n">
+        <v>107</v>
+      </c>
+      <c r="N307" t="n">
+        <v>124</v>
+      </c>
+      <c r="O307" t="n">
+        <v>101</v>
+      </c>
+      <c r="P307" t="n">
+        <v>127</v>
+      </c>
+      <c r="Q307" t="n">
+        <v>113</v>
+      </c>
+      <c r="R307" t="n">
+        <v>77</v>
+      </c>
+      <c r="S307" t="n">
+        <v>120</v>
+      </c>
+      <c r="T307" t="n">
+        <v>92</v>
+      </c>
+      <c r="U307" t="n">
+        <v>104</v>
+      </c>
+      <c r="V307" t="n">
+        <v>123</v>
+      </c>
+      <c r="W307" t="n">
+        <v>124</v>
+      </c>
+      <c r="X307" t="n">
+        <v>99</v>
+      </c>
+      <c r="Y307" t="n">
+        <v>95</v>
+      </c>
+      <c r="Z307" t="n">
+        <v>106</v>
+      </c>
+      <c r="AA307" t="n">
+        <v>98</v>
+      </c>
+      <c r="AB307" t="n">
+        <v>102</v>
+      </c>
+      <c r="AC307" t="n">
+        <v>89</v>
+      </c>
+      <c r="AD307" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE307" t="n">
+        <v>71</v>
+      </c>
+      <c r="AF307" t="n">
+        <v>129</v>
+      </c>
+      <c r="AG307" t="n">
+        <v>79</v>
+      </c>
+      <c r="AH307" t="n">
+        <v>86</v>
+      </c>
+      <c r="AI307" t="n">
+        <v>98</v>
+      </c>
+      <c r="AJ307" t="n">
+        <v>128</v>
+      </c>
+      <c r="AK307" t="n">
+        <v>97</v>
+      </c>
+      <c r="AL307" t="n">
+        <v>117</v>
+      </c>
+      <c r="AM307" t="n">
+        <v>94</v>
+      </c>
+      <c r="AN307" t="n">
+        <v>111</v>
+      </c>
+      <c r="AO307" t="n">
+        <v>88</v>
+      </c>
+      <c r="AP307" t="n">
+        <v>80</v>
+      </c>
+      <c r="AQ307" t="n">
+        <v>121</v>
+      </c>
+      <c r="AR307" t="n">
+        <v>107</v>
+      </c>
+      <c r="AS307" t="n">
+        <v>104</v>
+      </c>
+      <c r="AT307" t="n">
+        <v>92</v>
+      </c>
+      <c r="AU307" t="n">
+        <v>96</v>
+      </c>
+      <c r="AV307" t="n">
+        <v>91</v>
+      </c>
+      <c r="AW307" t="n">
+        <v>132</v>
+      </c>
+      <c r="AX307" t="n">
+        <v>72</v>
+      </c>
+      <c r="AY307" t="n">
+        <v>108</v>
+      </c>
+      <c r="AZ307" t="n">
+        <v>114</v>
+      </c>
+      <c r="BA307" t="n">
+        <v>124</v>
+      </c>
+      <c r="BB307" t="n">
+        <v>102</v>
+      </c>
+      <c r="BC307" t="n">
+        <v>106</v>
+      </c>
+      <c r="BD307" t="n">
+        <v>94</v>
+      </c>
+      <c r="BE307" t="n">
+        <v>92</v>
+      </c>
+      <c r="BF307" t="n">
+        <v>72</v>
+      </c>
+      <c r="BG307" t="n">
+        <v>106</v>
+      </c>
+      <c r="BH307" t="n">
+        <v>119</v>
+      </c>
+      <c r="BI307" t="n">
+        <v>93</v>
+      </c>
+      <c r="BJ307" t="n">
+        <v>129</v>
+      </c>
+      <c r="BK307" t="n">
+        <v>98</v>
+      </c>
+      <c r="BL307" t="n">
+        <v>92</v>
+      </c>
+      <c r="BM307" t="n">
+        <v>94</v>
+      </c>
+      <c r="BN307" t="n">
+        <v>94</v>
+      </c>
+      <c r="BO307" t="n">
+        <v>84</v>
+      </c>
+      <c r="BP307" t="n">
+        <v>103</v>
+      </c>
+      <c r="BQ307" t="n">
+        <v>112</v>
+      </c>
+      <c r="BR307" t="n">
+        <v>83</v>
+      </c>
+      <c r="BS307" t="n">
+        <v>94</v>
+      </c>
+      <c r="BT307" t="n">
+        <v>91</v>
+      </c>
+      <c r="BU307" t="n">
+        <v>104</v>
+      </c>
+      <c r="BV307" t="n">
+        <v>96</v>
+      </c>
+      <c r="BW307" t="n">
+        <v>100</v>
+      </c>
+      <c r="BX307" t="n">
+        <v>88</v>
+      </c>
+      <c r="BY307" t="n">
+        <v>115</v>
+      </c>
+      <c r="BZ307" t="n">
+        <v>102</v>
+      </c>
+      <c r="CA307" t="n">
+        <v>146</v>
+      </c>
+      <c r="CB307" t="n">
+        <v>123</v>
+      </c>
+      <c r="CC307" t="n">
+        <v>84</v>
+      </c>
+      <c r="CD307" t="n">
+        <v>84</v>
+      </c>
+      <c r="CE307" t="n">
+        <v>73</v>
+      </c>
+      <c r="CF307" t="n">
+        <v>89</v>
+      </c>
+      <c r="CG307" t="n">
+        <v>83</v>
+      </c>
+      <c r="CH307" t="n">
+        <v>130</v>
+      </c>
+      <c r="CI307" t="n">
+        <v>127</v>
+      </c>
+      <c r="CJ307" t="n">
+        <v>94</v>
+      </c>
+      <c r="CK307" t="n">
+        <v>124</v>
+      </c>
+      <c r="CL307" t="n">
+        <v>102</v>
+      </c>
+      <c r="CM307" t="n">
+        <v>108</v>
+      </c>
+      <c r="CN307" t="n">
+        <v>85</v>
+      </c>
+      <c r="CO307" t="n">
+        <v>82</v>
+      </c>
+      <c r="CP307" t="n">
+        <v>111</v>
+      </c>
+      <c r="CQ307" t="n">
+        <v>99</v>
+      </c>
+      <c r="CR307" t="n">
+        <v>128</v>
+      </c>
+      <c r="CS307" t="n">
+        <v>89</v>
+      </c>
+      <c r="CT307" t="n">
+        <v>110</v>
+      </c>
+      <c r="CU307" t="n">
+        <v>94</v>
+      </c>
+      <c r="CV307" t="n">
+        <v>117</v>
+      </c>
+      <c r="CW307" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>70</v>
+      </c>
+      <c r="B308" t="n">
+        <v>102</v>
+      </c>
+      <c r="C308" t="n">
+        <v>87</v>
+      </c>
+      <c r="D308" t="n">
+        <v>103</v>
+      </c>
+      <c r="E308" t="n">
+        <v>91</v>
+      </c>
+      <c r="F308" t="n">
+        <v>158</v>
+      </c>
+      <c r="G308" t="n">
+        <v>129</v>
+      </c>
+      <c r="H308" t="n">
+        <v>113</v>
+      </c>
+      <c r="I308" t="n">
+        <v>92</v>
+      </c>
+      <c r="J308" t="n">
+        <v>127</v>
+      </c>
+      <c r="K308" t="n">
+        <v>106</v>
+      </c>
+      <c r="L308" t="n">
+        <v>76</v>
+      </c>
+      <c r="M308" t="n">
+        <v>102</v>
+      </c>
+      <c r="N308" t="n">
+        <v>128</v>
+      </c>
+      <c r="O308" t="n">
+        <v>94</v>
+      </c>
+      <c r="P308" t="n">
+        <v>101</v>
+      </c>
+      <c r="Q308" t="n">
+        <v>113</v>
+      </c>
+      <c r="R308" t="n">
+        <v>77</v>
+      </c>
+      <c r="S308" t="n">
+        <v>120</v>
+      </c>
+      <c r="T308" t="n">
+        <v>109</v>
+      </c>
+      <c r="U308" t="n">
+        <v>107</v>
+      </c>
+      <c r="V308" t="n">
+        <v>116</v>
+      </c>
+      <c r="W308" t="n">
+        <v>124</v>
+      </c>
+      <c r="X308" t="n">
+        <v>111</v>
+      </c>
+      <c r="Y308" t="n">
+        <v>83</v>
+      </c>
+      <c r="Z308" t="n">
+        <v>109</v>
+      </c>
+      <c r="AA308" t="n">
+        <v>98</v>
+      </c>
+      <c r="AB308" t="n">
+        <v>113</v>
+      </c>
+      <c r="AC308" t="n">
+        <v>89</v>
+      </c>
+      <c r="AD308" t="n">
+        <v>96</v>
+      </c>
+      <c r="AE308" t="n">
+        <v>67</v>
+      </c>
+      <c r="AF308" t="n">
+        <v>92</v>
+      </c>
+      <c r="AG308" t="n">
+        <v>79</v>
+      </c>
+      <c r="AH308" t="n">
+        <v>96</v>
+      </c>
+      <c r="AI308" t="n">
+        <v>106</v>
+      </c>
+      <c r="AJ308" t="n">
+        <v>116</v>
+      </c>
+      <c r="AK308" t="n">
+        <v>97</v>
+      </c>
+      <c r="AL308" t="n">
+        <v>117</v>
+      </c>
+      <c r="AM308" t="n">
+        <v>94</v>
+      </c>
+      <c r="AN308" t="n">
+        <v>112</v>
+      </c>
+      <c r="AO308" t="n">
+        <v>96</v>
+      </c>
+      <c r="AP308" t="n">
+        <v>78</v>
+      </c>
+      <c r="AQ308" t="n">
+        <v>112</v>
+      </c>
+      <c r="AR308" t="n">
+        <v>107</v>
+      </c>
+      <c r="AS308" t="n">
+        <v>104</v>
+      </c>
+      <c r="AT308" t="n">
+        <v>89</v>
+      </c>
+      <c r="AU308" t="n">
+        <v>105</v>
+      </c>
+      <c r="AV308" t="n">
+        <v>91</v>
+      </c>
+      <c r="AW308" t="n">
+        <v>130</v>
+      </c>
+      <c r="AX308" t="n">
+        <v>70</v>
+      </c>
+      <c r="AY308" t="n">
+        <v>108</v>
+      </c>
+      <c r="AZ308" t="n">
+        <v>114</v>
+      </c>
+      <c r="BA308" t="n">
+        <v>95</v>
+      </c>
+      <c r="BB308" t="n">
+        <v>84</v>
+      </c>
+      <c r="BC308" t="n">
+        <v>112</v>
+      </c>
+      <c r="BD308" t="n">
+        <v>101</v>
+      </c>
+      <c r="BE308" t="n">
+        <v>98</v>
+      </c>
+      <c r="BF308" t="n">
+        <v>79</v>
+      </c>
+      <c r="BG308" t="n">
+        <v>105</v>
+      </c>
+      <c r="BH308" t="n">
+        <v>118</v>
+      </c>
+      <c r="BI308" t="n">
+        <v>93</v>
+      </c>
+      <c r="BJ308" t="n">
+        <v>132</v>
+      </c>
+      <c r="BK308" t="n">
+        <v>126</v>
+      </c>
+      <c r="BL308" t="n">
+        <v>77</v>
+      </c>
+      <c r="BM308" t="n">
+        <v>96</v>
+      </c>
+      <c r="BN308" t="n">
+        <v>97</v>
+      </c>
+      <c r="BO308" t="n">
+        <v>82</v>
+      </c>
+      <c r="BP308" t="n">
+        <v>96</v>
+      </c>
+      <c r="BQ308" t="n">
+        <v>110</v>
+      </c>
+      <c r="BR308" t="n">
+        <v>82</v>
+      </c>
+      <c r="BS308" t="n">
+        <v>94</v>
+      </c>
+      <c r="BT308" t="n">
+        <v>91</v>
+      </c>
+      <c r="BU308" t="n">
+        <v>104</v>
+      </c>
+      <c r="BV308" t="n">
+        <v>105</v>
+      </c>
+      <c r="BW308" t="n">
+        <v>101</v>
+      </c>
+      <c r="BX308" t="n">
+        <v>88</v>
+      </c>
+      <c r="BY308" t="n">
+        <v>111</v>
+      </c>
+      <c r="BZ308" t="n">
+        <v>102</v>
+      </c>
+      <c r="CA308" t="n">
+        <v>155</v>
+      </c>
+      <c r="CB308" t="n">
+        <v>141</v>
+      </c>
+      <c r="CC308" t="n">
+        <v>80</v>
+      </c>
+      <c r="CD308" t="n">
+        <v>82</v>
+      </c>
+      <c r="CE308" t="n">
+        <v>75</v>
+      </c>
+      <c r="CF308" t="n">
+        <v>89</v>
+      </c>
+      <c r="CG308" t="n">
+        <v>83</v>
+      </c>
+      <c r="CH308" t="n">
+        <v>103</v>
+      </c>
+      <c r="CI308" t="n">
+        <v>101</v>
+      </c>
+      <c r="CJ308" t="n">
+        <v>97</v>
+      </c>
+      <c r="CK308" t="n">
+        <v>122</v>
+      </c>
+      <c r="CL308" t="n">
+        <v>102</v>
+      </c>
+      <c r="CM308" t="n">
+        <v>94</v>
+      </c>
+      <c r="CN308" t="n">
+        <v>85</v>
+      </c>
+      <c r="CO308" t="n">
+        <v>86</v>
+      </c>
+      <c r="CP308" t="n">
+        <v>110</v>
+      </c>
+      <c r="CQ308" t="n">
+        <v>97</v>
+      </c>
+      <c r="CR308" t="n">
+        <v>128</v>
+      </c>
+      <c r="CS308" t="n">
+        <v>89</v>
+      </c>
+      <c r="CT308" t="n">
+        <v>110</v>
+      </c>
+      <c r="CU308" t="n">
+        <v>97</v>
+      </c>
+      <c r="CV308" t="n">
+        <v>122</v>
+      </c>
+      <c r="CW308" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>80</v>
+      </c>
+      <c r="B309" t="n">
+        <v>94</v>
+      </c>
+      <c r="C309" t="n">
+        <v>115</v>
+      </c>
+      <c r="D309" t="n">
+        <v>103</v>
+      </c>
+      <c r="E309" t="n">
+        <v>91</v>
+      </c>
+      <c r="F309" t="n">
+        <v>132</v>
+      </c>
+      <c r="G309" t="n">
+        <v>129</v>
+      </c>
+      <c r="H309" t="n">
+        <v>113</v>
+      </c>
+      <c r="I309" t="n">
+        <v>92</v>
+      </c>
+      <c r="J309" t="n">
+        <v>115</v>
+      </c>
+      <c r="K309" t="n">
+        <v>106</v>
+      </c>
+      <c r="L309" t="n">
+        <v>96</v>
+      </c>
+      <c r="M309" t="n">
+        <v>102</v>
+      </c>
+      <c r="N309" t="n">
+        <v>128</v>
+      </c>
+      <c r="O309" t="n">
+        <v>97</v>
+      </c>
+      <c r="P309" t="n">
+        <v>98</v>
+      </c>
+      <c r="Q309" t="n">
+        <v>118</v>
+      </c>
+      <c r="R309" t="n">
+        <v>81</v>
+      </c>
+      <c r="S309" t="n">
+        <v>120</v>
+      </c>
+      <c r="T309" t="n">
+        <v>109</v>
+      </c>
+      <c r="U309" t="n">
+        <v>87</v>
+      </c>
+      <c r="V309" t="n">
+        <v>123</v>
+      </c>
+      <c r="W309" t="n">
+        <v>124</v>
+      </c>
+      <c r="X309" t="n">
+        <v>111</v>
+      </c>
+      <c r="Y309" t="n">
+        <v>83</v>
+      </c>
+      <c r="Z309" t="n">
+        <v>116</v>
+      </c>
+      <c r="AA309" t="n">
+        <v>98</v>
+      </c>
+      <c r="AB309" t="n">
+        <v>113</v>
+      </c>
+      <c r="AC309" t="n">
+        <v>108</v>
+      </c>
+      <c r="AD309" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE309" t="n">
+        <v>67</v>
+      </c>
+      <c r="AF309" t="n">
+        <v>129</v>
+      </c>
+      <c r="AG309" t="n">
+        <v>79</v>
+      </c>
+      <c r="AH309" t="n">
+        <v>109</v>
+      </c>
+      <c r="AI309" t="n">
+        <v>98</v>
+      </c>
+      <c r="AJ309" t="n">
+        <v>101</v>
+      </c>
+      <c r="AK309" t="n">
+        <v>107</v>
+      </c>
+      <c r="AL309" t="n">
+        <v>117</v>
+      </c>
+      <c r="AM309" t="n">
+        <v>94</v>
+      </c>
+      <c r="AN309" t="n">
+        <v>112</v>
+      </c>
+      <c r="AO309" t="n">
+        <v>96</v>
+      </c>
+      <c r="AP309" t="n">
+        <v>75</v>
+      </c>
+      <c r="AQ309" t="n">
+        <v>109</v>
+      </c>
+      <c r="AR309" t="n">
+        <v>97</v>
+      </c>
+      <c r="AS309" t="n">
+        <v>76</v>
+      </c>
+      <c r="AT309" t="n">
+        <v>93</v>
+      </c>
+      <c r="AU309" t="n">
+        <v>99</v>
+      </c>
+      <c r="AV309" t="n">
+        <v>90</v>
+      </c>
+      <c r="AW309" t="n">
+        <v>130</v>
+      </c>
+      <c r="AX309" t="n">
+        <v>71</v>
+      </c>
+      <c r="AY309" t="n">
+        <v>125</v>
+      </c>
+      <c r="AZ309" t="n">
+        <v>116</v>
+      </c>
+      <c r="BA309" t="n">
+        <v>105</v>
+      </c>
+      <c r="BB309" t="n">
+        <v>106</v>
+      </c>
+      <c r="BC309" t="n">
+        <v>92</v>
+      </c>
+      <c r="BD309" t="n">
+        <v>98</v>
+      </c>
+      <c r="BE309" t="n">
+        <v>98</v>
+      </c>
+      <c r="BF309" t="n">
+        <v>79</v>
+      </c>
+      <c r="BG309" t="n">
+        <v>102</v>
+      </c>
+      <c r="BH309" t="n">
+        <v>115</v>
+      </c>
+      <c r="BI309" t="n">
+        <v>104</v>
+      </c>
+      <c r="BJ309" t="n">
+        <v>116</v>
+      </c>
+      <c r="BK309" t="n">
+        <v>118</v>
+      </c>
+      <c r="BL309" t="n">
+        <v>86</v>
+      </c>
+      <c r="BM309" t="n">
+        <v>96</v>
+      </c>
+      <c r="BN309" t="n">
+        <v>97</v>
+      </c>
+      <c r="BO309" t="n">
+        <v>82</v>
+      </c>
+      <c r="BP309" t="n">
+        <v>96</v>
+      </c>
+      <c r="BQ309" t="n">
+        <v>108</v>
+      </c>
+      <c r="BR309" t="n">
+        <v>79</v>
+      </c>
+      <c r="BS309" t="n">
+        <v>94</v>
+      </c>
+      <c r="BT309" t="n">
+        <v>87</v>
+      </c>
+      <c r="BU309" t="n">
+        <v>106</v>
+      </c>
+      <c r="BV309" t="n">
+        <v>98</v>
+      </c>
+      <c r="BW309" t="n">
+        <v>101</v>
+      </c>
+      <c r="BX309" t="n">
+        <v>88</v>
+      </c>
+      <c r="BY309" t="n">
+        <v>108</v>
+      </c>
+      <c r="BZ309" t="n">
+        <v>92</v>
+      </c>
+      <c r="CA309" t="n">
+        <v>171</v>
+      </c>
+      <c r="CB309" t="n">
+        <v>140</v>
+      </c>
+      <c r="CC309" t="n">
+        <v>80</v>
+      </c>
+      <c r="CD309" t="n">
+        <v>91</v>
+      </c>
+      <c r="CE309" t="n">
+        <v>75</v>
+      </c>
+      <c r="CF309" t="n">
+        <v>89</v>
+      </c>
+      <c r="CG309" t="n">
+        <v>83</v>
+      </c>
+      <c r="CH309" t="n">
+        <v>103</v>
+      </c>
+      <c r="CI309" t="n">
+        <v>101</v>
+      </c>
+      <c r="CJ309" t="n">
+        <v>97</v>
+      </c>
+      <c r="CK309" t="n">
+        <v>124</v>
+      </c>
+      <c r="CL309" t="n">
+        <v>106</v>
+      </c>
+      <c r="CM309" t="n">
+        <v>94</v>
+      </c>
+      <c r="CN309" t="n">
+        <v>85</v>
+      </c>
+      <c r="CO309" t="n">
+        <v>82</v>
+      </c>
+      <c r="CP309" t="n">
+        <v>95</v>
+      </c>
+      <c r="CQ309" t="n">
+        <v>110</v>
+      </c>
+      <c r="CR309" t="n">
+        <v>131</v>
+      </c>
+      <c r="CS309" t="n">
+        <v>106</v>
+      </c>
+      <c r="CT309" t="n">
+        <v>110</v>
+      </c>
+      <c r="CU309" t="n">
+        <v>97</v>
+      </c>
+      <c r="CV309" t="n">
+        <v>122</v>
+      </c>
+      <c r="CW309" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>90</v>
+      </c>
+      <c r="B310" t="n">
+        <v>99</v>
+      </c>
+      <c r="C310" t="n">
+        <v>103</v>
+      </c>
+      <c r="D310" t="n">
+        <v>93</v>
+      </c>
+      <c r="E310" t="n">
+        <v>92</v>
+      </c>
+      <c r="F310" t="n">
+        <v>145</v>
+      </c>
+      <c r="G310" t="n">
+        <v>104</v>
+      </c>
+      <c r="H310" t="n">
+        <v>140</v>
+      </c>
+      <c r="I310" t="n">
+        <v>99</v>
+      </c>
+      <c r="J310" t="n">
+        <v>121</v>
+      </c>
+      <c r="K310" t="n">
+        <v>107</v>
+      </c>
+      <c r="L310" t="n">
+        <v>86</v>
+      </c>
+      <c r="M310" t="n">
+        <v>117</v>
+      </c>
+      <c r="N310" t="n">
+        <v>116</v>
+      </c>
+      <c r="O310" t="n">
+        <v>105</v>
+      </c>
+      <c r="P310" t="n">
+        <v>89</v>
+      </c>
+      <c r="Q310" t="n">
+        <v>88</v>
+      </c>
+      <c r="R310" t="n">
+        <v>79</v>
+      </c>
+      <c r="S310" t="n">
+        <v>103</v>
+      </c>
+      <c r="T310" t="n">
+        <v>86</v>
+      </c>
+      <c r="U310" t="n">
+        <v>84</v>
+      </c>
+      <c r="V310" t="n">
+        <v>108</v>
+      </c>
+      <c r="W310" t="n">
+        <v>109</v>
+      </c>
+      <c r="X310" t="n">
+        <v>109</v>
+      </c>
+      <c r="Y310" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z310" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA310" t="n">
+        <v>97</v>
+      </c>
+      <c r="AB310" t="n">
+        <v>131</v>
+      </c>
+      <c r="AC310" t="n">
+        <v>107</v>
+      </c>
+      <c r="AD310" t="n">
+        <v>91</v>
+      </c>
+      <c r="AE310" t="n">
+        <v>74</v>
+      </c>
+      <c r="AF310" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG310" t="n">
+        <v>86</v>
+      </c>
+      <c r="AH310" t="n">
+        <v>105</v>
+      </c>
+      <c r="AI310" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ310" t="n">
+        <v>111</v>
+      </c>
+      <c r="AK310" t="n">
+        <v>90</v>
+      </c>
+      <c r="AL310" t="n">
+        <v>98</v>
+      </c>
+      <c r="AM310" t="n">
+        <v>104</v>
+      </c>
+      <c r="AN310" t="n">
+        <v>123</v>
+      </c>
+      <c r="AO310" t="n">
+        <v>92</v>
+      </c>
+      <c r="AP310" t="n">
+        <v>104</v>
+      </c>
+      <c r="AQ310" t="n">
+        <v>118</v>
+      </c>
+      <c r="AR310" t="n">
+        <v>96</v>
+      </c>
+      <c r="AS310" t="n">
+        <v>100</v>
+      </c>
+      <c r="AT310" t="n">
+        <v>109</v>
+      </c>
+      <c r="AU310" t="n">
+        <v>90</v>
+      </c>
+      <c r="AV310" t="n">
+        <v>90</v>
+      </c>
+      <c r="AW310" t="n">
+        <v>136</v>
+      </c>
+      <c r="AX310" t="n">
+        <v>77</v>
+      </c>
+      <c r="AY310" t="n">
+        <v>109</v>
+      </c>
+      <c r="AZ310" t="n">
+        <v>119</v>
+      </c>
+      <c r="BA310" t="n">
+        <v>97</v>
+      </c>
+      <c r="BB310" t="n">
+        <v>132</v>
+      </c>
+      <c r="BC310" t="n">
+        <v>105</v>
+      </c>
+      <c r="BD310" t="n">
+        <v>113</v>
+      </c>
+      <c r="BE310" t="n">
+        <v>101</v>
+      </c>
+      <c r="BF310" t="n">
+        <v>86</v>
+      </c>
+      <c r="BG310" t="n">
+        <v>105</v>
+      </c>
+      <c r="BH310" t="n">
+        <v>85</v>
+      </c>
+      <c r="BI310" t="n">
+        <v>113</v>
+      </c>
+      <c r="BJ310" t="n">
+        <v>109</v>
+      </c>
+      <c r="BK310" t="n">
+        <v>120</v>
+      </c>
+      <c r="BL310" t="n">
+        <v>96</v>
+      </c>
+      <c r="BM310" t="n">
+        <v>95</v>
+      </c>
+      <c r="BN310" t="n">
+        <v>97</v>
+      </c>
+      <c r="BO310" t="n">
+        <v>88</v>
+      </c>
+      <c r="BP310" t="n">
+        <v>94</v>
+      </c>
+      <c r="BQ310" t="n">
+        <v>105</v>
+      </c>
+      <c r="BR310" t="n">
+        <v>81</v>
+      </c>
+      <c r="BS310" t="n">
+        <v>89</v>
+      </c>
+      <c r="BT310" t="n">
+        <v>86</v>
+      </c>
+      <c r="BU310" t="n">
+        <v>104</v>
+      </c>
+      <c r="BV310" t="n">
+        <v>89</v>
+      </c>
+      <c r="BW310" t="n">
+        <v>103</v>
+      </c>
+      <c r="BX310" t="n">
+        <v>88</v>
+      </c>
+      <c r="BY310" t="n">
+        <v>117</v>
+      </c>
+      <c r="BZ310" t="n">
+        <v>92</v>
+      </c>
+      <c r="CA310" t="n">
+        <v>116</v>
+      </c>
+      <c r="CB310" t="n">
+        <v>137</v>
+      </c>
+      <c r="CC310" t="n">
+        <v>80</v>
+      </c>
+      <c r="CD310" t="n">
+        <v>91</v>
+      </c>
+      <c r="CE310" t="n">
+        <v>81</v>
+      </c>
+      <c r="CF310" t="n">
+        <v>89</v>
+      </c>
+      <c r="CG310" t="n">
+        <v>82</v>
+      </c>
+      <c r="CH310" t="n">
+        <v>101</v>
+      </c>
+      <c r="CI310" t="n">
+        <v>93</v>
+      </c>
+      <c r="CJ310" t="n">
+        <v>85</v>
+      </c>
+      <c r="CK310" t="n">
+        <v>100</v>
+      </c>
+      <c r="CL310" t="n">
+        <v>113</v>
+      </c>
+      <c r="CM310" t="n">
+        <v>109</v>
+      </c>
+      <c r="CN310" t="n">
+        <v>80</v>
+      </c>
+      <c r="CO310" t="n">
+        <v>82</v>
+      </c>
+      <c r="CP310" t="n">
+        <v>95</v>
+      </c>
+      <c r="CQ310" t="n">
+        <v>112</v>
+      </c>
+      <c r="CR310" t="n">
+        <v>127</v>
+      </c>
+      <c r="CS310" t="n">
+        <v>99</v>
+      </c>
+      <c r="CT310" t="n">
+        <v>86</v>
+      </c>
+      <c r="CU310" t="n">
+        <v>96</v>
+      </c>
+      <c r="CV310" t="n">
+        <v>128</v>
+      </c>
+      <c r="CW310" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>100</v>
+      </c>
+      <c r="B311" t="n">
+        <v>96</v>
+      </c>
+      <c r="C311" t="n">
+        <v>106</v>
+      </c>
+      <c r="D311" t="n">
+        <v>89</v>
+      </c>
+      <c r="E311" t="n">
+        <v>84</v>
+      </c>
+      <c r="F311" t="n">
+        <v>128</v>
+      </c>
+      <c r="G311" t="n">
+        <v>105</v>
+      </c>
+      <c r="H311" t="n">
+        <v>135</v>
+      </c>
+      <c r="I311" t="n">
+        <v>92</v>
+      </c>
+      <c r="J311" t="n">
+        <v>95</v>
+      </c>
+      <c r="K311" t="n">
+        <v>107</v>
+      </c>
+      <c r="L311" t="n">
+        <v>85</v>
+      </c>
+      <c r="M311" t="n">
+        <v>119</v>
+      </c>
+      <c r="N311" t="n">
+        <v>122</v>
+      </c>
+      <c r="O311" t="n">
+        <v>107</v>
+      </c>
+      <c r="P311" t="n">
+        <v>101</v>
+      </c>
+      <c r="Q311" t="n">
+        <v>82</v>
+      </c>
+      <c r="R311" t="n">
+        <v>77</v>
+      </c>
+      <c r="S311" t="n">
+        <v>103</v>
+      </c>
+      <c r="T311" t="n">
+        <v>88</v>
+      </c>
+      <c r="U311" t="n">
+        <v>127</v>
+      </c>
+      <c r="V311" t="n">
+        <v>111</v>
+      </c>
+      <c r="W311" t="n">
+        <v>107</v>
+      </c>
+      <c r="X311" t="n">
+        <v>109</v>
+      </c>
+      <c r="Y311" t="n">
+        <v>78</v>
+      </c>
+      <c r="Z311" t="n">
+        <v>85</v>
+      </c>
+      <c r="AA311" t="n">
+        <v>99</v>
+      </c>
+      <c r="AB311" t="n">
+        <v>99</v>
+      </c>
+      <c r="AC311" t="n">
+        <v>87</v>
+      </c>
+      <c r="AD311" t="n">
+        <v>82</v>
+      </c>
+      <c r="AE311" t="n">
+        <v>68</v>
+      </c>
+      <c r="AF311" t="n">
+        <v>96</v>
+      </c>
+      <c r="AG311" t="n">
+        <v>96</v>
+      </c>
+      <c r="AH311" t="n">
+        <v>112</v>
+      </c>
+      <c r="AI311" t="n">
+        <v>97</v>
+      </c>
+      <c r="AJ311" t="n">
+        <v>111</v>
+      </c>
+      <c r="AK311" t="n">
+        <v>84</v>
+      </c>
+      <c r="AL311" t="n">
+        <v>101</v>
+      </c>
+      <c r="AM311" t="n">
+        <v>99</v>
+      </c>
+      <c r="AN311" t="n">
+        <v>91</v>
+      </c>
+      <c r="AO311" t="n">
+        <v>98</v>
+      </c>
+      <c r="AP311" t="n">
+        <v>105</v>
+      </c>
+      <c r="AQ311" t="n">
+        <v>116</v>
+      </c>
+      <c r="AR311" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS311" t="n">
+        <v>71</v>
+      </c>
+      <c r="AT311" t="n">
+        <v>95</v>
+      </c>
+      <c r="AU311" t="n">
+        <v>98</v>
+      </c>
+      <c r="AV311" t="n">
+        <v>102</v>
+      </c>
+      <c r="AW311" t="n">
+        <v>108</v>
+      </c>
+      <c r="AX311" t="n">
+        <v>75</v>
+      </c>
+      <c r="AY311" t="n">
+        <v>108</v>
+      </c>
+      <c r="AZ311" t="n">
+        <v>94</v>
+      </c>
+      <c r="BA311" t="n">
+        <v>97</v>
+      </c>
+      <c r="BB311" t="n">
+        <v>105</v>
+      </c>
+      <c r="BC311" t="n">
+        <v>109</v>
+      </c>
+      <c r="BD311" t="n">
+        <v>113</v>
+      </c>
+      <c r="BE311" t="n">
+        <v>89</v>
+      </c>
+      <c r="BF311" t="n">
+        <v>68</v>
+      </c>
+      <c r="BG311" t="n">
+        <v>122</v>
+      </c>
+      <c r="BH311" t="n">
+        <v>87</v>
+      </c>
+      <c r="BI311" t="n">
+        <v>108</v>
+      </c>
+      <c r="BJ311" t="n">
+        <v>115</v>
+      </c>
+      <c r="BK311" t="n">
+        <v>124</v>
+      </c>
+      <c r="BL311" t="n">
+        <v>93</v>
+      </c>
+      <c r="BM311" t="n">
+        <v>89</v>
+      </c>
+      <c r="BN311" t="n">
+        <v>93</v>
+      </c>
+      <c r="BO311" t="n">
+        <v>91</v>
+      </c>
+      <c r="BP311" t="n">
+        <v>93</v>
+      </c>
+      <c r="BQ311" t="n">
+        <v>113</v>
+      </c>
+      <c r="BR311" t="n">
+        <v>79</v>
+      </c>
+      <c r="BS311" t="n">
+        <v>84</v>
+      </c>
+      <c r="BT311" t="n">
+        <v>73</v>
+      </c>
+      <c r="BU311" t="n">
+        <v>103</v>
+      </c>
+      <c r="BV311" t="n">
+        <v>102</v>
+      </c>
+      <c r="BW311" t="n">
+        <v>100</v>
+      </c>
+      <c r="BX311" t="n">
+        <v>89</v>
+      </c>
+      <c r="BY311" t="n">
+        <v>119</v>
+      </c>
+      <c r="BZ311" t="n">
+        <v>92</v>
+      </c>
+      <c r="CA311" t="n">
+        <v>125</v>
+      </c>
+      <c r="CB311" t="n">
+        <v>137</v>
+      </c>
+      <c r="CC311" t="n">
+        <v>75</v>
+      </c>
+      <c r="CD311" t="n">
+        <v>92</v>
+      </c>
+      <c r="CE311" t="n">
+        <v>84</v>
+      </c>
+      <c r="CF311" t="n">
+        <v>87</v>
+      </c>
+      <c r="CG311" t="n">
+        <v>86</v>
+      </c>
+      <c r="CH311" t="n">
+        <v>100</v>
+      </c>
+      <c r="CI311" t="n">
+        <v>110</v>
+      </c>
+      <c r="CJ311" t="n">
+        <v>90</v>
+      </c>
+      <c r="CK311" t="n">
+        <v>99</v>
+      </c>
+      <c r="CL311" t="n">
+        <v>105</v>
+      </c>
+      <c r="CM311" t="n">
+        <v>100</v>
+      </c>
+      <c r="CN311" t="n">
+        <v>95</v>
+      </c>
+      <c r="CO311" t="n">
+        <v>82</v>
+      </c>
+      <c r="CP311" t="n">
+        <v>95</v>
+      </c>
+      <c r="CQ311" t="n">
+        <v>98</v>
+      </c>
+      <c r="CR311" t="n">
+        <v>105</v>
+      </c>
+      <c r="CS311" t="n">
+        <v>100</v>
+      </c>
+      <c r="CT311" t="n">
+        <v>86</v>
+      </c>
+      <c r="CU311" t="n">
+        <v>96</v>
+      </c>
+      <c r="CV311" t="n">
+        <v>111</v>
+      </c>
+      <c r="CW311" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>110</v>
+      </c>
+      <c r="B312" t="n">
+        <v>90</v>
+      </c>
+      <c r="C312" t="n">
+        <v>86</v>
+      </c>
+      <c r="D312" t="n">
+        <v>90</v>
+      </c>
+      <c r="E312" t="n">
+        <v>82</v>
+      </c>
+      <c r="F312" t="n">
+        <v>108</v>
+      </c>
+      <c r="G312" t="n">
+        <v>114</v>
+      </c>
+      <c r="H312" t="n">
+        <v>108</v>
+      </c>
+      <c r="I312" t="n">
+        <v>94</v>
+      </c>
+      <c r="J312" t="n">
+        <v>102</v>
+      </c>
+      <c r="K312" t="n">
+        <v>112</v>
+      </c>
+      <c r="L312" t="n">
+        <v>74</v>
+      </c>
+      <c r="M312" t="n">
+        <v>92</v>
+      </c>
+      <c r="N312" t="n">
+        <v>91</v>
+      </c>
+      <c r="O312" t="n">
+        <v>89</v>
+      </c>
+      <c r="P312" t="n">
+        <v>96</v>
+      </c>
+      <c r="Q312" t="n">
+        <v>81</v>
+      </c>
+      <c r="R312" t="n">
+        <v>82</v>
+      </c>
+      <c r="S312" t="n">
+        <v>92</v>
+      </c>
+      <c r="T312" t="n">
+        <v>96</v>
+      </c>
+      <c r="U312" t="n">
+        <v>114</v>
+      </c>
+      <c r="V312" t="n">
+        <v>99</v>
+      </c>
+      <c r="W312" t="n">
+        <v>92</v>
+      </c>
+      <c r="X312" t="n">
+        <v>99</v>
+      </c>
+      <c r="Y312" t="n">
+        <v>85</v>
+      </c>
+      <c r="Z312" t="n">
+        <v>86</v>
+      </c>
+      <c r="AA312" t="n">
+        <v>109</v>
+      </c>
+      <c r="AB312" t="n">
+        <v>111</v>
+      </c>
+      <c r="AC312" t="n">
+        <v>94</v>
+      </c>
+      <c r="AD312" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE312" t="n">
+        <v>68</v>
+      </c>
+      <c r="AF312" t="n">
+        <v>105</v>
+      </c>
+      <c r="AG312" t="n">
+        <v>83</v>
+      </c>
+      <c r="AH312" t="n">
+        <v>97</v>
+      </c>
+      <c r="AI312" t="n">
+        <v>71</v>
+      </c>
+      <c r="AJ312" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK312" t="n">
+        <v>87</v>
+      </c>
+      <c r="AL312" t="n">
+        <v>85</v>
+      </c>
+      <c r="AM312" t="n">
+        <v>103</v>
+      </c>
+      <c r="AN312" t="n">
+        <v>95</v>
+      </c>
+      <c r="AO312" t="n">
+        <v>92</v>
+      </c>
+      <c r="AP312" t="n">
+        <v>87</v>
+      </c>
+      <c r="AQ312" t="n">
+        <v>87</v>
+      </c>
+      <c r="AR312" t="n">
+        <v>95</v>
+      </c>
+      <c r="AS312" t="n">
+        <v>66</v>
+      </c>
+      <c r="AT312" t="n">
+        <v>111</v>
+      </c>
+      <c r="AU312" t="n">
+        <v>82</v>
+      </c>
+      <c r="AV312" t="n">
+        <v>90</v>
+      </c>
+      <c r="AW312" t="n">
+        <v>112</v>
+      </c>
+      <c r="AX312" t="n">
+        <v>76</v>
+      </c>
+      <c r="AY312" t="n">
+        <v>117</v>
+      </c>
+      <c r="AZ312" t="n">
+        <v>100</v>
+      </c>
+      <c r="BA312" t="n">
+        <v>96</v>
+      </c>
+      <c r="BB312" t="n">
+        <v>91</v>
+      </c>
+      <c r="BC312" t="n">
+        <v>99</v>
+      </c>
+      <c r="BD312" t="n">
+        <v>78</v>
+      </c>
+      <c r="BE312" t="n">
+        <v>89</v>
+      </c>
+      <c r="BF312" t="n">
+        <v>84</v>
+      </c>
+      <c r="BG312" t="n">
+        <v>108</v>
+      </c>
+      <c r="BH312" t="n">
+        <v>91</v>
+      </c>
+      <c r="BI312" t="n">
+        <v>81</v>
+      </c>
+      <c r="BJ312" t="n">
+        <v>102</v>
+      </c>
+      <c r="BK312" t="n">
+        <v>96</v>
+      </c>
+      <c r="BL312" t="n">
+        <v>93</v>
+      </c>
+      <c r="BM312" t="n">
+        <v>90</v>
+      </c>
+      <c r="BN312" t="n">
+        <v>92</v>
+      </c>
+      <c r="BO312" t="n">
+        <v>84</v>
+      </c>
+      <c r="BP312" t="n">
+        <v>78</v>
+      </c>
+      <c r="BQ312" t="n">
+        <v>106</v>
+      </c>
+      <c r="BR312" t="n">
+        <v>82</v>
+      </c>
+      <c r="BS312" t="n">
+        <v>92</v>
+      </c>
+      <c r="BT312" t="n">
+        <v>73</v>
+      </c>
+      <c r="BU312" t="n">
+        <v>79</v>
+      </c>
+      <c r="BV312" t="n">
+        <v>86</v>
+      </c>
+      <c r="BW312" t="n">
+        <v>83</v>
+      </c>
+      <c r="BX312" t="n">
+        <v>85</v>
+      </c>
+      <c r="BY312" t="n">
+        <v>112</v>
+      </c>
+      <c r="BZ312" t="n">
+        <v>71</v>
+      </c>
+      <c r="CA312" t="n">
+        <v>104</v>
+      </c>
+      <c r="CB312" t="n">
+        <v>96</v>
+      </c>
+      <c r="CC312" t="n">
+        <v>75</v>
+      </c>
+      <c r="CD312" t="n">
+        <v>79</v>
+      </c>
+      <c r="CE312" t="n">
+        <v>77</v>
+      </c>
+      <c r="CF312" t="n">
+        <v>91</v>
+      </c>
+      <c r="CG312" t="n">
+        <v>77</v>
+      </c>
+      <c r="CH312" t="n">
+        <v>96</v>
+      </c>
+      <c r="CI312" t="n">
+        <v>80</v>
+      </c>
+      <c r="CJ312" t="n">
+        <v>101</v>
+      </c>
+      <c r="CK312" t="n">
+        <v>125</v>
+      </c>
+      <c r="CL312" t="n">
+        <v>103</v>
+      </c>
+      <c r="CM312" t="n">
+        <v>83</v>
+      </c>
+      <c r="CN312" t="n">
+        <v>87</v>
+      </c>
+      <c r="CO312" t="n">
+        <v>75</v>
+      </c>
+      <c r="CP312" t="n">
+        <v>91</v>
+      </c>
+      <c r="CQ312" t="n">
+        <v>97</v>
+      </c>
+      <c r="CR312" t="n">
+        <v>109</v>
+      </c>
+      <c r="CS312" t="n">
+        <v>90</v>
+      </c>
+      <c r="CT312" t="n">
+        <v>84</v>
+      </c>
+      <c r="CU312" t="n">
+        <v>89</v>
+      </c>
+      <c r="CV312" t="n">
+        <v>95</v>
+      </c>
+      <c r="CW312" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>120</v>
+      </c>
+      <c r="B313" t="n">
+        <v>82</v>
+      </c>
+      <c r="C313" t="n">
+        <v>110</v>
+      </c>
+      <c r="D313" t="n">
+        <v>91</v>
+      </c>
+      <c r="E313" t="n">
+        <v>82</v>
+      </c>
+      <c r="F313" t="n">
+        <v>110</v>
+      </c>
+      <c r="G313" t="n">
+        <v>111</v>
+      </c>
+      <c r="H313" t="n">
+        <v>105</v>
+      </c>
+      <c r="I313" t="n">
+        <v>94</v>
+      </c>
+      <c r="J313" t="n">
+        <v>110</v>
+      </c>
+      <c r="K313" t="n">
+        <v>101</v>
+      </c>
+      <c r="L313" t="n">
+        <v>76</v>
+      </c>
+      <c r="M313" t="n">
+        <v>111</v>
+      </c>
+      <c r="N313" t="n">
+        <v>100</v>
+      </c>
+      <c r="O313" t="n">
+        <v>94</v>
+      </c>
+      <c r="P313" t="n">
+        <v>93</v>
+      </c>
+      <c r="Q313" t="n">
+        <v>80</v>
+      </c>
+      <c r="R313" t="n">
+        <v>83</v>
+      </c>
+      <c r="S313" t="n">
+        <v>96</v>
+      </c>
+      <c r="T313" t="n">
+        <v>93</v>
+      </c>
+      <c r="U313" t="n">
+        <v>87</v>
+      </c>
+      <c r="V313" t="n">
+        <v>105</v>
+      </c>
+      <c r="W313" t="n">
+        <v>94</v>
+      </c>
+      <c r="X313" t="n">
+        <v>98</v>
+      </c>
+      <c r="Y313" t="n">
+        <v>90</v>
+      </c>
+      <c r="Z313" t="n">
+        <v>98</v>
+      </c>
+      <c r="AA313" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB313" t="n">
+        <v>128</v>
+      </c>
+      <c r="AC313" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD313" t="n">
+        <v>79</v>
+      </c>
+      <c r="AE313" t="n">
+        <v>67</v>
+      </c>
+      <c r="AF313" t="n">
+        <v>105</v>
+      </c>
+      <c r="AG313" t="n">
+        <v>83</v>
+      </c>
+      <c r="AH313" t="n">
+        <v>89</v>
+      </c>
+      <c r="AI313" t="n">
+        <v>73</v>
+      </c>
+      <c r="AJ313" t="n">
+        <v>99</v>
+      </c>
+      <c r="AK313" t="n">
+        <v>87</v>
+      </c>
+      <c r="AL313" t="n">
+        <v>86</v>
+      </c>
+      <c r="AM313" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN313" t="n">
+        <v>102</v>
+      </c>
+      <c r="AO313" t="n">
+        <v>92</v>
+      </c>
+      <c r="AP313" t="n">
+        <v>94</v>
+      </c>
+      <c r="AQ313" t="n">
+        <v>92</v>
+      </c>
+      <c r="AR313" t="n">
+        <v>95</v>
+      </c>
+      <c r="AS313" t="n">
+        <v>69</v>
+      </c>
+      <c r="AT313" t="n">
+        <v>91</v>
+      </c>
+      <c r="AU313" t="n">
+        <v>91</v>
+      </c>
+      <c r="AV313" t="n">
+        <v>90</v>
+      </c>
+      <c r="AW313" t="n">
+        <v>112</v>
+      </c>
+      <c r="AX313" t="n">
+        <v>71</v>
+      </c>
+      <c r="AY313" t="n">
+        <v>117</v>
+      </c>
+      <c r="AZ313" t="n">
+        <v>103</v>
+      </c>
+      <c r="BA313" t="n">
+        <v>93</v>
+      </c>
+      <c r="BB313" t="n">
+        <v>85</v>
+      </c>
+      <c r="BC313" t="n">
+        <v>93</v>
+      </c>
+      <c r="BD313" t="n">
+        <v>78</v>
+      </c>
+      <c r="BE313" t="n">
+        <v>85</v>
+      </c>
+      <c r="BF313" t="n">
+        <v>74</v>
+      </c>
+      <c r="BG313" t="n">
+        <v>106</v>
+      </c>
+      <c r="BH313" t="n">
+        <v>85</v>
+      </c>
+      <c r="BI313" t="n">
+        <v>100</v>
+      </c>
+      <c r="BJ313" t="n">
+        <v>102</v>
+      </c>
+      <c r="BK313" t="n">
+        <v>98</v>
+      </c>
+      <c r="BL313" t="n">
+        <v>93</v>
+      </c>
+      <c r="BM313" t="n">
+        <v>123</v>
+      </c>
+      <c r="BN313" t="n">
+        <v>95</v>
+      </c>
+      <c r="BO313" t="n">
+        <v>89</v>
+      </c>
+      <c r="BP313" t="n">
+        <v>85</v>
+      </c>
+      <c r="BQ313" t="n">
+        <v>101</v>
+      </c>
+      <c r="BR313" t="n">
+        <v>82</v>
+      </c>
+      <c r="BS313" t="n">
+        <v>92</v>
+      </c>
+      <c r="BT313" t="n">
+        <v>70</v>
+      </c>
+      <c r="BU313" t="n">
+        <v>91</v>
+      </c>
+      <c r="BV313" t="n">
+        <v>86</v>
+      </c>
+      <c r="BW313" t="n">
+        <v>83</v>
+      </c>
+      <c r="BX313" t="n">
+        <v>89</v>
+      </c>
+      <c r="BY313" t="n">
+        <v>111</v>
+      </c>
+      <c r="BZ313" t="n">
+        <v>76</v>
+      </c>
+      <c r="CA313" t="n">
+        <v>104</v>
+      </c>
+      <c r="CB313" t="n">
+        <v>100</v>
+      </c>
+      <c r="CC313" t="n">
+        <v>69</v>
+      </c>
+      <c r="CD313" t="n">
+        <v>76</v>
+      </c>
+      <c r="CE313" t="n">
+        <v>85</v>
+      </c>
+      <c r="CF313" t="n">
+        <v>94</v>
+      </c>
+      <c r="CG313" t="n">
+        <v>78</v>
+      </c>
+      <c r="CH313" t="n">
+        <v>102</v>
+      </c>
+      <c r="CI313" t="n">
+        <v>78</v>
+      </c>
+      <c r="CJ313" t="n">
+        <v>102</v>
+      </c>
+      <c r="CK313" t="n">
+        <v>120</v>
+      </c>
+      <c r="CL313" t="n">
+        <v>103</v>
+      </c>
+      <c r="CM313" t="n">
+        <v>90</v>
+      </c>
+      <c r="CN313" t="n">
+        <v>101</v>
+      </c>
+      <c r="CO313" t="n">
+        <v>75</v>
+      </c>
+      <c r="CP313" t="n">
+        <v>85</v>
+      </c>
+      <c r="CQ313" t="n">
+        <v>101</v>
+      </c>
+      <c r="CR313" t="n">
+        <v>105</v>
+      </c>
+      <c r="CS313" t="n">
+        <v>100</v>
+      </c>
+      <c r="CT313" t="n">
+        <v>81</v>
+      </c>
+      <c r="CU313" t="n">
+        <v>79</v>
+      </c>
+      <c r="CV313" t="n">
+        <v>95</v>
+      </c>
+      <c r="CW313" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>130</v>
+      </c>
+      <c r="B314" t="n">
+        <v>99</v>
+      </c>
+      <c r="C314" t="n">
+        <v>88</v>
+      </c>
+      <c r="D314" t="n">
+        <v>90</v>
+      </c>
+      <c r="E314" t="n">
+        <v>83</v>
+      </c>
+      <c r="F314" t="n">
+        <v>112</v>
+      </c>
+      <c r="G314" t="n">
+        <v>112</v>
+      </c>
+      <c r="H314" t="n">
+        <v>106</v>
+      </c>
+      <c r="I314" t="n">
+        <v>109</v>
+      </c>
+      <c r="J314" t="n">
+        <v>101</v>
+      </c>
+      <c r="K314" t="n">
+        <v>103</v>
+      </c>
+      <c r="L314" t="n">
+        <v>98</v>
+      </c>
+      <c r="M314" t="n">
+        <v>116</v>
+      </c>
+      <c r="N314" t="n">
+        <v>122</v>
+      </c>
+      <c r="O314" t="n">
+        <v>101</v>
+      </c>
+      <c r="P314" t="n">
+        <v>128</v>
+      </c>
+      <c r="Q314" t="n">
+        <v>82</v>
+      </c>
+      <c r="R314" t="n">
+        <v>82</v>
+      </c>
+      <c r="S314" t="n">
+        <v>103</v>
+      </c>
+      <c r="T314" t="n">
+        <v>99</v>
+      </c>
+      <c r="U314" t="n">
+        <v>86</v>
+      </c>
+      <c r="V314" t="n">
+        <v>90</v>
+      </c>
+      <c r="W314" t="n">
+        <v>96</v>
+      </c>
+      <c r="X314" t="n">
+        <v>109</v>
+      </c>
+      <c r="Y314" t="n">
+        <v>84</v>
+      </c>
+      <c r="Z314" t="n">
+        <v>86</v>
+      </c>
+      <c r="AA314" t="n">
+        <v>99</v>
+      </c>
+      <c r="AB314" t="n">
+        <v>115</v>
+      </c>
+      <c r="AC314" t="n">
+        <v>93</v>
+      </c>
+      <c r="AD314" t="n">
+        <v>87</v>
+      </c>
+      <c r="AE314" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF314" t="n">
+        <v>109</v>
+      </c>
+      <c r="AG314" t="n">
+        <v>77</v>
+      </c>
+      <c r="AH314" t="n">
+        <v>93</v>
+      </c>
+      <c r="AI314" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ314" t="n">
+        <v>111</v>
+      </c>
+      <c r="AK314" t="n">
+        <v>105</v>
+      </c>
+      <c r="AL314" t="n">
+        <v>98</v>
+      </c>
+      <c r="AM314" t="n">
+        <v>96</v>
+      </c>
+      <c r="AN314" t="n">
+        <v>93</v>
+      </c>
+      <c r="AO314" t="n">
+        <v>92</v>
+      </c>
+      <c r="AP314" t="n">
+        <v>105</v>
+      </c>
+      <c r="AQ314" t="n">
+        <v>117</v>
+      </c>
+      <c r="AR314" t="n">
+        <v>91</v>
+      </c>
+      <c r="AS314" t="n">
+        <v>98</v>
+      </c>
+      <c r="AT314" t="n">
+        <v>95</v>
+      </c>
+      <c r="AU314" t="n">
+        <v>100</v>
+      </c>
+      <c r="AV314" t="n">
+        <v>88</v>
+      </c>
+      <c r="AW314" t="n">
+        <v>109</v>
+      </c>
+      <c r="AX314" t="n">
+        <v>75</v>
+      </c>
+      <c r="AY314" t="n">
+        <v>99</v>
+      </c>
+      <c r="AZ314" t="n">
+        <v>92</v>
+      </c>
+      <c r="BA314" t="n">
+        <v>90</v>
+      </c>
+      <c r="BB314" t="n">
+        <v>107</v>
+      </c>
+      <c r="BC314" t="n">
+        <v>109</v>
+      </c>
+      <c r="BD314" t="n">
+        <v>117</v>
+      </c>
+      <c r="BE314" t="n">
+        <v>84</v>
+      </c>
+      <c r="BF314" t="n">
+        <v>85</v>
+      </c>
+      <c r="BG314" t="n">
+        <v>104</v>
+      </c>
+      <c r="BH314" t="n">
+        <v>118</v>
+      </c>
+      <c r="BI314" t="n">
+        <v>104</v>
+      </c>
+      <c r="BJ314" t="n">
+        <v>107</v>
+      </c>
+      <c r="BK314" t="n">
+        <v>118</v>
+      </c>
+      <c r="BL314" t="n">
+        <v>83</v>
+      </c>
+      <c r="BM314" t="n">
+        <v>93</v>
+      </c>
+      <c r="BN314" t="n">
+        <v>104</v>
+      </c>
+      <c r="BO314" t="n">
+        <v>91</v>
+      </c>
+      <c r="BP314" t="n">
+        <v>75</v>
+      </c>
+      <c r="BQ314" t="n">
+        <v>109</v>
+      </c>
+      <c r="BR314" t="n">
+        <v>78</v>
+      </c>
+      <c r="BS314" t="n">
+        <v>111</v>
+      </c>
+      <c r="BT314" t="n">
+        <v>73</v>
+      </c>
+      <c r="BU314" t="n">
+        <v>101</v>
+      </c>
+      <c r="BV314" t="n">
+        <v>85</v>
+      </c>
+      <c r="BW314" t="n">
+        <v>135</v>
+      </c>
+      <c r="BX314" t="n">
+        <v>84</v>
+      </c>
+      <c r="BY314" t="n">
+        <v>108</v>
+      </c>
+      <c r="BZ314" t="n">
+        <v>92</v>
+      </c>
+      <c r="CA314" t="n">
+        <v>119</v>
+      </c>
+      <c r="CB314" t="n">
+        <v>126</v>
+      </c>
+      <c r="CC314" t="n">
+        <v>76</v>
+      </c>
+      <c r="CD314" t="n">
+        <v>88</v>
+      </c>
+      <c r="CE314" t="n">
+        <v>82</v>
+      </c>
+      <c r="CF314" t="n">
+        <v>83</v>
+      </c>
+      <c r="CG314" t="n">
+        <v>78</v>
+      </c>
+      <c r="CH314" t="n">
+        <v>100</v>
+      </c>
+      <c r="CI314" t="n">
+        <v>89</v>
+      </c>
+      <c r="CJ314" t="n">
+        <v>86</v>
+      </c>
+      <c r="CK314" t="n">
+        <v>99</v>
+      </c>
+      <c r="CL314" t="n">
+        <v>103</v>
+      </c>
+      <c r="CM314" t="n">
+        <v>91</v>
+      </c>
+      <c r="CN314" t="n">
+        <v>82</v>
+      </c>
+      <c r="CO314" t="n">
+        <v>78</v>
+      </c>
+      <c r="CP314" t="n">
+        <v>96</v>
+      </c>
+      <c r="CQ314" t="n">
+        <v>100</v>
+      </c>
+      <c r="CR314" t="n">
+        <v>117</v>
+      </c>
+      <c r="CS314" t="n">
+        <v>102</v>
+      </c>
+      <c r="CT314" t="n">
+        <v>81</v>
+      </c>
+      <c r="CU314" t="n">
+        <v>96</v>
+      </c>
+      <c r="CV314" t="n">
+        <v>121</v>
+      </c>
+      <c r="CW314" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>140</v>
+      </c>
+      <c r="B315" t="n">
+        <v>90</v>
+      </c>
+      <c r="C315" t="n">
+        <v>83</v>
+      </c>
+      <c r="D315" t="n">
+        <v>93</v>
+      </c>
+      <c r="E315" t="n">
+        <v>94</v>
+      </c>
+      <c r="F315" t="n">
+        <v>90</v>
+      </c>
+      <c r="G315" t="n">
+        <v>112</v>
+      </c>
+      <c r="H315" t="n">
+        <v>106</v>
+      </c>
+      <c r="I315" t="n">
+        <v>105</v>
+      </c>
+      <c r="J315" t="n">
+        <v>102</v>
+      </c>
+      <c r="K315" t="n">
+        <v>103</v>
+      </c>
+      <c r="L315" t="n">
+        <v>85</v>
+      </c>
+      <c r="M315" t="n">
+        <v>94</v>
+      </c>
+      <c r="N315" t="n">
+        <v>105</v>
+      </c>
+      <c r="O315" t="n">
+        <v>98</v>
+      </c>
+      <c r="P315" t="n">
+        <v>128</v>
+      </c>
+      <c r="Q315" t="n">
+        <v>81</v>
+      </c>
+      <c r="R315" t="n">
+        <v>82</v>
+      </c>
+      <c r="S315" t="n">
+        <v>89</v>
+      </c>
+      <c r="T315" t="n">
+        <v>88</v>
+      </c>
+      <c r="U315" t="n">
+        <v>92</v>
+      </c>
+      <c r="V315" t="n">
+        <v>90</v>
+      </c>
+      <c r="W315" t="n">
+        <v>99</v>
+      </c>
+      <c r="X315" t="n">
+        <v>96</v>
+      </c>
+      <c r="Y315" t="n">
+        <v>89</v>
+      </c>
+      <c r="Z315" t="n">
+        <v>87</v>
+      </c>
+      <c r="AA315" t="n">
+        <v>113</v>
+      </c>
+      <c r="AB315" t="n">
+        <v>102</v>
+      </c>
+      <c r="AC315" t="n">
+        <v>89</v>
+      </c>
+      <c r="AD315" t="n">
+        <v>82</v>
+      </c>
+      <c r="AE315" t="n">
+        <v>68</v>
+      </c>
+      <c r="AF315" t="n">
+        <v>92</v>
+      </c>
+      <c r="AG315" t="n">
+        <v>89</v>
+      </c>
+      <c r="AH315" t="n">
+        <v>92</v>
+      </c>
+      <c r="AI315" t="n">
+        <v>91</v>
+      </c>
+      <c r="AJ315" t="n">
+        <v>102</v>
+      </c>
+      <c r="AK315" t="n">
+        <v>109</v>
+      </c>
+      <c r="AL315" t="n">
+        <v>118</v>
+      </c>
+      <c r="AM315" t="n">
+        <v>96</v>
+      </c>
+      <c r="AN315" t="n">
+        <v>122</v>
+      </c>
+      <c r="AO315" t="n">
+        <v>95</v>
+      </c>
+      <c r="AP315" t="n">
+        <v>89</v>
+      </c>
+      <c r="AQ315" t="n">
+        <v>124</v>
+      </c>
+      <c r="AR315" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS315" t="n">
+        <v>75</v>
+      </c>
+      <c r="AT315" t="n">
+        <v>96</v>
+      </c>
+      <c r="AU315" t="n">
+        <v>98</v>
+      </c>
+      <c r="AV315" t="n">
+        <v>88</v>
+      </c>
+      <c r="AW315" t="n">
+        <v>109</v>
+      </c>
+      <c r="AX315" t="n">
+        <v>75</v>
+      </c>
+      <c r="AY315" t="n">
+        <v>97</v>
+      </c>
+      <c r="AZ315" t="n">
+        <v>92</v>
+      </c>
+      <c r="BA315" t="n">
+        <v>94</v>
+      </c>
+      <c r="BB315" t="n">
+        <v>100</v>
+      </c>
+      <c r="BC315" t="n">
+        <v>109</v>
+      </c>
+      <c r="BD315" t="n">
+        <v>113</v>
+      </c>
+      <c r="BE315" t="n">
+        <v>83</v>
+      </c>
+      <c r="BF315" t="n">
+        <v>70</v>
+      </c>
+      <c r="BG315" t="n">
+        <v>98</v>
+      </c>
+      <c r="BH315" t="n">
+        <v>99</v>
+      </c>
+      <c r="BI315" t="n">
+        <v>84</v>
+      </c>
+      <c r="BJ315" t="n">
+        <v>104</v>
+      </c>
+      <c r="BK315" t="n">
+        <v>118</v>
+      </c>
+      <c r="BL315" t="n">
+        <v>75</v>
+      </c>
+      <c r="BM315" t="n">
+        <v>91</v>
+      </c>
+      <c r="BN315" t="n">
+        <v>91</v>
+      </c>
+      <c r="BO315" t="n">
+        <v>91</v>
+      </c>
+      <c r="BP315" t="n">
+        <v>79</v>
+      </c>
+      <c r="BQ315" t="n">
+        <v>112</v>
+      </c>
+      <c r="BR315" t="n">
+        <v>90</v>
+      </c>
+      <c r="BS315" t="n">
+        <v>95</v>
+      </c>
+      <c r="BT315" t="n">
+        <v>68</v>
+      </c>
+      <c r="BU315" t="n">
+        <v>82</v>
+      </c>
+      <c r="BV315" t="n">
+        <v>94</v>
+      </c>
+      <c r="BW315" t="n">
+        <v>131</v>
+      </c>
+      <c r="BX315" t="n">
+        <v>85</v>
+      </c>
+      <c r="BY315" t="n">
+        <v>108</v>
+      </c>
+      <c r="BZ315" t="n">
+        <v>88</v>
+      </c>
+      <c r="CA315" t="n">
+        <v>119</v>
+      </c>
+      <c r="CB315" t="n">
+        <v>140</v>
+      </c>
+      <c r="CC315" t="n">
+        <v>75</v>
+      </c>
+      <c r="CD315" t="n">
+        <v>88</v>
+      </c>
+      <c r="CE315" t="n">
+        <v>70</v>
+      </c>
+      <c r="CF315" t="n">
+        <v>83</v>
+      </c>
+      <c r="CG315" t="n">
+        <v>78</v>
+      </c>
+      <c r="CH315" t="n">
+        <v>96</v>
+      </c>
+      <c r="CI315" t="n">
+        <v>122</v>
+      </c>
+      <c r="CJ315" t="n">
+        <v>84</v>
+      </c>
+      <c r="CK315" t="n">
+        <v>110</v>
+      </c>
+      <c r="CL315" t="n">
+        <v>112</v>
+      </c>
+      <c r="CM315" t="n">
+        <v>96</v>
+      </c>
+      <c r="CN315" t="n">
+        <v>82</v>
+      </c>
+      <c r="CO315" t="n">
+        <v>77</v>
+      </c>
+      <c r="CP315" t="n">
+        <v>90</v>
+      </c>
+      <c r="CQ315" t="n">
+        <v>98</v>
+      </c>
+      <c r="CR315" t="n">
+        <v>97</v>
+      </c>
+      <c r="CS315" t="n">
+        <v>88</v>
+      </c>
+      <c r="CT315" t="n">
+        <v>76</v>
+      </c>
+      <c r="CU315" t="n">
+        <v>83</v>
+      </c>
+      <c r="CV315" t="n">
+        <v>92</v>
+      </c>
+      <c r="CW315" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>150</v>
+      </c>
+      <c r="B316" t="n">
+        <v>116</v>
+      </c>
+      <c r="C316" t="n">
+        <v>98</v>
+      </c>
+      <c r="D316" t="n">
+        <v>94</v>
+      </c>
+      <c r="E316" t="n">
+        <v>83</v>
+      </c>
+      <c r="F316" t="n">
+        <v>155</v>
+      </c>
+      <c r="G316" t="n">
+        <v>122</v>
+      </c>
+      <c r="H316" t="n">
+        <v>110</v>
+      </c>
+      <c r="I316" t="n">
+        <v>119</v>
+      </c>
+      <c r="J316" t="n">
+        <v>132</v>
+      </c>
+      <c r="K316" t="n">
+        <v>133</v>
+      </c>
+      <c r="L316" t="n">
+        <v>77</v>
+      </c>
+      <c r="M316" t="n">
+        <v>120</v>
+      </c>
+      <c r="N316" t="n">
+        <v>121</v>
+      </c>
+      <c r="O316" t="n">
+        <v>95</v>
+      </c>
+      <c r="P316" t="n">
+        <v>94</v>
+      </c>
+      <c r="Q316" t="n">
+        <v>87</v>
+      </c>
+      <c r="R316" t="n">
+        <v>78</v>
+      </c>
+      <c r="S316" t="n">
+        <v>87</v>
+      </c>
+      <c r="T316" t="n">
+        <v>98</v>
+      </c>
+      <c r="U316" t="n">
+        <v>89</v>
+      </c>
+      <c r="V316" t="n">
+        <v>99</v>
+      </c>
+      <c r="W316" t="n">
+        <v>133</v>
+      </c>
+      <c r="X316" t="n">
+        <v>109</v>
+      </c>
+      <c r="Y316" t="n">
+        <v>89</v>
+      </c>
+      <c r="Z316" t="n">
+        <v>88</v>
+      </c>
+      <c r="AA316" t="n">
+        <v>115</v>
+      </c>
+      <c r="AB316" t="n">
+        <v>115</v>
+      </c>
+      <c r="AC316" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD316" t="n">
+        <v>85</v>
+      </c>
+      <c r="AE316" t="n">
+        <v>72</v>
+      </c>
+      <c r="AF316" t="n">
+        <v>104</v>
+      </c>
+      <c r="AG316" t="n">
+        <v>88</v>
+      </c>
+      <c r="AH316" t="n">
+        <v>87</v>
+      </c>
+      <c r="AI316" t="n">
+        <v>93</v>
+      </c>
+      <c r="AJ316" t="n">
+        <v>104</v>
+      </c>
+      <c r="AK316" t="n">
+        <v>116</v>
+      </c>
+      <c r="AL316" t="n">
+        <v>117</v>
+      </c>
+      <c r="AM316" t="n">
+        <v>87</v>
+      </c>
+      <c r="AN316" t="n">
+        <v>122</v>
+      </c>
+      <c r="AO316" t="n">
+        <v>95</v>
+      </c>
+      <c r="AP316" t="n">
+        <v>106</v>
+      </c>
+      <c r="AQ316" t="n">
+        <v>113</v>
+      </c>
+      <c r="AR316" t="n">
+        <v>83</v>
+      </c>
+      <c r="AS316" t="n">
+        <v>107</v>
+      </c>
+      <c r="AT316" t="n">
+        <v>96</v>
+      </c>
+      <c r="AU316" t="n">
+        <v>91</v>
+      </c>
+      <c r="AV316" t="n">
+        <v>105</v>
+      </c>
+      <c r="AW316" t="n">
+        <v>102</v>
+      </c>
+      <c r="AX316" t="n">
+        <v>75</v>
+      </c>
+      <c r="AY316" t="n">
+        <v>111</v>
+      </c>
+      <c r="AZ316" t="n">
+        <v>92</v>
+      </c>
+      <c r="BA316" t="n">
+        <v>90</v>
+      </c>
+      <c r="BB316" t="n">
+        <v>115</v>
+      </c>
+      <c r="BC316" t="n">
+        <v>123</v>
+      </c>
+      <c r="BD316" t="n">
+        <v>98</v>
+      </c>
+      <c r="BE316" t="n">
+        <v>106</v>
+      </c>
+      <c r="BF316" t="n">
+        <v>82</v>
+      </c>
+      <c r="BG316" t="n">
+        <v>109</v>
+      </c>
+      <c r="BH316" t="n">
+        <v>100</v>
+      </c>
+      <c r="BI316" t="n">
+        <v>119</v>
+      </c>
+      <c r="BJ316" t="n">
+        <v>130</v>
+      </c>
+      <c r="BK316" t="n">
+        <v>102</v>
+      </c>
+      <c r="BL316" t="n">
+        <v>87</v>
+      </c>
+      <c r="BM316" t="n">
+        <v>93</v>
+      </c>
+      <c r="BN316" t="n">
+        <v>91</v>
+      </c>
+      <c r="BO316" t="n">
+        <v>82</v>
+      </c>
+      <c r="BP316" t="n">
+        <v>78</v>
+      </c>
+      <c r="BQ316" t="n">
+        <v>116</v>
+      </c>
+      <c r="BR316" t="n">
+        <v>83</v>
+      </c>
+      <c r="BS316" t="n">
+        <v>99</v>
+      </c>
+      <c r="BT316" t="n">
+        <v>84</v>
+      </c>
+      <c r="BU316" t="n">
+        <v>94</v>
+      </c>
+      <c r="BV316" t="n">
+        <v>89</v>
+      </c>
+      <c r="BW316" t="n">
+        <v>118</v>
+      </c>
+      <c r="BX316" t="n">
+        <v>99</v>
+      </c>
+      <c r="BY316" t="n">
+        <v>98</v>
+      </c>
+      <c r="BZ316" t="n">
+        <v>137</v>
+      </c>
+      <c r="CA316" t="n">
+        <v>153</v>
+      </c>
+      <c r="CB316" t="n">
+        <v>160</v>
+      </c>
+      <c r="CC316" t="n">
+        <v>71</v>
+      </c>
+      <c r="CD316" t="n">
+        <v>86</v>
+      </c>
+      <c r="CE316" t="n">
+        <v>77</v>
+      </c>
+      <c r="CF316" t="n">
+        <v>86</v>
+      </c>
+      <c r="CG316" t="n">
+        <v>90</v>
+      </c>
+      <c r="CH316" t="n">
+        <v>100</v>
+      </c>
+      <c r="CI316" t="n">
+        <v>97</v>
+      </c>
+      <c r="CJ316" t="n">
+        <v>103</v>
+      </c>
+      <c r="CK316" t="n">
+        <v>102</v>
+      </c>
+      <c r="CL316" t="n">
+        <v>101</v>
+      </c>
+      <c r="CM316" t="n">
+        <v>102</v>
+      </c>
+      <c r="CN316" t="n">
+        <v>101</v>
+      </c>
+      <c r="CO316" t="n">
+        <v>77</v>
+      </c>
+      <c r="CP316" t="n">
+        <v>100</v>
+      </c>
+      <c r="CQ316" t="n">
+        <v>102</v>
+      </c>
+      <c r="CR316" t="n">
+        <v>112</v>
+      </c>
+      <c r="CS316" t="n">
+        <v>89</v>
+      </c>
+      <c r="CT316" t="n">
+        <v>93</v>
+      </c>
+      <c r="CU316" t="n">
+        <v>99</v>
+      </c>
+      <c r="CV316" t="n">
+        <v>95</v>
+      </c>
+      <c r="CW316" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>160</v>
+      </c>
+      <c r="B317" t="n">
+        <v>115</v>
+      </c>
+      <c r="C317" t="n">
+        <v>87</v>
+      </c>
+      <c r="D317" t="n">
+        <v>98</v>
+      </c>
+      <c r="E317" t="n">
+        <v>82</v>
+      </c>
+      <c r="F317" t="n">
+        <v>155</v>
+      </c>
+      <c r="G317" t="n">
+        <v>104</v>
+      </c>
+      <c r="H317" t="n">
+        <v>110</v>
+      </c>
+      <c r="I317" t="n">
+        <v>93</v>
+      </c>
+      <c r="J317" t="n">
+        <v>134</v>
+      </c>
+      <c r="K317" t="n">
+        <v>107</v>
+      </c>
+      <c r="L317" t="n">
+        <v>77</v>
+      </c>
+      <c r="M317" t="n">
+        <v>115</v>
+      </c>
+      <c r="N317" t="n">
+        <v>113</v>
+      </c>
+      <c r="O317" t="n">
+        <v>99</v>
+      </c>
+      <c r="P317" t="n">
+        <v>94</v>
+      </c>
+      <c r="Q317" t="n">
+        <v>112</v>
+      </c>
+      <c r="R317" t="n">
+        <v>83</v>
+      </c>
+      <c r="S317" t="n">
+        <v>96</v>
+      </c>
+      <c r="T317" t="n">
+        <v>95</v>
+      </c>
+      <c r="U317" t="n">
+        <v>88</v>
+      </c>
+      <c r="V317" t="n">
+        <v>90</v>
+      </c>
+      <c r="W317" t="n">
+        <v>107</v>
+      </c>
+      <c r="X317" t="n">
+        <v>127</v>
+      </c>
+      <c r="Y317" t="n">
+        <v>89</v>
+      </c>
+      <c r="Z317" t="n">
+        <v>114</v>
+      </c>
+      <c r="AA317" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB317" t="n">
+        <v>113</v>
+      </c>
+      <c r="AC317" t="n">
+        <v>95</v>
+      </c>
+      <c r="AD317" t="n">
+        <v>88</v>
+      </c>
+      <c r="AE317" t="n">
+        <v>72</v>
+      </c>
+      <c r="AF317" t="n">
+        <v>104</v>
+      </c>
+      <c r="AG317" t="n">
+        <v>88</v>
+      </c>
+      <c r="AH317" t="n">
+        <v>94</v>
+      </c>
+      <c r="AI317" t="n">
+        <v>82</v>
+      </c>
+      <c r="AJ317" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK317" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL317" t="n">
+        <v>114</v>
+      </c>
+      <c r="AM317" t="n">
+        <v>87</v>
+      </c>
+      <c r="AN317" t="n">
+        <v>110</v>
+      </c>
+      <c r="AO317" t="n">
+        <v>95</v>
+      </c>
+      <c r="AP317" t="n">
+        <v>83</v>
+      </c>
+      <c r="AQ317" t="n">
+        <v>111</v>
+      </c>
+      <c r="AR317" t="n">
+        <v>86</v>
+      </c>
+      <c r="AS317" t="n">
+        <v>106</v>
+      </c>
+      <c r="AT317" t="n">
+        <v>95</v>
+      </c>
+      <c r="AU317" t="n">
+        <v>95</v>
+      </c>
+      <c r="AV317" t="n">
+        <v>103</v>
+      </c>
+      <c r="AW317" t="n">
+        <v>101</v>
+      </c>
+      <c r="AX317" t="n">
+        <v>74</v>
+      </c>
+      <c r="AY317" t="n">
+        <v>109</v>
+      </c>
+      <c r="AZ317" t="n">
+        <v>93</v>
+      </c>
+      <c r="BA317" t="n">
+        <v>92</v>
+      </c>
+      <c r="BB317" t="n">
+        <v>131</v>
+      </c>
+      <c r="BC317" t="n">
+        <v>123</v>
+      </c>
+      <c r="BD317" t="n">
+        <v>98</v>
+      </c>
+      <c r="BE317" t="n">
+        <v>105</v>
+      </c>
+      <c r="BF317" t="n">
+        <v>82</v>
+      </c>
+      <c r="BG317" t="n">
+        <v>100</v>
+      </c>
+      <c r="BH317" t="n">
+        <v>108</v>
+      </c>
+      <c r="BI317" t="n">
+        <v>121</v>
+      </c>
+      <c r="BJ317" t="n">
+        <v>106</v>
+      </c>
+      <c r="BK317" t="n">
+        <v>102</v>
+      </c>
+      <c r="BL317" t="n">
+        <v>87</v>
+      </c>
+      <c r="BM317" t="n">
+        <v>101</v>
+      </c>
+      <c r="BN317" t="n">
+        <v>87</v>
+      </c>
+      <c r="BO317" t="n">
+        <v>81</v>
+      </c>
+      <c r="BP317" t="n">
+        <v>76</v>
+      </c>
+      <c r="BQ317" t="n">
+        <v>114</v>
+      </c>
+      <c r="BR317" t="n">
+        <v>82</v>
+      </c>
+      <c r="BS317" t="n">
+        <v>98</v>
+      </c>
+      <c r="BT317" t="n">
+        <v>111</v>
+      </c>
+      <c r="BU317" t="n">
+        <v>94</v>
+      </c>
+      <c r="BV317" t="n">
+        <v>107</v>
+      </c>
+      <c r="BW317" t="n">
+        <v>97</v>
+      </c>
+      <c r="BX317" t="n">
+        <v>90</v>
+      </c>
+      <c r="BY317" t="n">
+        <v>98</v>
+      </c>
+      <c r="BZ317" t="n">
+        <v>135</v>
+      </c>
+      <c r="CA317" t="n">
+        <v>121</v>
+      </c>
+      <c r="CB317" t="n">
+        <v>164</v>
+      </c>
+      <c r="CC317" t="n">
+        <v>72</v>
+      </c>
+      <c r="CD317" t="n">
+        <v>87</v>
+      </c>
+      <c r="CE317" t="n">
+        <v>94</v>
+      </c>
+      <c r="CF317" t="n">
+        <v>84</v>
+      </c>
+      <c r="CG317" t="n">
+        <v>97</v>
+      </c>
+      <c r="CH317" t="n">
+        <v>103</v>
+      </c>
+      <c r="CI317" t="n">
+        <v>95</v>
+      </c>
+      <c r="CJ317" t="n">
+        <v>91</v>
+      </c>
+      <c r="CK317" t="n">
+        <v>102</v>
+      </c>
+      <c r="CL317" t="n">
+        <v>107</v>
+      </c>
+      <c r="CM317" t="n">
+        <v>90</v>
+      </c>
+      <c r="CN317" t="n">
+        <v>96</v>
+      </c>
+      <c r="CO317" t="n">
+        <v>72</v>
+      </c>
+      <c r="CP317" t="n">
+        <v>95</v>
+      </c>
+      <c r="CQ317" t="n">
+        <v>104</v>
+      </c>
+      <c r="CR317" t="n">
+        <v>124</v>
+      </c>
+      <c r="CS317" t="n">
+        <v>89</v>
+      </c>
+      <c r="CT317" t="n">
+        <v>93</v>
+      </c>
+      <c r="CU317" t="n">
+        <v>100</v>
+      </c>
+      <c r="CV317" t="n">
+        <v>98</v>
+      </c>
+      <c r="CW317" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>170</v>
+      </c>
+      <c r="B318" t="n">
+        <v>115</v>
+      </c>
+      <c r="C318" t="n">
+        <v>79</v>
+      </c>
+      <c r="D318" t="n">
+        <v>99</v>
+      </c>
+      <c r="E318" t="n">
+        <v>79</v>
+      </c>
+      <c r="F318" t="n">
+        <v>92</v>
+      </c>
+      <c r="G318" t="n">
+        <v>113</v>
+      </c>
+      <c r="H318" t="n">
+        <v>110</v>
+      </c>
+      <c r="I318" t="n">
+        <v>93</v>
+      </c>
+      <c r="J318" t="n">
+        <v>137</v>
+      </c>
+      <c r="K318" t="n">
+        <v>103</v>
+      </c>
+      <c r="L318" t="n">
+        <v>79</v>
+      </c>
+      <c r="M318" t="n">
+        <v>97</v>
+      </c>
+      <c r="N318" t="n">
+        <v>93</v>
+      </c>
+      <c r="O318" t="n">
+        <v>102</v>
+      </c>
+      <c r="P318" t="n">
+        <v>98</v>
+      </c>
+      <c r="Q318" t="n">
+        <v>89</v>
+      </c>
+      <c r="R318" t="n">
+        <v>98</v>
+      </c>
+      <c r="S318" t="n">
+        <v>96</v>
+      </c>
+      <c r="T318" t="n">
+        <v>95</v>
+      </c>
+      <c r="U318" t="n">
+        <v>95</v>
+      </c>
+      <c r="V318" t="n">
+        <v>90</v>
+      </c>
+      <c r="W318" t="n">
+        <v>129</v>
+      </c>
+      <c r="X318" t="n">
+        <v>127</v>
+      </c>
+      <c r="Y318" t="n">
+        <v>93</v>
+      </c>
+      <c r="Z318" t="n">
+        <v>95</v>
+      </c>
+      <c r="AA318" t="n">
+        <v>107</v>
+      </c>
+      <c r="AB318" t="n">
+        <v>98</v>
+      </c>
+      <c r="AC318" t="n">
+        <v>95</v>
+      </c>
+      <c r="AD318" t="n">
+        <v>88</v>
+      </c>
+      <c r="AE318" t="n">
+        <v>73</v>
+      </c>
+      <c r="AF318" t="n">
+        <v>109</v>
+      </c>
+      <c r="AG318" t="n">
+        <v>88</v>
+      </c>
+      <c r="AH318" t="n">
+        <v>86</v>
+      </c>
+      <c r="AI318" t="n">
+        <v>89</v>
+      </c>
+      <c r="AJ318" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK318" t="n">
+        <v>115</v>
+      </c>
+      <c r="AL318" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM318" t="n">
+        <v>87</v>
+      </c>
+      <c r="AN318" t="n">
+        <v>135</v>
+      </c>
+      <c r="AO318" t="n">
+        <v>100</v>
+      </c>
+      <c r="AP318" t="n">
+        <v>73</v>
+      </c>
+      <c r="AQ318" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR318" t="n">
+        <v>84</v>
+      </c>
+      <c r="AS318" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT318" t="n">
+        <v>109</v>
+      </c>
+      <c r="AU318" t="n">
+        <v>103</v>
+      </c>
+      <c r="AV318" t="n">
+        <v>103</v>
+      </c>
+      <c r="AW318" t="n">
+        <v>96</v>
+      </c>
+      <c r="AX318" t="n">
+        <v>77</v>
+      </c>
+      <c r="AY318" t="n">
+        <v>107</v>
+      </c>
+      <c r="AZ318" t="n">
+        <v>95</v>
+      </c>
+      <c r="BA318" t="n">
+        <v>92</v>
+      </c>
+      <c r="BB318" t="n">
+        <v>104</v>
+      </c>
+      <c r="BC318" t="n">
+        <v>123</v>
+      </c>
+      <c r="BD318" t="n">
+        <v>98</v>
+      </c>
+      <c r="BE318" t="n">
+        <v>110</v>
+      </c>
+      <c r="BF318" t="n">
+        <v>87</v>
+      </c>
+      <c r="BG318" t="n">
+        <v>113</v>
+      </c>
+      <c r="BH318" t="n">
+        <v>115</v>
+      </c>
+      <c r="BI318" t="n">
+        <v>120</v>
+      </c>
+      <c r="BJ318" t="n">
+        <v>106</v>
+      </c>
+      <c r="BK318" t="n">
+        <v>118</v>
+      </c>
+      <c r="BL318" t="n">
+        <v>79</v>
+      </c>
+      <c r="BM318" t="n">
+        <v>100</v>
+      </c>
+      <c r="BN318" t="n">
+        <v>87</v>
+      </c>
+      <c r="BO318" t="n">
+        <v>86</v>
+      </c>
+      <c r="BP318" t="n">
+        <v>76</v>
+      </c>
+      <c r="BQ318" t="n">
+        <v>97</v>
+      </c>
+      <c r="BR318" t="n">
+        <v>82</v>
+      </c>
+      <c r="BS318" t="n">
+        <v>101</v>
+      </c>
+      <c r="BT318" t="n">
+        <v>86</v>
+      </c>
+      <c r="BU318" t="n">
+        <v>99</v>
+      </c>
+      <c r="BV318" t="n">
+        <v>91</v>
+      </c>
+      <c r="BW318" t="n">
+        <v>97</v>
+      </c>
+      <c r="BX318" t="n">
+        <v>88</v>
+      </c>
+      <c r="BY318" t="n">
+        <v>113</v>
+      </c>
+      <c r="BZ318" t="n">
+        <v>113</v>
+      </c>
+      <c r="CA318" t="n">
+        <v>153</v>
+      </c>
+      <c r="CB318" t="n">
+        <v>135</v>
+      </c>
+      <c r="CC318" t="n">
+        <v>71</v>
+      </c>
+      <c r="CD318" t="n">
+        <v>86</v>
+      </c>
+      <c r="CE318" t="n">
+        <v>95</v>
+      </c>
+      <c r="CF318" t="n">
+        <v>87</v>
+      </c>
+      <c r="CG318" t="n">
+        <v>88</v>
+      </c>
+      <c r="CH318" t="n">
+        <v>101</v>
+      </c>
+      <c r="CI318" t="n">
+        <v>95</v>
+      </c>
+      <c r="CJ318" t="n">
+        <v>109</v>
+      </c>
+      <c r="CK318" t="n">
+        <v>102</v>
+      </c>
+      <c r="CL318" t="n">
+        <v>109</v>
+      </c>
+      <c r="CM318" t="n">
+        <v>88</v>
+      </c>
+      <c r="CN318" t="n">
+        <v>84</v>
+      </c>
+      <c r="CO318" t="n">
+        <v>81</v>
+      </c>
+      <c r="CP318" t="n">
+        <v>96</v>
+      </c>
+      <c r="CQ318" t="n">
+        <v>104</v>
+      </c>
+      <c r="CR318" t="n">
+        <v>116</v>
+      </c>
+      <c r="CS318" t="n">
+        <v>88</v>
+      </c>
+      <c r="CT318" t="n">
+        <v>88</v>
+      </c>
+      <c r="CU318" t="n">
+        <v>97</v>
+      </c>
+      <c r="CV318" t="n">
+        <v>102</v>
+      </c>
+      <c r="CW318" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>180</v>
+      </c>
+      <c r="B319" t="n">
+        <v>106</v>
+      </c>
+      <c r="C319" t="n">
+        <v>83</v>
+      </c>
+      <c r="D319" t="n">
+        <v>106</v>
+      </c>
+      <c r="E319" t="n">
+        <v>80</v>
+      </c>
+      <c r="F319" t="n">
+        <v>92</v>
+      </c>
+      <c r="G319" t="n">
+        <v>104</v>
+      </c>
+      <c r="H319" t="n">
+        <v>128</v>
+      </c>
+      <c r="I319" t="n">
+        <v>89</v>
+      </c>
+      <c r="J319" t="n">
+        <v>117</v>
+      </c>
+      <c r="K319" t="n">
+        <v>106</v>
+      </c>
+      <c r="L319" t="n">
+        <v>95</v>
+      </c>
+      <c r="M319" t="n">
+        <v>115</v>
+      </c>
+      <c r="N319" t="n">
+        <v>96</v>
+      </c>
+      <c r="O319" t="n">
+        <v>112</v>
+      </c>
+      <c r="P319" t="n">
+        <v>114</v>
+      </c>
+      <c r="Q319" t="n">
+        <v>91</v>
+      </c>
+      <c r="R319" t="n">
+        <v>86</v>
+      </c>
+      <c r="S319" t="n">
+        <v>85</v>
+      </c>
+      <c r="T319" t="n">
+        <v>98</v>
+      </c>
+      <c r="U319" t="n">
+        <v>112</v>
+      </c>
+      <c r="V319" t="n">
+        <v>93</v>
+      </c>
+      <c r="W319" t="n">
+        <v>99</v>
+      </c>
+      <c r="X319" t="n">
+        <v>98</v>
+      </c>
+      <c r="Y319" t="n">
+        <v>89</v>
+      </c>
+      <c r="Z319" t="n">
+        <v>87</v>
+      </c>
+      <c r="AA319" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB319" t="n">
+        <v>115</v>
+      </c>
+      <c r="AC319" t="n">
+        <v>94</v>
+      </c>
+      <c r="AD319" t="n">
+        <v>87</v>
+      </c>
+      <c r="AE319" t="n">
+        <v>68</v>
+      </c>
+      <c r="AF319" t="n">
+        <v>94</v>
+      </c>
+      <c r="AG319" t="n">
+        <v>91</v>
+      </c>
+      <c r="AH319" t="n">
+        <v>87</v>
+      </c>
+      <c r="AI319" t="n">
+        <v>87</v>
+      </c>
+      <c r="AJ319" t="n">
+        <v>102</v>
+      </c>
+      <c r="AK319" t="n">
+        <v>112</v>
+      </c>
+      <c r="AL319" t="n">
+        <v>97</v>
+      </c>
+      <c r="AM319" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN319" t="n">
+        <v>105</v>
+      </c>
+      <c r="AO319" t="n">
+        <v>93</v>
+      </c>
+      <c r="AP319" t="n">
+        <v>122</v>
+      </c>
+      <c r="AQ319" t="n">
+        <v>109</v>
+      </c>
+      <c r="AR319" t="n">
+        <v>109</v>
+      </c>
+      <c r="AS319" t="n">
+        <v>76</v>
+      </c>
+      <c r="AT319" t="n">
+        <v>124</v>
+      </c>
+      <c r="AU319" t="n">
+        <v>86</v>
+      </c>
+      <c r="AV319" t="n">
+        <v>95</v>
+      </c>
+      <c r="AW319" t="n">
+        <v>105</v>
+      </c>
+      <c r="AX319" t="n">
+        <v>79</v>
+      </c>
+      <c r="AY319" t="n">
+        <v>117</v>
+      </c>
+      <c r="AZ319" t="n">
+        <v>93</v>
+      </c>
+      <c r="BA319" t="n">
+        <v>93</v>
+      </c>
+      <c r="BB319" t="n">
+        <v>117</v>
+      </c>
+      <c r="BC319" t="n">
+        <v>104</v>
+      </c>
+      <c r="BD319" t="n">
+        <v>86</v>
+      </c>
+      <c r="BE319" t="n">
+        <v>88</v>
+      </c>
+      <c r="BF319" t="n">
+        <v>70</v>
+      </c>
+      <c r="BG319" t="n">
+        <v>97</v>
+      </c>
+      <c r="BH319" t="n">
+        <v>99</v>
+      </c>
+      <c r="BI319" t="n">
+        <v>86</v>
+      </c>
+      <c r="BJ319" t="n">
+        <v>113</v>
+      </c>
+      <c r="BK319" t="n">
+        <v>97</v>
+      </c>
+      <c r="BL319" t="n">
+        <v>84</v>
+      </c>
+      <c r="BM319" t="n">
+        <v>90</v>
+      </c>
+      <c r="BN319" t="n">
+        <v>100</v>
+      </c>
+      <c r="BO319" t="n">
+        <v>84</v>
+      </c>
+      <c r="BP319" t="n">
+        <v>80</v>
+      </c>
+      <c r="BQ319" t="n">
+        <v>97</v>
+      </c>
+      <c r="BR319" t="n">
+        <v>83</v>
+      </c>
+      <c r="BS319" t="n">
+        <v>98</v>
+      </c>
+      <c r="BT319" t="n">
+        <v>83</v>
+      </c>
+      <c r="BU319" t="n">
+        <v>91</v>
+      </c>
+      <c r="BV319" t="n">
+        <v>90</v>
+      </c>
+      <c r="BW319" t="n">
+        <v>99</v>
+      </c>
+      <c r="BX319" t="n">
+        <v>91</v>
+      </c>
+      <c r="BY319" t="n">
+        <v>113</v>
+      </c>
+      <c r="BZ319" t="n">
+        <v>80</v>
+      </c>
+      <c r="CA319" t="n">
+        <v>126</v>
+      </c>
+      <c r="CB319" t="n">
+        <v>146</v>
+      </c>
+      <c r="CC319" t="n">
+        <v>72</v>
+      </c>
+      <c r="CD319" t="n">
+        <v>86</v>
+      </c>
+      <c r="CE319" t="n">
+        <v>86</v>
+      </c>
+      <c r="CF319" t="n">
+        <v>85</v>
+      </c>
+      <c r="CG319" t="n">
+        <v>95</v>
+      </c>
+      <c r="CH319" t="n">
+        <v>102</v>
+      </c>
+      <c r="CI319" t="n">
+        <v>95</v>
+      </c>
+      <c r="CJ319" t="n">
+        <v>84</v>
+      </c>
+      <c r="CK319" t="n">
+        <v>102</v>
+      </c>
+      <c r="CL319" t="n">
+        <v>106</v>
+      </c>
+      <c r="CM319" t="n">
+        <v>92</v>
+      </c>
+      <c r="CN319" t="n">
+        <v>84</v>
+      </c>
+      <c r="CO319" t="n">
+        <v>81</v>
+      </c>
+      <c r="CP319" t="n">
+        <v>92</v>
+      </c>
+      <c r="CQ319" t="n">
+        <v>98</v>
+      </c>
+      <c r="CR319" t="n">
+        <v>95</v>
+      </c>
+      <c r="CS319" t="n">
+        <v>97</v>
+      </c>
+      <c r="CT319" t="n">
+        <v>85</v>
+      </c>
+      <c r="CU319" t="n">
+        <v>92</v>
+      </c>
+      <c r="CV319" t="n">
+        <v>86</v>
+      </c>
+      <c r="CW319" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>190</v>
+      </c>
+      <c r="B320" t="n">
+        <v>92</v>
+      </c>
+      <c r="C320" t="n">
+        <v>96</v>
+      </c>
+      <c r="D320" t="n">
+        <v>107</v>
+      </c>
+      <c r="E320" t="n">
+        <v>84</v>
+      </c>
+      <c r="F320" t="n">
+        <v>97</v>
+      </c>
+      <c r="G320" t="n">
+        <v>115</v>
+      </c>
+      <c r="H320" t="n">
+        <v>112</v>
+      </c>
+      <c r="I320" t="n">
+        <v>102</v>
+      </c>
+      <c r="J320" t="n">
+        <v>118</v>
+      </c>
+      <c r="K320" t="n">
+        <v>102</v>
+      </c>
+      <c r="L320" t="n">
+        <v>80</v>
+      </c>
+      <c r="M320" t="n">
+        <v>115</v>
+      </c>
+      <c r="N320" t="n">
+        <v>106</v>
+      </c>
+      <c r="O320" t="n">
+        <v>96</v>
+      </c>
+      <c r="P320" t="n">
+        <v>91</v>
+      </c>
+      <c r="Q320" t="n">
+        <v>81</v>
+      </c>
+      <c r="R320" t="n">
+        <v>81</v>
+      </c>
+      <c r="S320" t="n">
+        <v>85</v>
+      </c>
+      <c r="T320" t="n">
+        <v>105</v>
+      </c>
+      <c r="U320" t="n">
+        <v>136</v>
+      </c>
+      <c r="V320" t="n">
+        <v>108</v>
+      </c>
+      <c r="W320" t="n">
+        <v>92</v>
+      </c>
+      <c r="X320" t="n">
+        <v>96</v>
+      </c>
+      <c r="Y320" t="n">
+        <v>88</v>
+      </c>
+      <c r="Z320" t="n">
+        <v>101</v>
+      </c>
+      <c r="AA320" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB320" t="n">
+        <v>110</v>
+      </c>
+      <c r="AC320" t="n">
+        <v>92</v>
+      </c>
+      <c r="AD320" t="n">
+        <v>82</v>
+      </c>
+      <c r="AE320" t="n">
+        <v>76</v>
+      </c>
+      <c r="AF320" t="n">
+        <v>133</v>
+      </c>
+      <c r="AG320" t="n">
+        <v>99</v>
+      </c>
+      <c r="AH320" t="n">
+        <v>101</v>
+      </c>
+      <c r="AI320" t="n">
+        <v>99</v>
+      </c>
+      <c r="AJ320" t="n">
+        <v>102</v>
+      </c>
+      <c r="AK320" t="n">
+        <v>97</v>
+      </c>
+      <c r="AL320" t="n">
+        <v>97</v>
+      </c>
+      <c r="AM320" t="n">
+        <v>102</v>
+      </c>
+      <c r="AN320" t="n">
+        <v>129</v>
+      </c>
+      <c r="AO320" t="n">
+        <v>100</v>
+      </c>
+      <c r="AP320" t="n">
+        <v>115</v>
+      </c>
+      <c r="AQ320" t="n">
+        <v>128</v>
+      </c>
+      <c r="AR320" t="n">
+        <v>83</v>
+      </c>
+      <c r="AS320" t="n">
+        <v>72</v>
+      </c>
+      <c r="AT320" t="n">
+        <v>94</v>
+      </c>
+      <c r="AU320" t="n">
+        <v>92</v>
+      </c>
+      <c r="AV320" t="n">
+        <v>85</v>
+      </c>
+      <c r="AW320" t="n">
+        <v>108</v>
+      </c>
+      <c r="AX320" t="n">
+        <v>75</v>
+      </c>
+      <c r="AY320" t="n">
+        <v>94</v>
+      </c>
+      <c r="AZ320" t="n">
+        <v>99</v>
+      </c>
+      <c r="BA320" t="n">
+        <v>98</v>
+      </c>
+      <c r="BB320" t="n">
+        <v>105</v>
+      </c>
+      <c r="BC320" t="n">
+        <v>94</v>
+      </c>
+      <c r="BD320" t="n">
+        <v>94</v>
+      </c>
+      <c r="BE320" t="n">
+        <v>97</v>
+      </c>
+      <c r="BF320" t="n">
+        <v>76</v>
+      </c>
+      <c r="BG320" t="n">
+        <v>109</v>
+      </c>
+      <c r="BH320" t="n">
+        <v>103</v>
+      </c>
+      <c r="BI320" t="n">
+        <v>88</v>
+      </c>
+      <c r="BJ320" t="n">
+        <v>94</v>
+      </c>
+      <c r="BK320" t="n">
+        <v>119</v>
+      </c>
+      <c r="BL320" t="n">
+        <v>89</v>
+      </c>
+      <c r="BM320" t="n">
+        <v>88</v>
+      </c>
+      <c r="BN320" t="n">
+        <v>91</v>
+      </c>
+      <c r="BO320" t="n">
+        <v>85</v>
+      </c>
+      <c r="BP320" t="n">
+        <v>75</v>
+      </c>
+      <c r="BQ320" t="n">
+        <v>98</v>
+      </c>
+      <c r="BR320" t="n">
+        <v>84</v>
+      </c>
+      <c r="BS320" t="n">
+        <v>90</v>
+      </c>
+      <c r="BT320" t="n">
+        <v>71</v>
+      </c>
+      <c r="BU320" t="n">
+        <v>83</v>
+      </c>
+      <c r="BV320" t="n">
+        <v>102</v>
+      </c>
+      <c r="BW320" t="n">
+        <v>92</v>
+      </c>
+      <c r="BX320" t="n">
+        <v>90</v>
+      </c>
+      <c r="BY320" t="n">
+        <v>100</v>
+      </c>
+      <c r="BZ320" t="n">
+        <v>72</v>
+      </c>
+      <c r="CA320" t="n">
+        <v>135</v>
+      </c>
+      <c r="CB320" t="n">
+        <v>154</v>
+      </c>
+      <c r="CC320" t="n">
+        <v>75</v>
+      </c>
+      <c r="CD320" t="n">
+        <v>86</v>
+      </c>
+      <c r="CE320" t="n">
+        <v>87</v>
+      </c>
+      <c r="CF320" t="n">
+        <v>90</v>
+      </c>
+      <c r="CG320" t="n">
+        <v>93</v>
+      </c>
+      <c r="CH320" t="n">
+        <v>98</v>
+      </c>
+      <c r="CI320" t="n">
+        <v>127</v>
+      </c>
+      <c r="CJ320" t="n">
+        <v>85</v>
+      </c>
+      <c r="CK320" t="n">
+        <v>109</v>
+      </c>
+      <c r="CL320" t="n">
+        <v>103</v>
+      </c>
+      <c r="CM320" t="n">
+        <v>90</v>
+      </c>
+      <c r="CN320" t="n">
+        <v>87</v>
+      </c>
+      <c r="CO320" t="n">
+        <v>81</v>
+      </c>
+      <c r="CP320" t="n">
+        <v>91</v>
+      </c>
+      <c r="CQ320" t="n">
+        <v>96</v>
+      </c>
+      <c r="CR320" t="n">
+        <v>100</v>
+      </c>
+      <c r="CS320" t="n">
+        <v>90</v>
+      </c>
+      <c r="CT320" t="n">
+        <v>79</v>
+      </c>
+      <c r="CU320" t="n">
+        <v>89</v>
+      </c>
+      <c r="CV320" t="n">
+        <v>88</v>
+      </c>
+      <c r="CW320" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>200</v>
+      </c>
+      <c r="B321" t="n">
+        <v>103</v>
+      </c>
+      <c r="C321" t="n">
+        <v>93</v>
+      </c>
+      <c r="D321" t="n">
+        <v>110</v>
+      </c>
+      <c r="E321" t="n">
+        <v>89</v>
+      </c>
+      <c r="F321" t="n">
+        <v>101</v>
+      </c>
+      <c r="G321" t="n">
+        <v>121</v>
+      </c>
+      <c r="H321" t="n">
+        <v>122</v>
+      </c>
+      <c r="I321" t="n">
+        <v>88</v>
+      </c>
+      <c r="J321" t="n">
+        <v>104</v>
+      </c>
+      <c r="K321" t="n">
+        <v>129</v>
+      </c>
+      <c r="L321" t="n">
+        <v>85</v>
+      </c>
+      <c r="M321" t="n">
+        <v>112</v>
+      </c>
+      <c r="N321" t="n">
+        <v>94</v>
+      </c>
+      <c r="O321" t="n">
+        <v>92</v>
+      </c>
+      <c r="P321" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q321" t="n">
+        <v>88</v>
+      </c>
+      <c r="R321" t="n">
+        <v>82</v>
+      </c>
+      <c r="S321" t="n">
+        <v>98</v>
+      </c>
+      <c r="T321" t="n">
+        <v>83</v>
+      </c>
+      <c r="U321" t="n">
+        <v>97</v>
+      </c>
+      <c r="V321" t="n">
+        <v>91</v>
+      </c>
+      <c r="W321" t="n">
+        <v>92</v>
+      </c>
+      <c r="X321" t="n">
+        <v>116</v>
+      </c>
+      <c r="Y321" t="n">
+        <v>86</v>
+      </c>
+      <c r="Z321" t="n">
+        <v>86</v>
+      </c>
+      <c r="AA321" t="n">
+        <v>94</v>
+      </c>
+      <c r="AB321" t="n">
+        <v>124</v>
+      </c>
+      <c r="AC321" t="n">
+        <v>91</v>
+      </c>
+      <c r="AD321" t="n">
+        <v>87</v>
+      </c>
+      <c r="AE321" t="n">
+        <v>71</v>
+      </c>
+      <c r="AF321" t="n">
+        <v>104</v>
+      </c>
+      <c r="AG321" t="n">
+        <v>100</v>
+      </c>
+      <c r="AH321" t="n">
+        <v>82</v>
+      </c>
+      <c r="AI321" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ321" t="n">
+        <v>107</v>
+      </c>
+      <c r="AK321" t="n">
+        <v>92</v>
+      </c>
+      <c r="AL321" t="n">
+        <v>99</v>
+      </c>
+      <c r="AM321" t="n">
+        <v>108</v>
+      </c>
+      <c r="AN321" t="n">
+        <v>112</v>
+      </c>
+      <c r="AO321" t="n">
+        <v>93</v>
+      </c>
+      <c r="AP321" t="n">
+        <v>86</v>
+      </c>
+      <c r="AQ321" t="n">
+        <v>94</v>
+      </c>
+      <c r="AR321" t="n">
+        <v>95</v>
+      </c>
+      <c r="AS321" t="n">
+        <v>77</v>
+      </c>
+      <c r="AT321" t="n">
+        <v>98</v>
+      </c>
+      <c r="AU321" t="n">
+        <v>94</v>
+      </c>
+      <c r="AV321" t="n">
+        <v>109</v>
+      </c>
+      <c r="AW321" t="n">
+        <v>99</v>
+      </c>
+      <c r="AX321" t="n">
+        <v>79</v>
+      </c>
+      <c r="AY321" t="n">
+        <v>94</v>
+      </c>
+      <c r="AZ321" t="n">
+        <v>112</v>
+      </c>
+      <c r="BA321" t="n">
+        <v>91</v>
+      </c>
+      <c r="BB321" t="n">
+        <v>92</v>
+      </c>
+      <c r="BC321" t="n">
+        <v>111</v>
+      </c>
+      <c r="BD321" t="n">
+        <v>87</v>
+      </c>
+      <c r="BE321" t="n">
+        <v>78</v>
+      </c>
+      <c r="BF321" t="n">
+        <v>73</v>
+      </c>
+      <c r="BG321" t="n">
+        <v>109</v>
+      </c>
+      <c r="BH321" t="n">
+        <v>90</v>
+      </c>
+      <c r="BI321" t="n">
+        <v>87</v>
+      </c>
+      <c r="BJ321" t="n">
+        <v>100</v>
+      </c>
+      <c r="BK321" t="n">
+        <v>108</v>
+      </c>
+      <c r="BL321" t="n">
+        <v>85</v>
+      </c>
+      <c r="BM321" t="n">
+        <v>87</v>
+      </c>
+      <c r="BN321" t="n">
+        <v>93</v>
+      </c>
+      <c r="BO321" t="n">
+        <v>86</v>
+      </c>
+      <c r="BP321" t="n">
+        <v>85</v>
+      </c>
+      <c r="BQ321" t="n">
+        <v>90</v>
+      </c>
+      <c r="BR321" t="n">
+        <v>78</v>
+      </c>
+      <c r="BS321" t="n">
+        <v>97</v>
+      </c>
+      <c r="BT321" t="n">
+        <v>68</v>
+      </c>
+      <c r="BU321" t="n">
+        <v>88</v>
+      </c>
+      <c r="BV321" t="n">
+        <v>93</v>
+      </c>
+      <c r="BW321" t="n">
+        <v>92</v>
+      </c>
+      <c r="BX321" t="n">
+        <v>92</v>
+      </c>
+      <c r="BY321" t="n">
+        <v>109</v>
+      </c>
+      <c r="BZ321" t="n">
+        <v>73</v>
+      </c>
+      <c r="CA321" t="n">
+        <v>111</v>
+      </c>
+      <c r="CB321" t="n">
+        <v>107</v>
+      </c>
+      <c r="CC321" t="n">
+        <v>73</v>
+      </c>
+      <c r="CD321" t="n">
+        <v>78</v>
+      </c>
+      <c r="CE321" t="n">
+        <v>92</v>
+      </c>
+      <c r="CF321" t="n">
+        <v>96</v>
+      </c>
+      <c r="CG321" t="n">
+        <v>83</v>
+      </c>
+      <c r="CH321" t="n">
+        <v>98</v>
+      </c>
+      <c r="CI321" t="n">
+        <v>89</v>
+      </c>
+      <c r="CJ321" t="n">
+        <v>90</v>
+      </c>
+      <c r="CK321" t="n">
+        <v>130</v>
+      </c>
+      <c r="CL321" t="n">
+        <v>127</v>
+      </c>
+      <c r="CM321" t="n">
+        <v>92</v>
+      </c>
+      <c r="CN321" t="n">
+        <v>98</v>
+      </c>
+      <c r="CO321" t="n">
+        <v>83</v>
+      </c>
+      <c r="CP321" t="n">
+        <v>96</v>
+      </c>
+      <c r="CQ321" t="n">
+        <v>101</v>
+      </c>
+      <c r="CR321" t="n">
+        <v>107</v>
+      </c>
+      <c r="CS321" t="n">
+        <v>98</v>
+      </c>
+      <c r="CT321" t="n">
+        <v>84</v>
+      </c>
+      <c r="CU321" t="n">
+        <v>79</v>
+      </c>
+      <c r="CV321" t="n">
+        <v>99</v>
+      </c>
+      <c r="CW321" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>210</v>
+      </c>
+      <c r="B322" t="n">
+        <v>85</v>
+      </c>
+      <c r="C322" t="n">
+        <v>109</v>
+      </c>
+      <c r="D322" t="n">
+        <v>105</v>
+      </c>
+      <c r="E322" t="n">
+        <v>89</v>
+      </c>
+      <c r="F322" t="n">
+        <v>118</v>
+      </c>
+      <c r="G322" t="n">
+        <v>112</v>
+      </c>
+      <c r="H322" t="n">
+        <v>126</v>
+      </c>
+      <c r="I322" t="n">
+        <v>87</v>
+      </c>
+      <c r="J322" t="n">
+        <v>111</v>
+      </c>
+      <c r="K322" t="n">
+        <v>118</v>
+      </c>
+      <c r="L322" t="n">
+        <v>89</v>
+      </c>
+      <c r="M322" t="n">
+        <v>103</v>
+      </c>
+      <c r="N322" t="n">
+        <v>101</v>
+      </c>
+      <c r="O322" t="n">
+        <v>101</v>
+      </c>
+      <c r="P322" t="n">
+        <v>97</v>
+      </c>
+      <c r="Q322" t="n">
+        <v>93</v>
+      </c>
+      <c r="R322" t="n">
+        <v>84</v>
+      </c>
+      <c r="S322" t="n">
+        <v>98</v>
+      </c>
+      <c r="T322" t="n">
+        <v>116</v>
+      </c>
+      <c r="U322" t="n">
+        <v>80</v>
+      </c>
+      <c r="V322" t="n">
+        <v>102</v>
+      </c>
+      <c r="W322" t="n">
+        <v>124</v>
+      </c>
+      <c r="X322" t="n">
+        <v>104</v>
+      </c>
+      <c r="Y322" t="n">
+        <v>82</v>
+      </c>
+      <c r="Z322" t="n">
+        <v>87</v>
+      </c>
+      <c r="AA322" t="n">
+        <v>96</v>
+      </c>
+      <c r="AB322" t="n">
+        <v>122</v>
+      </c>
+      <c r="AC322" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD322" t="n">
+        <v>82</v>
+      </c>
+      <c r="AE322" t="n">
+        <v>69</v>
+      </c>
+      <c r="AF322" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG322" t="n">
+        <v>103</v>
+      </c>
+      <c r="AH322" t="n">
+        <v>87</v>
+      </c>
+      <c r="AI322" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ322" t="n">
+        <v>95</v>
+      </c>
+      <c r="AK322" t="n">
+        <v>87</v>
+      </c>
+      <c r="AL322" t="n">
+        <v>99</v>
+      </c>
+      <c r="AM322" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN322" t="n">
+        <v>123</v>
+      </c>
+      <c r="AO322" t="n">
+        <v>91</v>
+      </c>
+      <c r="AP322" t="n">
+        <v>89</v>
+      </c>
+      <c r="AQ322" t="n">
+        <v>124</v>
+      </c>
+      <c r="AR322" t="n">
+        <v>95</v>
+      </c>
+      <c r="AS322" t="n">
+        <v>76</v>
+      </c>
+      <c r="AT322" t="n">
+        <v>94</v>
+      </c>
+      <c r="AU322" t="n">
+        <v>89</v>
+      </c>
+      <c r="AV322" t="n">
+        <v>90</v>
+      </c>
+      <c r="AW322" t="n">
+        <v>108</v>
+      </c>
+      <c r="AX322" t="n">
+        <v>90</v>
+      </c>
+      <c r="AY322" t="n">
+        <v>94</v>
+      </c>
+      <c r="AZ322" t="n">
+        <v>100</v>
+      </c>
+      <c r="BA322" t="n">
+        <v>96</v>
+      </c>
+      <c r="BB322" t="n">
+        <v>84</v>
+      </c>
+      <c r="BC322" t="n">
+        <v>108</v>
+      </c>
+      <c r="BD322" t="n">
+        <v>87</v>
+      </c>
+      <c r="BE322" t="n">
+        <v>91</v>
+      </c>
+      <c r="BF322" t="n">
+        <v>85</v>
+      </c>
+      <c r="BG322" t="n">
+        <v>125</v>
+      </c>
+      <c r="BH322" t="n">
+        <v>94</v>
+      </c>
+      <c r="BI322" t="n">
+        <v>96</v>
+      </c>
+      <c r="BJ322" t="n">
+        <v>97</v>
+      </c>
+      <c r="BK322" t="n">
+        <v>92</v>
+      </c>
+      <c r="BL322" t="n">
+        <v>88</v>
+      </c>
+      <c r="BM322" t="n">
+        <v>112</v>
+      </c>
+      <c r="BN322" t="n">
+        <v>88</v>
+      </c>
+      <c r="BO322" t="n">
+        <v>86</v>
+      </c>
+      <c r="BP322" t="n">
+        <v>85</v>
+      </c>
+      <c r="BQ322" t="n">
+        <v>101</v>
+      </c>
+      <c r="BR322" t="n">
+        <v>79</v>
+      </c>
+      <c r="BS322" t="n">
+        <v>101</v>
+      </c>
+      <c r="BT322" t="n">
+        <v>70</v>
+      </c>
+      <c r="BU322" t="n">
+        <v>88</v>
+      </c>
+      <c r="BV322" t="n">
+        <v>96</v>
+      </c>
+      <c r="BW322" t="n">
+        <v>90</v>
+      </c>
+      <c r="BX322" t="n">
+        <v>94</v>
+      </c>
+      <c r="BY322" t="n">
+        <v>112</v>
+      </c>
+      <c r="BZ322" t="n">
+        <v>84</v>
+      </c>
+      <c r="CA322" t="n">
+        <v>101</v>
+      </c>
+      <c r="CB322" t="n">
+        <v>99</v>
+      </c>
+      <c r="CC322" t="n">
+        <v>75</v>
+      </c>
+      <c r="CD322" t="n">
+        <v>76</v>
+      </c>
+      <c r="CE322" t="n">
+        <v>76</v>
+      </c>
+      <c r="CF322" t="n">
+        <v>100</v>
+      </c>
+      <c r="CG322" t="n">
+        <v>90</v>
+      </c>
+      <c r="CH322" t="n">
+        <v>107</v>
+      </c>
+      <c r="CI322" t="n">
+        <v>95</v>
+      </c>
+      <c r="CJ322" t="n">
+        <v>108</v>
+      </c>
+      <c r="CK322" t="n">
+        <v>130</v>
+      </c>
+      <c r="CL322" t="n">
+        <v>127</v>
+      </c>
+      <c r="CM322" t="n">
+        <v>86</v>
+      </c>
+      <c r="CN322" t="n">
+        <v>92</v>
+      </c>
+      <c r="CO322" t="n">
+        <v>80</v>
+      </c>
+      <c r="CP322" t="n">
+        <v>96</v>
+      </c>
+      <c r="CQ322" t="n">
+        <v>121</v>
+      </c>
+      <c r="CR322" t="n">
+        <v>107</v>
+      </c>
+      <c r="CS322" t="n">
+        <v>103</v>
+      </c>
+      <c r="CT322" t="n">
+        <v>84</v>
+      </c>
+      <c r="CU322" t="n">
+        <v>80</v>
+      </c>
+      <c r="CV322" t="n">
+        <v>109</v>
+      </c>
+      <c r="CW322" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>220</v>
+      </c>
+      <c r="B323" t="n">
+        <v>87</v>
+      </c>
+      <c r="C323" t="n">
+        <v>125</v>
+      </c>
+      <c r="D323" t="n">
+        <v>105</v>
+      </c>
+      <c r="E323" t="n">
+        <v>89</v>
+      </c>
+      <c r="F323" t="n">
+        <v>104</v>
+      </c>
+      <c r="G323" t="n">
+        <v>111</v>
+      </c>
+      <c r="H323" t="n">
+        <v>121</v>
+      </c>
+      <c r="I323" t="n">
+        <v>87</v>
+      </c>
+      <c r="J323" t="n">
+        <v>115</v>
+      </c>
+      <c r="K323" t="n">
+        <v>104</v>
+      </c>
+      <c r="L323" t="n">
+        <v>78</v>
+      </c>
+      <c r="M323" t="n">
+        <v>103</v>
+      </c>
+      <c r="N323" t="n">
+        <v>91</v>
+      </c>
+      <c r="O323" t="n">
+        <v>92</v>
+      </c>
+      <c r="P323" t="n">
+        <v>98</v>
+      </c>
+      <c r="Q323" t="n">
+        <v>100</v>
+      </c>
+      <c r="R323" t="n">
+        <v>80</v>
+      </c>
+      <c r="S323" t="n">
+        <v>88</v>
+      </c>
+      <c r="T323" t="n">
+        <v>107</v>
+      </c>
+      <c r="U323" t="n">
+        <v>90</v>
+      </c>
+      <c r="V323" t="n">
+        <v>102</v>
+      </c>
+      <c r="W323" t="n">
+        <v>104</v>
+      </c>
+      <c r="X323" t="n">
+        <v>124</v>
+      </c>
+      <c r="Y323" t="n">
+        <v>88</v>
+      </c>
+      <c r="Z323" t="n">
+        <v>84</v>
+      </c>
+      <c r="AA323" t="n">
+        <v>96</v>
+      </c>
+      <c r="AB323" t="n">
+        <v>119</v>
+      </c>
+      <c r="AC323" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD323" t="n">
+        <v>90</v>
+      </c>
+      <c r="AE323" t="n">
+        <v>69</v>
+      </c>
+      <c r="AF323" t="n">
+        <v>99</v>
+      </c>
+      <c r="AG323" t="n">
+        <v>98</v>
+      </c>
+      <c r="AH323" t="n">
+        <v>82</v>
+      </c>
+      <c r="AI323" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ323" t="n">
+        <v>95</v>
+      </c>
+      <c r="AK323" t="n">
+        <v>88</v>
+      </c>
+      <c r="AL323" t="n">
+        <v>99</v>
+      </c>
+      <c r="AM323" t="n">
+        <v>84</v>
+      </c>
+      <c r="AN323" t="n">
+        <v>123</v>
+      </c>
+      <c r="AO323" t="n">
+        <v>94</v>
+      </c>
+      <c r="AP323" t="n">
+        <v>89</v>
+      </c>
+      <c r="AQ323" t="n">
+        <v>124</v>
+      </c>
+      <c r="AR323" t="n">
+        <v>94</v>
+      </c>
+      <c r="AS323" t="n">
+        <v>68</v>
+      </c>
+      <c r="AT323" t="n">
+        <v>101</v>
+      </c>
+      <c r="AU323" t="n">
+        <v>89</v>
+      </c>
+      <c r="AV323" t="n">
+        <v>109</v>
+      </c>
+      <c r="AW323" t="n">
+        <v>109</v>
+      </c>
+      <c r="AX323" t="n">
+        <v>79</v>
+      </c>
+      <c r="AY323" t="n">
+        <v>94</v>
+      </c>
+      <c r="AZ323" t="n">
+        <v>100</v>
+      </c>
+      <c r="BA323" t="n">
+        <v>98</v>
+      </c>
+      <c r="BB323" t="n">
+        <v>84</v>
+      </c>
+      <c r="BC323" t="n">
+        <v>99</v>
+      </c>
+      <c r="BD323" t="n">
+        <v>87</v>
+      </c>
+      <c r="BE323" t="n">
+        <v>91</v>
+      </c>
+      <c r="BF323" t="n">
+        <v>85</v>
+      </c>
+      <c r="BG323" t="n">
+        <v>107</v>
+      </c>
+      <c r="BH323" t="n">
+        <v>85</v>
+      </c>
+      <c r="BI323" t="n">
+        <v>100</v>
+      </c>
+      <c r="BJ323" t="n">
+        <v>101</v>
+      </c>
+      <c r="BK323" t="n">
+        <v>92</v>
+      </c>
+      <c r="BL323" t="n">
+        <v>88</v>
+      </c>
+      <c r="BM323" t="n">
+        <v>117</v>
+      </c>
+      <c r="BN323" t="n">
+        <v>90</v>
+      </c>
+      <c r="BO323" t="n">
+        <v>82</v>
+      </c>
+      <c r="BP323" t="n">
+        <v>85</v>
+      </c>
+      <c r="BQ323" t="n">
+        <v>99</v>
+      </c>
+      <c r="BR323" t="n">
+        <v>94</v>
+      </c>
+      <c r="BS323" t="n">
+        <v>101</v>
+      </c>
+      <c r="BT323" t="n">
+        <v>66</v>
+      </c>
+      <c r="BU323" t="n">
+        <v>88</v>
+      </c>
+      <c r="BV323" t="n">
+        <v>95</v>
+      </c>
+      <c r="BW323" t="n">
+        <v>90</v>
+      </c>
+      <c r="BX323" t="n">
+        <v>88</v>
+      </c>
+      <c r="BY323" t="n">
+        <v>112</v>
+      </c>
+      <c r="BZ323" t="n">
+        <v>76</v>
+      </c>
+      <c r="CA323" t="n">
+        <v>117</v>
+      </c>
+      <c r="CB323" t="n">
+        <v>102</v>
+      </c>
+      <c r="CC323" t="n">
+        <v>76</v>
+      </c>
+      <c r="CD323" t="n">
+        <v>98</v>
+      </c>
+      <c r="CE323" t="n">
+        <v>88</v>
+      </c>
+      <c r="CF323" t="n">
+        <v>100</v>
+      </c>
+      <c r="CG323" t="n">
+        <v>90</v>
+      </c>
+      <c r="CH323" t="n">
+        <v>100</v>
+      </c>
+      <c r="CI323" t="n">
+        <v>103</v>
+      </c>
+      <c r="CJ323" t="n">
+        <v>108</v>
+      </c>
+      <c r="CK323" t="n">
+        <v>130</v>
+      </c>
+      <c r="CL323" t="n">
+        <v>126</v>
+      </c>
+      <c r="CM323" t="n">
+        <v>91</v>
+      </c>
+      <c r="CN323" t="n">
+        <v>92</v>
+      </c>
+      <c r="CO323" t="n">
+        <v>81</v>
+      </c>
+      <c r="CP323" t="n">
+        <v>103</v>
+      </c>
+      <c r="CQ323" t="n">
+        <v>121</v>
+      </c>
+      <c r="CR323" t="n">
+        <v>107</v>
+      </c>
+      <c r="CS323" t="n">
+        <v>98</v>
+      </c>
+      <c r="CT323" t="n">
+        <v>84</v>
+      </c>
+      <c r="CU323" t="n">
+        <v>80</v>
+      </c>
+      <c r="CV323" t="n">
+        <v>110</v>
+      </c>
+      <c r="CW323" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>230</v>
+      </c>
+      <c r="B324" t="n">
+        <v>91</v>
+      </c>
+      <c r="C324" t="n">
+        <v>112</v>
+      </c>
+      <c r="D324" t="n">
+        <v>105</v>
+      </c>
+      <c r="E324" t="n">
+        <v>92</v>
+      </c>
+      <c r="F324" t="n">
+        <v>114</v>
+      </c>
+      <c r="G324" t="n">
+        <v>111</v>
+      </c>
+      <c r="H324" t="n">
+        <v>122</v>
+      </c>
+      <c r="I324" t="n">
+        <v>89</v>
+      </c>
+      <c r="J324" t="n">
+        <v>111</v>
+      </c>
+      <c r="K324" t="n">
+        <v>104</v>
+      </c>
+      <c r="L324" t="n">
+        <v>72</v>
+      </c>
+      <c r="M324" t="n">
+        <v>110</v>
+      </c>
+      <c r="N324" t="n">
+        <v>97</v>
+      </c>
+      <c r="O324" t="n">
+        <v>104</v>
+      </c>
+      <c r="P324" t="n">
+        <v>88</v>
+      </c>
+      <c r="Q324" t="n">
+        <v>90</v>
+      </c>
+      <c r="R324" t="n">
+        <v>80</v>
+      </c>
+      <c r="S324" t="n">
+        <v>90</v>
+      </c>
+      <c r="T324" t="n">
+        <v>112</v>
+      </c>
+      <c r="U324" t="n">
+        <v>95</v>
+      </c>
+      <c r="V324" t="n">
+        <v>100</v>
+      </c>
+      <c r="W324" t="n">
+        <v>104</v>
+      </c>
+      <c r="X324" t="n">
+        <v>124</v>
+      </c>
+      <c r="Y324" t="n">
+        <v>85</v>
+      </c>
+      <c r="Z324" t="n">
+        <v>84</v>
+      </c>
+      <c r="AA324" t="n">
+        <v>96</v>
+      </c>
+      <c r="AB324" t="n">
+        <v>119</v>
+      </c>
+      <c r="AC324" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD324" t="n">
+        <v>83</v>
+      </c>
+      <c r="AE324" t="n">
+        <v>71</v>
+      </c>
+      <c r="AF324" t="n">
+        <v>96</v>
+      </c>
+      <c r="AG324" t="n">
+        <v>91</v>
+      </c>
+      <c r="AH324" t="n">
+        <v>87</v>
+      </c>
+      <c r="AI324" t="n">
+        <v>78</v>
+      </c>
+      <c r="AJ324" t="n">
+        <v>93</v>
+      </c>
+      <c r="AK324" t="n">
+        <v>87</v>
+      </c>
+      <c r="AL324" t="n">
+        <v>94</v>
+      </c>
+      <c r="AM324" t="n">
+        <v>82</v>
+      </c>
+      <c r="AN324" t="n">
+        <v>120</v>
+      </c>
+      <c r="AO324" t="n">
+        <v>93</v>
+      </c>
+      <c r="AP324" t="n">
+        <v>85</v>
+      </c>
+      <c r="AQ324" t="n">
+        <v>122</v>
+      </c>
+      <c r="AR324" t="n">
+        <v>92</v>
+      </c>
+      <c r="AS324" t="n">
+        <v>72</v>
+      </c>
+      <c r="AT324" t="n">
+        <v>97</v>
+      </c>
+      <c r="AU324" t="n">
+        <v>91</v>
+      </c>
+      <c r="AV324" t="n">
+        <v>98</v>
+      </c>
+      <c r="AW324" t="n">
+        <v>99</v>
+      </c>
+      <c r="AX324" t="n">
+        <v>80</v>
+      </c>
+      <c r="AY324" t="n">
+        <v>89</v>
+      </c>
+      <c r="AZ324" t="n">
+        <v>100</v>
+      </c>
+      <c r="BA324" t="n">
+        <v>105</v>
+      </c>
+      <c r="BB324" t="n">
+        <v>82</v>
+      </c>
+      <c r="BC324" t="n">
+        <v>93</v>
+      </c>
+      <c r="BD324" t="n">
+        <v>84</v>
+      </c>
+      <c r="BE324" t="n">
+        <v>95</v>
+      </c>
+      <c r="BF324" t="n">
+        <v>89</v>
+      </c>
+      <c r="BG324" t="n">
+        <v>119</v>
+      </c>
+      <c r="BH324" t="n">
+        <v>86</v>
+      </c>
+      <c r="BI324" t="n">
+        <v>100</v>
+      </c>
+      <c r="BJ324" t="n">
+        <v>101</v>
+      </c>
+      <c r="BK324" t="n">
+        <v>97</v>
+      </c>
+      <c r="BL324" t="n">
+        <v>88</v>
+      </c>
+      <c r="BM324" t="n">
+        <v>113</v>
+      </c>
+      <c r="BN324" t="n">
+        <v>97</v>
+      </c>
+      <c r="BO324" t="n">
+        <v>82</v>
+      </c>
+      <c r="BP324" t="n">
+        <v>85</v>
+      </c>
+      <c r="BQ324" t="n">
+        <v>97</v>
+      </c>
+      <c r="BR324" t="n">
+        <v>78</v>
+      </c>
+      <c r="BS324" t="n">
+        <v>93</v>
+      </c>
+      <c r="BT324" t="n">
+        <v>66</v>
+      </c>
+      <c r="BU324" t="n">
+        <v>90</v>
+      </c>
+      <c r="BV324" t="n">
+        <v>100</v>
+      </c>
+      <c r="BW324" t="n">
+        <v>90</v>
+      </c>
+      <c r="BX324" t="n">
+        <v>92</v>
+      </c>
+      <c r="BY324" t="n">
+        <v>112</v>
+      </c>
+      <c r="BZ324" t="n">
+        <v>73</v>
+      </c>
+      <c r="CA324" t="n">
+        <v>119</v>
+      </c>
+      <c r="CB324" t="n">
+        <v>90</v>
+      </c>
+      <c r="CC324" t="n">
+        <v>67</v>
+      </c>
+      <c r="CD324" t="n">
+        <v>78</v>
+      </c>
+      <c r="CE324" t="n">
+        <v>81</v>
+      </c>
+      <c r="CF324" t="n">
+        <v>84</v>
+      </c>
+      <c r="CG324" t="n">
+        <v>90</v>
+      </c>
+      <c r="CH324" t="n">
+        <v>98</v>
+      </c>
+      <c r="CI324" t="n">
+        <v>103</v>
+      </c>
+      <c r="CJ324" t="n">
+        <v>93</v>
+      </c>
+      <c r="CK324" t="n">
+        <v>128</v>
+      </c>
+      <c r="CL324" t="n">
+        <v>124</v>
+      </c>
+      <c r="CM324" t="n">
+        <v>108</v>
+      </c>
+      <c r="CN324" t="n">
+        <v>90</v>
+      </c>
+      <c r="CO324" t="n">
+        <v>73</v>
+      </c>
+      <c r="CP324" t="n">
+        <v>89</v>
+      </c>
+      <c r="CQ324" t="n">
+        <v>121</v>
+      </c>
+      <c r="CR324" t="n">
+        <v>107</v>
+      </c>
+      <c r="CS324" t="n">
+        <v>96</v>
+      </c>
+      <c r="CT324" t="n">
+        <v>84</v>
+      </c>
+      <c r="CU324" t="n">
+        <v>71</v>
+      </c>
+      <c r="CV324" t="n">
+        <v>111</v>
+      </c>
+      <c r="CW324" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>240</v>
+      </c>
+      <c r="B325" t="n">
+        <v>89</v>
+      </c>
+      <c r="C325" t="n">
+        <v>91</v>
+      </c>
+      <c r="D325" t="n">
+        <v>92</v>
+      </c>
+      <c r="E325" t="n">
+        <v>78</v>
+      </c>
+      <c r="F325" t="n">
+        <v>95</v>
+      </c>
+      <c r="G325" t="n">
+        <v>115</v>
+      </c>
+      <c r="H325" t="n">
+        <v>123</v>
+      </c>
+      <c r="I325" t="n">
+        <v>88</v>
+      </c>
+      <c r="J325" t="n">
+        <v>90</v>
+      </c>
+      <c r="K325" t="n">
+        <v>113</v>
+      </c>
+      <c r="L325" t="n">
+        <v>77</v>
+      </c>
+      <c r="M325" t="n">
+        <v>122</v>
+      </c>
+      <c r="N325" t="n">
+        <v>96</v>
+      </c>
+      <c r="O325" t="n">
+        <v>96</v>
+      </c>
+      <c r="P325" t="n">
+        <v>94</v>
+      </c>
+      <c r="Q325" t="n">
+        <v>92</v>
+      </c>
+      <c r="R325" t="n">
+        <v>80</v>
+      </c>
+      <c r="S325" t="n">
+        <v>86</v>
+      </c>
+      <c r="T325" t="n">
+        <v>84</v>
+      </c>
+      <c r="U325" t="n">
+        <v>82</v>
+      </c>
+      <c r="V325" t="n">
+        <v>99</v>
+      </c>
+      <c r="W325" t="n">
+        <v>125</v>
+      </c>
+      <c r="X325" t="n">
+        <v>104</v>
+      </c>
+      <c r="Y325" t="n">
+        <v>84</v>
+      </c>
+      <c r="Z325" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA325" t="n">
+        <v>93</v>
+      </c>
+      <c r="AB325" t="n">
+        <v>109</v>
+      </c>
+      <c r="AC325" t="n">
+        <v>92</v>
+      </c>
+      <c r="AD325" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE325" t="n">
+        <v>71</v>
+      </c>
+      <c r="AF325" t="n">
+        <v>94</v>
+      </c>
+      <c r="AG325" t="n">
+        <v>86</v>
+      </c>
+      <c r="AH325" t="n">
+        <v>90</v>
+      </c>
+      <c r="AI325" t="n">
+        <v>97</v>
+      </c>
+      <c r="AJ325" t="n">
+        <v>112</v>
+      </c>
+      <c r="AK325" t="n">
+        <v>115</v>
+      </c>
+      <c r="AL325" t="n">
+        <v>101</v>
+      </c>
+      <c r="AM325" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN325" t="n">
+        <v>107</v>
+      </c>
+      <c r="AO325" t="n">
+        <v>109</v>
+      </c>
+      <c r="AP325" t="n">
+        <v>89</v>
+      </c>
+      <c r="AQ325" t="n">
+        <v>91</v>
+      </c>
+      <c r="AR325" t="n">
+        <v>94</v>
+      </c>
+      <c r="AS325" t="n">
+        <v>86</v>
+      </c>
+      <c r="AT325" t="n">
+        <v>89</v>
+      </c>
+      <c r="AU325" t="n">
+        <v>94</v>
+      </c>
+      <c r="AV325" t="n">
+        <v>95</v>
+      </c>
+      <c r="AW325" t="n">
+        <v>105</v>
+      </c>
+      <c r="AX325" t="n">
+        <v>79</v>
+      </c>
+      <c r="AY325" t="n">
+        <v>113</v>
+      </c>
+      <c r="AZ325" t="n">
+        <v>95</v>
+      </c>
+      <c r="BA325" t="n">
+        <v>97</v>
+      </c>
+      <c r="BB325" t="n">
+        <v>123</v>
+      </c>
+      <c r="BC325" t="n">
+        <v>97</v>
+      </c>
+      <c r="BD325" t="n">
+        <v>83</v>
+      </c>
+      <c r="BE325" t="n">
+        <v>89</v>
+      </c>
+      <c r="BF325" t="n">
+        <v>78</v>
+      </c>
+      <c r="BG325" t="n">
+        <v>106</v>
+      </c>
+      <c r="BH325" t="n">
+        <v>95</v>
+      </c>
+      <c r="BI325" t="n">
+        <v>97</v>
+      </c>
+      <c r="BJ325" t="n">
+        <v>114</v>
+      </c>
+      <c r="BK325" t="n">
+        <v>127</v>
+      </c>
+      <c r="BL325" t="n">
+        <v>78</v>
+      </c>
+      <c r="BM325" t="n">
+        <v>86</v>
+      </c>
+      <c r="BN325" t="n">
+        <v>103</v>
+      </c>
+      <c r="BO325" t="n">
+        <v>76</v>
+      </c>
+      <c r="BP325" t="n">
+        <v>75</v>
+      </c>
+      <c r="BQ325" t="n">
+        <v>100</v>
+      </c>
+      <c r="BR325" t="n">
+        <v>91</v>
+      </c>
+      <c r="BS325" t="n">
+        <v>93</v>
+      </c>
+      <c r="BT325" t="n">
+        <v>88</v>
+      </c>
+      <c r="BU325" t="n">
+        <v>80</v>
+      </c>
+      <c r="BV325" t="n">
+        <v>93</v>
+      </c>
+      <c r="BW325" t="n">
+        <v>84</v>
+      </c>
+      <c r="BX325" t="n">
+        <v>91</v>
+      </c>
+      <c r="BY325" t="n">
+        <v>109</v>
+      </c>
+      <c r="BZ325" t="n">
+        <v>80</v>
+      </c>
+      <c r="CA325" t="n">
+        <v>121</v>
+      </c>
+      <c r="CB325" t="n">
+        <v>164</v>
+      </c>
+      <c r="CC325" t="n">
+        <v>78</v>
+      </c>
+      <c r="CD325" t="n">
+        <v>78</v>
+      </c>
+      <c r="CE325" t="n">
+        <v>81</v>
+      </c>
+      <c r="CF325" t="n">
+        <v>84</v>
+      </c>
+      <c r="CG325" t="n">
+        <v>81</v>
+      </c>
+      <c r="CH325" t="n">
+        <v>96</v>
+      </c>
+      <c r="CI325" t="n">
+        <v>90</v>
+      </c>
+      <c r="CJ325" t="n">
+        <v>85</v>
+      </c>
+      <c r="CK325" t="n">
+        <v>109</v>
+      </c>
+      <c r="CL325" t="n">
+        <v>104</v>
+      </c>
+      <c r="CM325" t="n">
+        <v>93</v>
+      </c>
+      <c r="CN325" t="n">
+        <v>95</v>
+      </c>
+      <c r="CO325" t="n">
+        <v>78</v>
+      </c>
+      <c r="CP325" t="n">
+        <v>90</v>
+      </c>
+      <c r="CQ325" t="n">
+        <v>90</v>
+      </c>
+      <c r="CR325" t="n">
+        <v>111</v>
+      </c>
+      <c r="CS325" t="n">
+        <v>89</v>
+      </c>
+      <c r="CT325" t="n">
+        <v>84</v>
+      </c>
+      <c r="CU325" t="n">
+        <v>90</v>
+      </c>
+      <c r="CV325" t="n">
+        <v>97</v>
+      </c>
+      <c r="CW325" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>250</v>
+      </c>
+      <c r="B326" t="n">
+        <v>90</v>
+      </c>
+      <c r="C326" t="n">
+        <v>91</v>
+      </c>
+      <c r="D326" t="n">
+        <v>92</v>
+      </c>
+      <c r="E326" t="n">
+        <v>80</v>
+      </c>
+      <c r="F326" t="n">
+        <v>95</v>
+      </c>
+      <c r="G326" t="n">
+        <v>115</v>
+      </c>
+      <c r="H326" t="n">
+        <v>116</v>
+      </c>
+      <c r="I326" t="n">
+        <v>88</v>
+      </c>
+      <c r="J326" t="n">
+        <v>90</v>
+      </c>
+      <c r="K326" t="n">
+        <v>103</v>
+      </c>
+      <c r="L326" t="n">
+        <v>74</v>
+      </c>
+      <c r="M326" t="n">
+        <v>115</v>
+      </c>
+      <c r="N326" t="n">
+        <v>98</v>
+      </c>
+      <c r="O326" t="n">
+        <v>100</v>
+      </c>
+      <c r="P326" t="n">
+        <v>94</v>
+      </c>
+      <c r="Q326" t="n">
+        <v>92</v>
+      </c>
+      <c r="R326" t="n">
+        <v>73</v>
+      </c>
+      <c r="S326" t="n">
+        <v>86</v>
+      </c>
+      <c r="T326" t="n">
+        <v>106</v>
+      </c>
+      <c r="U326" t="n">
+        <v>95</v>
+      </c>
+      <c r="V326" t="n">
+        <v>99</v>
+      </c>
+      <c r="W326" t="n">
+        <v>125</v>
+      </c>
+      <c r="X326" t="n">
+        <v>104</v>
+      </c>
+      <c r="Y326" t="n">
+        <v>79</v>
+      </c>
+      <c r="Z326" t="n">
+        <v>104</v>
+      </c>
+      <c r="AA326" t="n">
+        <v>106</v>
+      </c>
+      <c r="AB326" t="n">
+        <v>114</v>
+      </c>
+      <c r="AC326" t="n">
+        <v>95</v>
+      </c>
+      <c r="AD326" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE326" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF326" t="n">
+        <v>134</v>
+      </c>
+      <c r="AG326" t="n">
+        <v>82</v>
+      </c>
+      <c r="AH326" t="n">
+        <v>90</v>
+      </c>
+      <c r="AI326" t="n">
+        <v>97</v>
+      </c>
+      <c r="AJ326" t="n">
+        <v>112</v>
+      </c>
+      <c r="AK326" t="n">
+        <v>115</v>
+      </c>
+      <c r="AL326" t="n">
+        <v>101</v>
+      </c>
+      <c r="AM326" t="n">
+        <v>91</v>
+      </c>
+      <c r="AN326" t="n">
+        <v>107</v>
+      </c>
+      <c r="AO326" t="n">
+        <v>99</v>
+      </c>
+      <c r="AP326" t="n">
+        <v>82</v>
+      </c>
+      <c r="AQ326" t="n">
+        <v>91</v>
+      </c>
+      <c r="AR326" t="n">
+        <v>94</v>
+      </c>
+      <c r="AS326" t="n">
+        <v>86</v>
+      </c>
+      <c r="AT326" t="n">
+        <v>89</v>
+      </c>
+      <c r="AU326" t="n">
+        <v>94</v>
+      </c>
+      <c r="AV326" t="n">
+        <v>86</v>
+      </c>
+      <c r="AW326" t="n">
+        <v>111</v>
+      </c>
+      <c r="AX326" t="n">
+        <v>79</v>
+      </c>
+      <c r="AY326" t="n">
+        <v>108</v>
+      </c>
+      <c r="AZ326" t="n">
+        <v>95</v>
+      </c>
+      <c r="BA326" t="n">
+        <v>97</v>
+      </c>
+      <c r="BB326" t="n">
+        <v>105</v>
+      </c>
+      <c r="BC326" t="n">
+        <v>108</v>
+      </c>
+      <c r="BD326" t="n">
+        <v>86</v>
+      </c>
+      <c r="BE326" t="n">
+        <v>89</v>
+      </c>
+      <c r="BF326" t="n">
+        <v>80</v>
+      </c>
+      <c r="BG326" t="n">
+        <v>106</v>
+      </c>
+      <c r="BH326" t="n">
+        <v>100</v>
+      </c>
+      <c r="BI326" t="n">
+        <v>89</v>
+      </c>
+      <c r="BJ326" t="n">
+        <v>104</v>
+      </c>
+      <c r="BK326" t="n">
+        <v>127</v>
+      </c>
+      <c r="BL326" t="n">
+        <v>76</v>
+      </c>
+      <c r="BM326" t="n">
+        <v>86</v>
+      </c>
+      <c r="BN326" t="n">
+        <v>97</v>
+      </c>
+      <c r="BO326" t="n">
+        <v>94</v>
+      </c>
+      <c r="BP326" t="n">
+        <v>75</v>
+      </c>
+      <c r="BQ326" t="n">
+        <v>101</v>
+      </c>
+      <c r="BR326" t="n">
+        <v>90</v>
+      </c>
+      <c r="BS326" t="n">
+        <v>99</v>
+      </c>
+      <c r="BT326" t="n">
+        <v>85</v>
+      </c>
+      <c r="BU326" t="n">
+        <v>80</v>
+      </c>
+      <c r="BV326" t="n">
+        <v>100</v>
+      </c>
+      <c r="BW326" t="n">
+        <v>88</v>
+      </c>
+      <c r="BX326" t="n">
+        <v>98</v>
+      </c>
+      <c r="BY326" t="n">
+        <v>109</v>
+      </c>
+      <c r="BZ326" t="n">
+        <v>80</v>
+      </c>
+      <c r="CA326" t="n">
+        <v>116</v>
+      </c>
+      <c r="CB326" t="n">
+        <v>147</v>
+      </c>
+      <c r="CC326" t="n">
+        <v>71</v>
+      </c>
+      <c r="CD326" t="n">
+        <v>78</v>
+      </c>
+      <c r="CE326" t="n">
+        <v>81</v>
+      </c>
+      <c r="CF326" t="n">
+        <v>84</v>
+      </c>
+      <c r="CG326" t="n">
+        <v>81</v>
+      </c>
+      <c r="CH326" t="n">
+        <v>96</v>
+      </c>
+      <c r="CI326" t="n">
+        <v>83</v>
+      </c>
+      <c r="CJ326" t="n">
+        <v>85</v>
+      </c>
+      <c r="CK326" t="n">
+        <v>121</v>
+      </c>
+      <c r="CL326" t="n">
+        <v>104</v>
+      </c>
+      <c r="CM326" t="n">
+        <v>95</v>
+      </c>
+      <c r="CN326" t="n">
+        <v>95</v>
+      </c>
+      <c r="CO326" t="n">
+        <v>82</v>
+      </c>
+      <c r="CP326" t="n">
+        <v>87</v>
+      </c>
+      <c r="CQ326" t="n">
+        <v>102</v>
+      </c>
+      <c r="CR326" t="n">
+        <v>111</v>
+      </c>
+      <c r="CS326" t="n">
+        <v>99</v>
+      </c>
+      <c r="CT326" t="n">
+        <v>84</v>
+      </c>
+      <c r="CU326" t="n">
+        <v>90</v>
+      </c>
+      <c r="CV326" t="n">
+        <v>94</v>
+      </c>
+      <c r="CW326" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>260</v>
+      </c>
+      <c r="B327" t="n">
+        <v>100</v>
+      </c>
+      <c r="C327" t="n">
+        <v>99</v>
+      </c>
+      <c r="D327" t="n">
+        <v>102</v>
+      </c>
+      <c r="E327" t="n">
+        <v>92</v>
+      </c>
+      <c r="F327" t="n">
+        <v>99</v>
+      </c>
+      <c r="G327" t="n">
+        <v>115</v>
+      </c>
+      <c r="H327" t="n">
+        <v>119</v>
+      </c>
+      <c r="I327" t="n">
+        <v>88</v>
+      </c>
+      <c r="J327" t="n">
+        <v>90</v>
+      </c>
+      <c r="K327" t="n">
+        <v>103</v>
+      </c>
+      <c r="L327" t="n">
+        <v>74</v>
+      </c>
+      <c r="M327" t="n">
+        <v>93</v>
+      </c>
+      <c r="N327" t="n">
+        <v>109</v>
+      </c>
+      <c r="O327" t="n">
+        <v>96</v>
+      </c>
+      <c r="P327" t="n">
+        <v>106</v>
+      </c>
+      <c r="Q327" t="n">
+        <v>85</v>
+      </c>
+      <c r="R327" t="n">
+        <v>80</v>
+      </c>
+      <c r="S327" t="n">
+        <v>86</v>
+      </c>
+      <c r="T327" t="n">
+        <v>93</v>
+      </c>
+      <c r="U327" t="n">
+        <v>82</v>
+      </c>
+      <c r="V327" t="n">
+        <v>99</v>
+      </c>
+      <c r="W327" t="n">
+        <v>93</v>
+      </c>
+      <c r="X327" t="n">
+        <v>95</v>
+      </c>
+      <c r="Y327" t="n">
+        <v>79</v>
+      </c>
+      <c r="Z327" t="n">
+        <v>99</v>
+      </c>
+      <c r="AA327" t="n">
+        <v>97</v>
+      </c>
+      <c r="AB327" t="n">
+        <v>114</v>
+      </c>
+      <c r="AC327" t="n">
+        <v>87</v>
+      </c>
+      <c r="AD327" t="n">
+        <v>85</v>
+      </c>
+      <c r="AE327" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF327" t="n">
+        <v>104</v>
+      </c>
+      <c r="AG327" t="n">
+        <v>100</v>
+      </c>
+      <c r="AH327" t="n">
+        <v>90</v>
+      </c>
+      <c r="AI327" t="n">
+        <v>88</v>
+      </c>
+      <c r="AJ327" t="n">
+        <v>112</v>
+      </c>
+      <c r="AK327" t="n">
+        <v>117</v>
+      </c>
+      <c r="AL327" t="n">
+        <v>91</v>
+      </c>
+      <c r="AM327" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN327" t="n">
+        <v>114</v>
+      </c>
+      <c r="AO327" t="n">
+        <v>100</v>
+      </c>
+      <c r="AP327" t="n">
+        <v>88</v>
+      </c>
+      <c r="AQ327" t="n">
+        <v>91</v>
+      </c>
+      <c r="AR327" t="n">
+        <v>94</v>
+      </c>
+      <c r="AS327" t="n">
+        <v>84</v>
+      </c>
+      <c r="AT327" t="n">
+        <v>92</v>
+      </c>
+      <c r="AU327" t="n">
+        <v>90</v>
+      </c>
+      <c r="AV327" t="n">
+        <v>84</v>
+      </c>
+      <c r="AW327" t="n">
+        <v>107</v>
+      </c>
+      <c r="AX327" t="n">
+        <v>77</v>
+      </c>
+      <c r="AY327" t="n">
+        <v>98</v>
+      </c>
+      <c r="AZ327" t="n">
+        <v>95</v>
+      </c>
+      <c r="BA327" t="n">
+        <v>97</v>
+      </c>
+      <c r="BB327" t="n">
+        <v>105</v>
+      </c>
+      <c r="BC327" t="n">
+        <v>108</v>
+      </c>
+      <c r="BD327" t="n">
+        <v>95</v>
+      </c>
+      <c r="BE327" t="n">
+        <v>89</v>
+      </c>
+      <c r="BF327" t="n">
+        <v>70</v>
+      </c>
+      <c r="BG327" t="n">
+        <v>96</v>
+      </c>
+      <c r="BH327" t="n">
+        <v>98</v>
+      </c>
+      <c r="BI327" t="n">
+        <v>91</v>
+      </c>
+      <c r="BJ327" t="n">
+        <v>108</v>
+      </c>
+      <c r="BK327" t="n">
+        <v>106</v>
+      </c>
+      <c r="BL327" t="n">
+        <v>76</v>
+      </c>
+      <c r="BM327" t="n">
+        <v>86</v>
+      </c>
+      <c r="BN327" t="n">
+        <v>114</v>
+      </c>
+      <c r="BO327" t="n">
+        <v>80</v>
+      </c>
+      <c r="BP327" t="n">
+        <v>76</v>
+      </c>
+      <c r="BQ327" t="n">
+        <v>102</v>
+      </c>
+      <c r="BR327" t="n">
+        <v>73</v>
+      </c>
+      <c r="BS327" t="n">
+        <v>90</v>
+      </c>
+      <c r="BT327" t="n">
+        <v>64</v>
+      </c>
+      <c r="BU327" t="n">
+        <v>80</v>
+      </c>
+      <c r="BV327" t="n">
+        <v>100</v>
+      </c>
+      <c r="BW327" t="n">
+        <v>104</v>
+      </c>
+      <c r="BX327" t="n">
+        <v>90</v>
+      </c>
+      <c r="BY327" t="n">
+        <v>111</v>
+      </c>
+      <c r="BZ327" t="n">
+        <v>80</v>
+      </c>
+      <c r="CA327" t="n">
+        <v>117</v>
+      </c>
+      <c r="CB327" t="n">
+        <v>149</v>
+      </c>
+      <c r="CC327" t="n">
+        <v>79</v>
+      </c>
+      <c r="CD327" t="n">
+        <v>78</v>
+      </c>
+      <c r="CE327" t="n">
+        <v>81</v>
+      </c>
+      <c r="CF327" t="n">
+        <v>78</v>
+      </c>
+      <c r="CG327" t="n">
+        <v>102</v>
+      </c>
+      <c r="CH327" t="n">
+        <v>97</v>
+      </c>
+      <c r="CI327" t="n">
+        <v>87</v>
+      </c>
+      <c r="CJ327" t="n">
+        <v>89</v>
+      </c>
+      <c r="CK327" t="n">
+        <v>119</v>
+      </c>
+      <c r="CL327" t="n">
+        <v>103</v>
+      </c>
+      <c r="CM327" t="n">
+        <v>102</v>
+      </c>
+      <c r="CN327" t="n">
+        <v>83</v>
+      </c>
+      <c r="CO327" t="n">
+        <v>77</v>
+      </c>
+      <c r="CP327" t="n">
+        <v>87</v>
+      </c>
+      <c r="CQ327" t="n">
+        <v>93</v>
+      </c>
+      <c r="CR327" t="n">
+        <v>111</v>
+      </c>
+      <c r="CS327" t="n">
+        <v>94</v>
+      </c>
+      <c r="CT327" t="n">
+        <v>84</v>
+      </c>
+      <c r="CU327" t="n">
+        <v>89</v>
+      </c>
+      <c r="CV327" t="n">
+        <v>93</v>
+      </c>
+      <c r="CW327" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>270</v>
+      </c>
+      <c r="B328" t="n">
+        <v>93</v>
+      </c>
+      <c r="C328" t="n">
+        <v>96</v>
+      </c>
+      <c r="D328" t="n">
+        <v>98</v>
+      </c>
+      <c r="E328" t="n">
+        <v>81</v>
+      </c>
+      <c r="F328" t="n">
+        <v>99</v>
+      </c>
+      <c r="G328" t="n">
+        <v>112</v>
+      </c>
+      <c r="H328" t="n">
+        <v>118</v>
+      </c>
+      <c r="I328" t="n">
+        <v>88</v>
+      </c>
+      <c r="J328" t="n">
+        <v>95</v>
+      </c>
+      <c r="K328" t="n">
+        <v>103</v>
+      </c>
+      <c r="L328" t="n">
+        <v>76</v>
+      </c>
+      <c r="M328" t="n">
+        <v>93</v>
+      </c>
+      <c r="N328" t="n">
+        <v>104</v>
+      </c>
+      <c r="O328" t="n">
+        <v>108</v>
+      </c>
+      <c r="P328" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q328" t="n">
+        <v>85</v>
+      </c>
+      <c r="R328" t="n">
+        <v>83</v>
+      </c>
+      <c r="S328" t="n">
+        <v>86</v>
+      </c>
+      <c r="T328" t="n">
+        <v>106</v>
+      </c>
+      <c r="U328" t="n">
+        <v>99</v>
+      </c>
+      <c r="V328" t="n">
+        <v>99</v>
+      </c>
+      <c r="W328" t="n">
+        <v>132</v>
+      </c>
+      <c r="X328" t="n">
+        <v>95</v>
+      </c>
+      <c r="Y328" t="n">
+        <v>79</v>
+      </c>
+      <c r="Z328" t="n">
+        <v>113</v>
+      </c>
+      <c r="AA328" t="n">
+        <v>96</v>
+      </c>
+      <c r="AB328" t="n">
+        <v>115</v>
+      </c>
+      <c r="AC328" t="n">
+        <v>87</v>
+      </c>
+      <c r="AD328" t="n">
+        <v>92</v>
+      </c>
+      <c r="AE328" t="n">
+        <v>69</v>
+      </c>
+      <c r="AF328" t="n">
+        <v>104</v>
+      </c>
+      <c r="AG328" t="n">
+        <v>100</v>
+      </c>
+      <c r="AH328" t="n">
+        <v>89</v>
+      </c>
+      <c r="AI328" t="n">
+        <v>86</v>
+      </c>
+      <c r="AJ328" t="n">
+        <v>118</v>
+      </c>
+      <c r="AK328" t="n">
+        <v>116</v>
+      </c>
+      <c r="AL328" t="n">
+        <v>89</v>
+      </c>
+      <c r="AM328" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN328" t="n">
+        <v>117</v>
+      </c>
+      <c r="AO328" t="n">
+        <v>92</v>
+      </c>
+      <c r="AP328" t="n">
+        <v>84</v>
+      </c>
+      <c r="AQ328" t="n">
+        <v>91</v>
+      </c>
+      <c r="AR328" t="n">
+        <v>83</v>
+      </c>
+      <c r="AS328" t="n">
+        <v>99</v>
+      </c>
+      <c r="AT328" t="n">
+        <v>109</v>
+      </c>
+      <c r="AU328" t="n">
+        <v>84</v>
+      </c>
+      <c r="AV328" t="n">
+        <v>86</v>
+      </c>
+      <c r="AW328" t="n">
+        <v>107</v>
+      </c>
+      <c r="AX328" t="n">
+        <v>81</v>
+      </c>
+      <c r="AY328" t="n">
+        <v>97</v>
+      </c>
+      <c r="AZ328" t="n">
+        <v>90</v>
+      </c>
+      <c r="BA328" t="n">
+        <v>86</v>
+      </c>
+      <c r="BB328" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC328" t="n">
+        <v>108</v>
+      </c>
+      <c r="BD328" t="n">
+        <v>118</v>
+      </c>
+      <c r="BE328" t="n">
+        <v>95</v>
+      </c>
+      <c r="BF328" t="n">
+        <v>84</v>
+      </c>
+      <c r="BG328" t="n">
+        <v>105</v>
+      </c>
+      <c r="BH328" t="n">
+        <v>98</v>
+      </c>
+      <c r="BI328" t="n">
+        <v>103</v>
+      </c>
+      <c r="BJ328" t="n">
+        <v>95</v>
+      </c>
+      <c r="BK328" t="n">
+        <v>112</v>
+      </c>
+      <c r="BL328" t="n">
+        <v>85</v>
+      </c>
+      <c r="BM328" t="n">
+        <v>84</v>
+      </c>
+      <c r="BN328" t="n">
+        <v>93</v>
+      </c>
+      <c r="BO328" t="n">
+        <v>81</v>
+      </c>
+      <c r="BP328" t="n">
+        <v>88</v>
+      </c>
+      <c r="BQ328" t="n">
+        <v>108</v>
+      </c>
+      <c r="BR328" t="n">
+        <v>85</v>
+      </c>
+      <c r="BS328" t="n">
+        <v>90</v>
+      </c>
+      <c r="BT328" t="n">
+        <v>69</v>
+      </c>
+      <c r="BU328" t="n">
+        <v>86</v>
+      </c>
+      <c r="BV328" t="n">
+        <v>96</v>
+      </c>
+      <c r="BW328" t="n">
+        <v>104</v>
+      </c>
+      <c r="BX328" t="n">
+        <v>93</v>
+      </c>
+      <c r="BY328" t="n">
+        <v>109</v>
+      </c>
+      <c r="BZ328" t="n">
+        <v>71</v>
+      </c>
+      <c r="CA328" t="n">
+        <v>117</v>
+      </c>
+      <c r="CB328" t="n">
+        <v>169</v>
+      </c>
+      <c r="CC328" t="n">
+        <v>73</v>
+      </c>
+      <c r="CD328" t="n">
+        <v>85</v>
+      </c>
+      <c r="CE328" t="n">
+        <v>81</v>
+      </c>
+      <c r="CF328" t="n">
+        <v>80</v>
+      </c>
+      <c r="CG328" t="n">
+        <v>103</v>
+      </c>
+      <c r="CH328" t="n">
+        <v>105</v>
+      </c>
+      <c r="CI328" t="n">
+        <v>83</v>
+      </c>
+      <c r="CJ328" t="n">
+        <v>93</v>
+      </c>
+      <c r="CK328" t="n">
+        <v>119</v>
+      </c>
+      <c r="CL328" t="n">
+        <v>105</v>
+      </c>
+      <c r="CM328" t="n">
+        <v>92</v>
+      </c>
+      <c r="CN328" t="n">
+        <v>83</v>
+      </c>
+      <c r="CO328" t="n">
+        <v>96</v>
+      </c>
+      <c r="CP328" t="n">
+        <v>87</v>
+      </c>
+      <c r="CQ328" t="n">
+        <v>90</v>
+      </c>
+      <c r="CR328" t="n">
+        <v>102</v>
+      </c>
+      <c r="CS328" t="n">
+        <v>94</v>
+      </c>
+      <c r="CT328" t="n">
+        <v>101</v>
+      </c>
+      <c r="CU328" t="n">
+        <v>89</v>
+      </c>
+      <c r="CV328" t="n">
+        <v>91</v>
+      </c>
+      <c r="CW328" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>280</v>
+      </c>
+      <c r="B329" t="n">
+        <v>84</v>
+      </c>
+      <c r="C329" t="n">
+        <v>91</v>
+      </c>
+      <c r="D329" t="n">
+        <v>104</v>
+      </c>
+      <c r="E329" t="n">
+        <v>81</v>
+      </c>
+      <c r="F329" t="n">
+        <v>89</v>
+      </c>
+      <c r="G329" t="n">
+        <v>138</v>
+      </c>
+      <c r="H329" t="n">
+        <v>118</v>
+      </c>
+      <c r="I329" t="n">
+        <v>88</v>
+      </c>
+      <c r="J329" t="n">
+        <v>112</v>
+      </c>
+      <c r="K329" t="n">
+        <v>103</v>
+      </c>
+      <c r="L329" t="n">
+        <v>77</v>
+      </c>
+      <c r="M329" t="n">
+        <v>93</v>
+      </c>
+      <c r="N329" t="n">
+        <v>104</v>
+      </c>
+      <c r="O329" t="n">
+        <v>109</v>
+      </c>
+      <c r="P329" t="n">
+        <v>106</v>
+      </c>
+      <c r="Q329" t="n">
+        <v>85</v>
+      </c>
+      <c r="R329" t="n">
+        <v>85</v>
+      </c>
+      <c r="S329" t="n">
+        <v>86</v>
+      </c>
+      <c r="T329" t="n">
+        <v>96</v>
+      </c>
+      <c r="U329" t="n">
+        <v>112</v>
+      </c>
+      <c r="V329" t="n">
+        <v>112</v>
+      </c>
+      <c r="W329" t="n">
+        <v>132</v>
+      </c>
+      <c r="X329" t="n">
+        <v>96</v>
+      </c>
+      <c r="Y329" t="n">
+        <v>88</v>
+      </c>
+      <c r="Z329" t="n">
+        <v>86</v>
+      </c>
+      <c r="AA329" t="n">
+        <v>96</v>
+      </c>
+      <c r="AB329" t="n">
+        <v>96</v>
+      </c>
+      <c r="AC329" t="n">
+        <v>87</v>
+      </c>
+      <c r="AD329" t="n">
+        <v>92</v>
+      </c>
+      <c r="AE329" t="n">
+        <v>69</v>
+      </c>
+      <c r="AF329" t="n">
+        <v>104</v>
+      </c>
+      <c r="AG329" t="n">
+        <v>100</v>
+      </c>
+      <c r="AH329" t="n">
+        <v>89</v>
+      </c>
+      <c r="AI329" t="n">
+        <v>86</v>
+      </c>
+      <c r="AJ329" t="n">
+        <v>97</v>
+      </c>
+      <c r="AK329" t="n">
+        <v>116</v>
+      </c>
+      <c r="AL329" t="n">
+        <v>97</v>
+      </c>
+      <c r="AM329" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN329" t="n">
+        <v>112</v>
+      </c>
+      <c r="AO329" t="n">
+        <v>92</v>
+      </c>
+      <c r="AP329" t="n">
+        <v>81</v>
+      </c>
+      <c r="AQ329" t="n">
+        <v>91</v>
+      </c>
+      <c r="AR329" t="n">
+        <v>120</v>
+      </c>
+      <c r="AS329" t="n">
+        <v>99</v>
+      </c>
+      <c r="AT329" t="n">
+        <v>109</v>
+      </c>
+      <c r="AU329" t="n">
+        <v>106</v>
+      </c>
+      <c r="AV329" t="n">
+        <v>86</v>
+      </c>
+      <c r="AW329" t="n">
+        <v>107</v>
+      </c>
+      <c r="AX329" t="n">
+        <v>73</v>
+      </c>
+      <c r="AY329" t="n">
+        <v>107</v>
+      </c>
+      <c r="AZ329" t="n">
+        <v>90</v>
+      </c>
+      <c r="BA329" t="n">
+        <v>86</v>
+      </c>
+      <c r="BB329" t="n">
+        <v>104</v>
+      </c>
+      <c r="BC329" t="n">
+        <v>107</v>
+      </c>
+      <c r="BD329" t="n">
+        <v>119</v>
+      </c>
+      <c r="BE329" t="n">
+        <v>93</v>
+      </c>
+      <c r="BF329" t="n">
+        <v>76</v>
+      </c>
+      <c r="BG329" t="n">
+        <v>125</v>
+      </c>
+      <c r="BH329" t="n">
+        <v>93</v>
+      </c>
+      <c r="BI329" t="n">
+        <v>102</v>
+      </c>
+      <c r="BJ329" t="n">
+        <v>95</v>
+      </c>
+      <c r="BK329" t="n">
+        <v>112</v>
+      </c>
+      <c r="BL329" t="n">
+        <v>85</v>
+      </c>
+      <c r="BM329" t="n">
+        <v>84</v>
+      </c>
+      <c r="BN329" t="n">
+        <v>105</v>
+      </c>
+      <c r="BO329" t="n">
+        <v>80</v>
+      </c>
+      <c r="BP329" t="n">
+        <v>88</v>
+      </c>
+      <c r="BQ329" t="n">
+        <v>108</v>
+      </c>
+      <c r="BR329" t="n">
+        <v>85</v>
+      </c>
+      <c r="BS329" t="n">
+        <v>90</v>
+      </c>
+      <c r="BT329" t="n">
+        <v>87</v>
+      </c>
+      <c r="BU329" t="n">
+        <v>91</v>
+      </c>
+      <c r="BV329" t="n">
+        <v>85</v>
+      </c>
+      <c r="BW329" t="n">
+        <v>104</v>
+      </c>
+      <c r="BX329" t="n">
+        <v>90</v>
+      </c>
+      <c r="BY329" t="n">
+        <v>113</v>
+      </c>
+      <c r="BZ329" t="n">
+        <v>79</v>
+      </c>
+      <c r="CA329" t="n">
+        <v>119</v>
+      </c>
+      <c r="CB329" t="n">
+        <v>167</v>
+      </c>
+      <c r="CC329" t="n">
+        <v>71</v>
+      </c>
+      <c r="CD329" t="n">
+        <v>84</v>
+      </c>
+      <c r="CE329" t="n">
+        <v>82</v>
+      </c>
+      <c r="CF329" t="n">
+        <v>78</v>
+      </c>
+      <c r="CG329" t="n">
+        <v>102</v>
+      </c>
+      <c r="CH329" t="n">
+        <v>108</v>
+      </c>
+      <c r="CI329" t="n">
+        <v>83</v>
+      </c>
+      <c r="CJ329" t="n">
+        <v>92</v>
+      </c>
+      <c r="CK329" t="n">
+        <v>114</v>
+      </c>
+      <c r="CL329" t="n">
+        <v>119</v>
+      </c>
+      <c r="CM329" t="n">
+        <v>91</v>
+      </c>
+      <c r="CN329" t="n">
+        <v>83</v>
+      </c>
+      <c r="CO329" t="n">
+        <v>96</v>
+      </c>
+      <c r="CP329" t="n">
+        <v>91</v>
+      </c>
+      <c r="CQ329" t="n">
+        <v>101</v>
+      </c>
+      <c r="CR329" t="n">
+        <v>107</v>
+      </c>
+      <c r="CS329" t="n">
+        <v>94</v>
+      </c>
+      <c r="CT329" t="n">
+        <v>101</v>
+      </c>
+      <c r="CU329" t="n">
+        <v>89</v>
+      </c>
+      <c r="CV329" t="n">
+        <v>94</v>
+      </c>
+      <c r="CW329" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>290</v>
+      </c>
+      <c r="B330" t="n">
+        <v>77</v>
+      </c>
+      <c r="C330" t="n">
+        <v>99</v>
+      </c>
+      <c r="D330" t="n">
+        <v>104</v>
+      </c>
+      <c r="E330" t="n">
+        <v>79</v>
+      </c>
+      <c r="F330" t="n">
+        <v>92</v>
+      </c>
+      <c r="G330" t="n">
+        <v>108</v>
+      </c>
+      <c r="H330" t="n">
+        <v>108</v>
+      </c>
+      <c r="I330" t="n">
+        <v>88</v>
+      </c>
+      <c r="J330" t="n">
+        <v>112</v>
+      </c>
+      <c r="K330" t="n">
+        <v>103</v>
+      </c>
+      <c r="L330" t="n">
+        <v>77</v>
+      </c>
+      <c r="M330" t="n">
+        <v>93</v>
+      </c>
+      <c r="N330" t="n">
+        <v>103</v>
+      </c>
+      <c r="O330" t="n">
+        <v>109</v>
+      </c>
+      <c r="P330" t="n">
+        <v>91</v>
+      </c>
+      <c r="Q330" t="n">
+        <v>85</v>
+      </c>
+      <c r="R330" t="n">
+        <v>83</v>
+      </c>
+      <c r="S330" t="n">
+        <v>85</v>
+      </c>
+      <c r="T330" t="n">
+        <v>96</v>
+      </c>
+      <c r="U330" t="n">
+        <v>93</v>
+      </c>
+      <c r="V330" t="n">
+        <v>102</v>
+      </c>
+      <c r="W330" t="n">
+        <v>131</v>
+      </c>
+      <c r="X330" t="n">
+        <v>93</v>
+      </c>
+      <c r="Y330" t="n">
+        <v>88</v>
+      </c>
+      <c r="Z330" t="n">
+        <v>86</v>
+      </c>
+      <c r="AA330" t="n">
+        <v>96</v>
+      </c>
+      <c r="AB330" t="n">
+        <v>111</v>
+      </c>
+      <c r="AC330" t="n">
+        <v>87</v>
+      </c>
+      <c r="AD330" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE330" t="n">
+        <v>66</v>
+      </c>
+      <c r="AF330" t="n">
+        <v>134</v>
+      </c>
+      <c r="AG330" t="n">
+        <v>100</v>
+      </c>
+      <c r="AH330" t="n">
+        <v>89</v>
+      </c>
+      <c r="AI330" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ330" t="n">
+        <v>102</v>
+      </c>
+      <c r="AK330" t="n">
+        <v>85</v>
+      </c>
+      <c r="AL330" t="n">
+        <v>97</v>
+      </c>
+      <c r="AM330" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN330" t="n">
+        <v>112</v>
+      </c>
+      <c r="AO330" t="n">
+        <v>92</v>
+      </c>
+      <c r="AP330" t="n">
+        <v>89</v>
+      </c>
+      <c r="AQ330" t="n">
+        <v>91</v>
+      </c>
+      <c r="AR330" t="n">
+        <v>94</v>
+      </c>
+      <c r="AS330" t="n">
+        <v>96</v>
+      </c>
+      <c r="AT330" t="n">
+        <v>95</v>
+      </c>
+      <c r="AU330" t="n">
+        <v>94</v>
+      </c>
+      <c r="AV330" t="n">
+        <v>85</v>
+      </c>
+      <c r="AW330" t="n">
+        <v>108</v>
+      </c>
+      <c r="AX330" t="n">
+        <v>73</v>
+      </c>
+      <c r="AY330" t="n">
+        <v>99</v>
+      </c>
+      <c r="AZ330" t="n">
+        <v>105</v>
+      </c>
+      <c r="BA330" t="n">
+        <v>90</v>
+      </c>
+      <c r="BB330" t="n">
+        <v>107</v>
+      </c>
+      <c r="BC330" t="n">
+        <v>105</v>
+      </c>
+      <c r="BD330" t="n">
+        <v>119</v>
+      </c>
+      <c r="BE330" t="n">
+        <v>93</v>
+      </c>
+      <c r="BF330" t="n">
+        <v>76</v>
+      </c>
+      <c r="BG330" t="n">
+        <v>104</v>
+      </c>
+      <c r="BH330" t="n">
+        <v>115</v>
+      </c>
+      <c r="BI330" t="n">
+        <v>96</v>
+      </c>
+      <c r="BJ330" t="n">
+        <v>99</v>
+      </c>
+      <c r="BK330" t="n">
+        <v>112</v>
+      </c>
+      <c r="BL330" t="n">
+        <v>85</v>
+      </c>
+      <c r="BM330" t="n">
+        <v>85</v>
+      </c>
+      <c r="BN330" t="n">
+        <v>90</v>
+      </c>
+      <c r="BO330" t="n">
+        <v>93</v>
+      </c>
+      <c r="BP330" t="n">
+        <v>88</v>
+      </c>
+      <c r="BQ330" t="n">
+        <v>108</v>
+      </c>
+      <c r="BR330" t="n">
+        <v>83</v>
+      </c>
+      <c r="BS330" t="n">
+        <v>90</v>
+      </c>
+      <c r="BT330" t="n">
+        <v>69</v>
+      </c>
+      <c r="BU330" t="n">
+        <v>83</v>
+      </c>
+      <c r="BV330" t="n">
+        <v>85</v>
+      </c>
+      <c r="BW330" t="n">
+        <v>104</v>
+      </c>
+      <c r="BX330" t="n">
+        <v>93</v>
+      </c>
+      <c r="BY330" t="n">
+        <v>113</v>
+      </c>
+      <c r="BZ330" t="n">
+        <v>79</v>
+      </c>
+      <c r="CA330" t="n">
+        <v>142</v>
+      </c>
+      <c r="CB330" t="n">
+        <v>148</v>
+      </c>
+      <c r="CC330" t="n">
+        <v>73</v>
+      </c>
+      <c r="CD330" t="n">
+        <v>83</v>
+      </c>
+      <c r="CE330" t="n">
+        <v>82</v>
+      </c>
+      <c r="CF330" t="n">
+        <v>78</v>
+      </c>
+      <c r="CG330" t="n">
+        <v>103</v>
+      </c>
+      <c r="CH330" t="n">
+        <v>110</v>
+      </c>
+      <c r="CI330" t="n">
+        <v>107</v>
+      </c>
+      <c r="CJ330" t="n">
+        <v>92</v>
+      </c>
+      <c r="CK330" t="n">
+        <v>114</v>
+      </c>
+      <c r="CL330" t="n">
+        <v>104</v>
+      </c>
+      <c r="CM330" t="n">
+        <v>91</v>
+      </c>
+      <c r="CN330" t="n">
+        <v>83</v>
+      </c>
+      <c r="CO330" t="n">
+        <v>74</v>
+      </c>
+      <c r="CP330" t="n">
+        <v>85</v>
+      </c>
+      <c r="CQ330" t="n">
+        <v>95</v>
+      </c>
+      <c r="CR330" t="n">
+        <v>107</v>
+      </c>
+      <c r="CS330" t="n">
+        <v>96</v>
+      </c>
+      <c r="CT330" t="n">
+        <v>82</v>
+      </c>
+      <c r="CU330" t="n">
+        <v>77</v>
+      </c>
+      <c r="CV330" t="n">
+        <v>94</v>
+      </c>
+      <c r="CW330" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>300</v>
+      </c>
+      <c r="B331" t="n">
+        <v>90</v>
+      </c>
+      <c r="C331" t="n">
+        <v>97</v>
+      </c>
+      <c r="D331" t="n">
+        <v>104</v>
+      </c>
+      <c r="E331" t="n">
+        <v>80</v>
+      </c>
+      <c r="F331" t="n">
+        <v>92</v>
+      </c>
+      <c r="G331" t="n">
+        <v>110</v>
+      </c>
+      <c r="H331" t="n">
+        <v>118</v>
+      </c>
+      <c r="I331" t="n">
+        <v>88</v>
+      </c>
+      <c r="J331" t="n">
+        <v>111</v>
+      </c>
+      <c r="K331" t="n">
+        <v>101</v>
+      </c>
+      <c r="L331" t="n">
+        <v>77</v>
+      </c>
+      <c r="M331" t="n">
+        <v>93</v>
+      </c>
+      <c r="N331" t="n">
+        <v>93</v>
+      </c>
+      <c r="O331" t="n">
+        <v>92</v>
+      </c>
+      <c r="P331" t="n">
+        <v>96</v>
+      </c>
+      <c r="Q331" t="n">
+        <v>97</v>
+      </c>
+      <c r="R331" t="n">
+        <v>80</v>
+      </c>
+      <c r="S331" t="n">
+        <v>85</v>
+      </c>
+      <c r="T331" t="n">
+        <v>93</v>
+      </c>
+      <c r="U331" t="n">
+        <v>92</v>
+      </c>
+      <c r="V331" t="n">
+        <v>101</v>
+      </c>
+      <c r="W331" t="n">
+        <v>132</v>
+      </c>
+      <c r="X331" t="n">
+        <v>92</v>
+      </c>
+      <c r="Y331" t="n">
+        <v>83</v>
+      </c>
+      <c r="Z331" t="n">
+        <v>101</v>
+      </c>
+      <c r="AA331" t="n">
+        <v>93</v>
+      </c>
+      <c r="AB331" t="n">
+        <v>111</v>
+      </c>
+      <c r="AC331" t="n">
+        <v>87</v>
+      </c>
+      <c r="AD331" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE331" t="n">
+        <v>71</v>
+      </c>
+      <c r="AF331" t="n">
+        <v>104</v>
+      </c>
+      <c r="AG331" t="n">
+        <v>100</v>
+      </c>
+      <c r="AH331" t="n">
+        <v>89</v>
+      </c>
+      <c r="AI331" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ331" t="n">
+        <v>102</v>
+      </c>
+      <c r="AK331" t="n">
+        <v>93</v>
+      </c>
+      <c r="AL331" t="n">
+        <v>101</v>
+      </c>
+      <c r="AM331" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN331" t="n">
+        <v>112</v>
+      </c>
+      <c r="AO331" t="n">
+        <v>94</v>
+      </c>
+      <c r="AP331" t="n">
+        <v>84</v>
+      </c>
+      <c r="AQ331" t="n">
+        <v>91</v>
+      </c>
+      <c r="AR331" t="n">
+        <v>98</v>
+      </c>
+      <c r="AS331" t="n">
+        <v>91</v>
+      </c>
+      <c r="AT331" t="n">
+        <v>95</v>
+      </c>
+      <c r="AU331" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV331" t="n">
+        <v>84</v>
+      </c>
+      <c r="AW331" t="n">
+        <v>107</v>
+      </c>
+      <c r="AX331" t="n">
+        <v>78</v>
+      </c>
+      <c r="AY331" t="n">
+        <v>99</v>
+      </c>
+      <c r="AZ331" t="n">
+        <v>94</v>
+      </c>
+      <c r="BA331" t="n">
+        <v>86</v>
+      </c>
+      <c r="BB331" t="n">
+        <v>105</v>
+      </c>
+      <c r="BC331" t="n">
+        <v>107</v>
+      </c>
+      <c r="BD331" t="n">
+        <v>82</v>
+      </c>
+      <c r="BE331" t="n">
+        <v>93</v>
+      </c>
+      <c r="BF331" t="n">
+        <v>72</v>
+      </c>
+      <c r="BG331" t="n">
+        <v>108</v>
+      </c>
+      <c r="BH331" t="n">
+        <v>115</v>
+      </c>
+      <c r="BI331" t="n">
+        <v>108</v>
+      </c>
+      <c r="BJ331" t="n">
+        <v>99</v>
+      </c>
+      <c r="BK331" t="n">
+        <v>122</v>
+      </c>
+      <c r="BL331" t="n">
+        <v>85</v>
+      </c>
+      <c r="BM331" t="n">
+        <v>84</v>
+      </c>
+      <c r="BN331" t="n">
+        <v>90</v>
+      </c>
+      <c r="BO331" t="n">
+        <v>93</v>
+      </c>
+      <c r="BP331" t="n">
+        <v>73</v>
+      </c>
+      <c r="BQ331" t="n">
+        <v>101</v>
+      </c>
+      <c r="BR331" t="n">
+        <v>85</v>
+      </c>
+      <c r="BS331" t="n">
+        <v>90</v>
+      </c>
+      <c r="BT331" t="n">
+        <v>74</v>
+      </c>
+      <c r="BU331" t="n">
+        <v>83</v>
+      </c>
+      <c r="BV331" t="n">
+        <v>85</v>
+      </c>
+      <c r="BW331" t="n">
+        <v>104</v>
+      </c>
+      <c r="BX331" t="n">
+        <v>93</v>
+      </c>
+      <c r="BY331" t="n">
+        <v>113</v>
+      </c>
+      <c r="BZ331" t="n">
+        <v>71</v>
+      </c>
+      <c r="CA331" t="n">
+        <v>144</v>
+      </c>
+      <c r="CB331" t="n">
+        <v>147</v>
+      </c>
+      <c r="CC331" t="n">
+        <v>72</v>
+      </c>
+      <c r="CD331" t="n">
+        <v>85</v>
+      </c>
+      <c r="CE331" t="n">
+        <v>82</v>
+      </c>
+      <c r="CF331" t="n">
+        <v>80</v>
+      </c>
+      <c r="CG331" t="n">
+        <v>96</v>
+      </c>
+      <c r="CH331" t="n">
+        <v>105</v>
+      </c>
+      <c r="CI331" t="n">
+        <v>86</v>
+      </c>
+      <c r="CJ331" t="n">
+        <v>93</v>
+      </c>
+      <c r="CK331" t="n">
+        <v>114</v>
+      </c>
+      <c r="CL331" t="n">
+        <v>104</v>
+      </c>
+      <c r="CM331" t="n">
+        <v>99</v>
+      </c>
+      <c r="CN331" t="n">
+        <v>83</v>
+      </c>
+      <c r="CO331" t="n">
+        <v>74</v>
+      </c>
+      <c r="CP331" t="n">
+        <v>81</v>
+      </c>
+      <c r="CQ331" t="n">
+        <v>95</v>
+      </c>
+      <c r="CR331" t="n">
+        <v>107</v>
+      </c>
+      <c r="CS331" t="n">
+        <v>96</v>
+      </c>
+      <c r="CT331" t="n">
+        <v>101</v>
+      </c>
+      <c r="CU331" t="n">
+        <v>83</v>
+      </c>
+      <c r="CV331" t="n">
+        <v>94</v>
+      </c>
+      <c r="CW331" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>310</v>
+      </c>
+      <c r="B332" t="n">
+        <v>87</v>
+      </c>
+      <c r="C332" t="n">
+        <v>96</v>
+      </c>
+      <c r="D332" t="n">
+        <v>103</v>
+      </c>
+      <c r="E332" t="n">
+        <v>98</v>
+      </c>
+      <c r="F332" t="n">
+        <v>95</v>
+      </c>
+      <c r="G332" t="n">
+        <v>107</v>
+      </c>
+      <c r="H332" t="n">
+        <v>106</v>
+      </c>
+      <c r="I332" t="n">
+        <v>81</v>
+      </c>
+      <c r="J332" t="n">
+        <v>115</v>
+      </c>
+      <c r="K332" t="n">
+        <v>101</v>
+      </c>
+      <c r="L332" t="n">
+        <v>77</v>
+      </c>
+      <c r="M332" t="n">
+        <v>93</v>
+      </c>
+      <c r="N332" t="n">
+        <v>96</v>
+      </c>
+      <c r="O332" t="n">
+        <v>92</v>
+      </c>
+      <c r="P332" t="n">
+        <v>125</v>
+      </c>
+      <c r="Q332" t="n">
+        <v>97</v>
+      </c>
+      <c r="R332" t="n">
+        <v>80</v>
+      </c>
+      <c r="S332" t="n">
+        <v>85</v>
+      </c>
+      <c r="T332" t="n">
+        <v>93</v>
+      </c>
+      <c r="U332" t="n">
+        <v>81</v>
+      </c>
+      <c r="V332" t="n">
+        <v>101</v>
+      </c>
+      <c r="W332" t="n">
+        <v>131</v>
+      </c>
+      <c r="X332" t="n">
+        <v>93</v>
+      </c>
+      <c r="Y332" t="n">
+        <v>83</v>
+      </c>
+      <c r="Z332" t="n">
+        <v>95</v>
+      </c>
+      <c r="AA332" t="n">
+        <v>93</v>
+      </c>
+      <c r="AB332" t="n">
+        <v>96</v>
+      </c>
+      <c r="AC332" t="n">
+        <v>95</v>
+      </c>
+      <c r="AD332" t="n">
+        <v>89</v>
+      </c>
+      <c r="AE332" t="n">
+        <v>64</v>
+      </c>
+      <c r="AF332" t="n">
+        <v>93</v>
+      </c>
+      <c r="AG332" t="n">
+        <v>100</v>
+      </c>
+      <c r="AH332" t="n">
+        <v>89</v>
+      </c>
+      <c r="AI332" t="n">
+        <v>88</v>
+      </c>
+      <c r="AJ332" t="n">
+        <v>102</v>
+      </c>
+      <c r="AK332" t="n">
+        <v>93</v>
+      </c>
+      <c r="AL332" t="n">
+        <v>109</v>
+      </c>
+      <c r="AM332" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN332" t="n">
+        <v>112</v>
+      </c>
+      <c r="AO332" t="n">
+        <v>100</v>
+      </c>
+      <c r="AP332" t="n">
+        <v>89</v>
+      </c>
+      <c r="AQ332" t="n">
+        <v>128</v>
+      </c>
+      <c r="AR332" t="n">
+        <v>98</v>
+      </c>
+      <c r="AS332" t="n">
+        <v>95</v>
+      </c>
+      <c r="AT332" t="n">
+        <v>89</v>
+      </c>
+      <c r="AU332" t="n">
+        <v>91</v>
+      </c>
+      <c r="AV332" t="n">
+        <v>85</v>
+      </c>
+      <c r="AW332" t="n">
+        <v>107</v>
+      </c>
+      <c r="AX332" t="n">
+        <v>78</v>
+      </c>
+      <c r="AY332" t="n">
+        <v>107</v>
+      </c>
+      <c r="AZ332" t="n">
+        <v>90</v>
+      </c>
+      <c r="BA332" t="n">
+        <v>93</v>
+      </c>
+      <c r="BB332" t="n">
+        <v>86</v>
+      </c>
+      <c r="BC332" t="n">
+        <v>106</v>
+      </c>
+      <c r="BD332" t="n">
+        <v>103</v>
+      </c>
+      <c r="BE332" t="n">
+        <v>93</v>
+      </c>
+      <c r="BF332" t="n">
+        <v>82</v>
+      </c>
+      <c r="BG332" t="n">
+        <v>109</v>
+      </c>
+      <c r="BH332" t="n">
+        <v>120</v>
+      </c>
+      <c r="BI332" t="n">
+        <v>87</v>
+      </c>
+      <c r="BJ332" t="n">
+        <v>95</v>
+      </c>
+      <c r="BK332" t="n">
+        <v>120</v>
+      </c>
+      <c r="BL332" t="n">
+        <v>85</v>
+      </c>
+      <c r="BM332" t="n">
+        <v>85</v>
+      </c>
+      <c r="BN332" t="n">
+        <v>100</v>
+      </c>
+      <c r="BO332" t="n">
+        <v>93</v>
+      </c>
+      <c r="BP332" t="n">
+        <v>73</v>
+      </c>
+      <c r="BQ332" t="n">
+        <v>105</v>
+      </c>
+      <c r="BR332" t="n">
+        <v>82</v>
+      </c>
+      <c r="BS332" t="n">
+        <v>90</v>
+      </c>
+      <c r="BT332" t="n">
+        <v>85</v>
+      </c>
+      <c r="BU332" t="n">
+        <v>83</v>
+      </c>
+      <c r="BV332" t="n">
+        <v>85</v>
+      </c>
+      <c r="BW332" t="n">
+        <v>104</v>
+      </c>
+      <c r="BX332" t="n">
+        <v>93</v>
+      </c>
+      <c r="BY332" t="n">
+        <v>113</v>
+      </c>
+      <c r="BZ332" t="n">
+        <v>79</v>
+      </c>
+      <c r="CA332" t="n">
+        <v>128</v>
+      </c>
+      <c r="CB332" t="n">
+        <v>126</v>
+      </c>
+      <c r="CC332" t="n">
+        <v>72</v>
+      </c>
+      <c r="CD332" t="n">
+        <v>85</v>
+      </c>
+      <c r="CE332" t="n">
+        <v>97</v>
+      </c>
+      <c r="CF332" t="n">
+        <v>80</v>
+      </c>
+      <c r="CG332" t="n">
+        <v>81</v>
+      </c>
+      <c r="CH332" t="n">
+        <v>105</v>
+      </c>
+      <c r="CI332" t="n">
+        <v>77</v>
+      </c>
+      <c r="CJ332" t="n">
+        <v>82</v>
+      </c>
+      <c r="CK332" t="n">
+        <v>107</v>
+      </c>
+      <c r="CL332" t="n">
+        <v>104</v>
+      </c>
+      <c r="CM332" t="n">
+        <v>91</v>
+      </c>
+      <c r="CN332" t="n">
+        <v>83</v>
+      </c>
+      <c r="CO332" t="n">
+        <v>74</v>
+      </c>
+      <c r="CP332" t="n">
+        <v>81</v>
+      </c>
+      <c r="CQ332" t="n">
+        <v>94</v>
+      </c>
+      <c r="CR332" t="n">
+        <v>107</v>
+      </c>
+      <c r="CS332" t="n">
+        <v>106</v>
+      </c>
+      <c r="CT332" t="n">
+        <v>84</v>
+      </c>
+      <c r="CU332" t="n">
+        <v>90</v>
+      </c>
+      <c r="CV332" t="n">
+        <v>94</v>
+      </c>
+      <c r="CW332" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>320</v>
+      </c>
+      <c r="B333" t="n">
+        <v>93</v>
+      </c>
+      <c r="C333" t="n">
+        <v>94</v>
+      </c>
+      <c r="D333" t="n">
+        <v>100</v>
+      </c>
+      <c r="E333" t="n">
+        <v>98</v>
+      </c>
+      <c r="F333" t="n">
+        <v>95</v>
+      </c>
+      <c r="G333" t="n">
+        <v>111</v>
+      </c>
+      <c r="H333" t="n">
+        <v>106</v>
+      </c>
+      <c r="I333" t="n">
+        <v>88</v>
+      </c>
+      <c r="J333" t="n">
+        <v>97</v>
+      </c>
+      <c r="K333" t="n">
+        <v>102</v>
+      </c>
+      <c r="L333" t="n">
+        <v>74</v>
+      </c>
+      <c r="M333" t="n">
+        <v>93</v>
+      </c>
+      <c r="N333" t="n">
+        <v>98</v>
+      </c>
+      <c r="O333" t="n">
+        <v>100</v>
+      </c>
+      <c r="P333" t="n">
+        <v>125</v>
+      </c>
+      <c r="Q333" t="n">
+        <v>90</v>
+      </c>
+      <c r="R333" t="n">
+        <v>79</v>
+      </c>
+      <c r="S333" t="n">
+        <v>85</v>
+      </c>
+      <c r="T333" t="n">
+        <v>90</v>
+      </c>
+      <c r="U333" t="n">
+        <v>112</v>
+      </c>
+      <c r="V333" t="n">
+        <v>102</v>
+      </c>
+      <c r="W333" t="n">
+        <v>132</v>
+      </c>
+      <c r="X333" t="n">
+        <v>96</v>
+      </c>
+      <c r="Y333" t="n">
+        <v>83</v>
+      </c>
+      <c r="Z333" t="n">
+        <v>95</v>
+      </c>
+      <c r="AA333" t="n">
+        <v>93</v>
+      </c>
+      <c r="AB333" t="n">
+        <v>96</v>
+      </c>
+      <c r="AC333" t="n">
+        <v>95</v>
+      </c>
+      <c r="AD333" t="n">
+        <v>88</v>
+      </c>
+      <c r="AE333" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF333" t="n">
+        <v>104</v>
+      </c>
+      <c r="AG333" t="n">
+        <v>92</v>
+      </c>
+      <c r="AH333" t="n">
+        <v>95</v>
+      </c>
+      <c r="AI333" t="n">
+        <v>97</v>
+      </c>
+      <c r="AJ333" t="n">
+        <v>102</v>
+      </c>
+      <c r="AK333" t="n">
+        <v>87</v>
+      </c>
+      <c r="AL333" t="n">
+        <v>115</v>
+      </c>
+      <c r="AM333" t="n">
+        <v>83</v>
+      </c>
+      <c r="AN333" t="n">
+        <v>112</v>
+      </c>
+      <c r="AO333" t="n">
+        <v>100</v>
+      </c>
+      <c r="AP333" t="n">
+        <v>89</v>
+      </c>
+      <c r="AQ333" t="n">
+        <v>93</v>
+      </c>
+      <c r="AR333" t="n">
+        <v>83</v>
+      </c>
+      <c r="AS333" t="n">
+        <v>102</v>
+      </c>
+      <c r="AT333" t="n">
+        <v>89</v>
+      </c>
+      <c r="AU333" t="n">
+        <v>93</v>
+      </c>
+      <c r="AV333" t="n">
+        <v>85</v>
+      </c>
+      <c r="AW333" t="n">
+        <v>107</v>
+      </c>
+      <c r="AX333" t="n">
+        <v>74</v>
+      </c>
+      <c r="AY333" t="n">
+        <v>95</v>
+      </c>
+      <c r="AZ333" t="n">
+        <v>94</v>
+      </c>
+      <c r="BA333" t="n">
+        <v>92</v>
+      </c>
+      <c r="BB333" t="n">
+        <v>85</v>
+      </c>
+      <c r="BC333" t="n">
+        <v>106</v>
+      </c>
+      <c r="BD333" t="n">
+        <v>82</v>
+      </c>
+      <c r="BE333" t="n">
+        <v>89</v>
+      </c>
+      <c r="BF333" t="n">
+        <v>82</v>
+      </c>
+      <c r="BG333" t="n">
+        <v>111</v>
+      </c>
+      <c r="BH333" t="n">
+        <v>93</v>
+      </c>
+      <c r="BI333" t="n">
+        <v>82</v>
+      </c>
+      <c r="BJ333" t="n">
+        <v>107</v>
+      </c>
+      <c r="BK333" t="n">
+        <v>106</v>
+      </c>
+      <c r="BL333" t="n">
+        <v>86</v>
+      </c>
+      <c r="BM333" t="n">
+        <v>84</v>
+      </c>
+      <c r="BN333" t="n">
+        <v>100</v>
+      </c>
+      <c r="BO333" t="n">
+        <v>93</v>
+      </c>
+      <c r="BP333" t="n">
+        <v>73</v>
+      </c>
+      <c r="BQ333" t="n">
+        <v>108</v>
+      </c>
+      <c r="BR333" t="n">
+        <v>83</v>
+      </c>
+      <c r="BS333" t="n">
+        <v>90</v>
+      </c>
+      <c r="BT333" t="n">
+        <v>85</v>
+      </c>
+      <c r="BU333" t="n">
+        <v>94</v>
+      </c>
+      <c r="BV333" t="n">
+        <v>85</v>
+      </c>
+      <c r="BW333" t="n">
+        <v>104</v>
+      </c>
+      <c r="BX333" t="n">
+        <v>93</v>
+      </c>
+      <c r="BY333" t="n">
+        <v>109</v>
+      </c>
+      <c r="BZ333" t="n">
+        <v>78</v>
+      </c>
+      <c r="CA333" t="n">
+        <v>167</v>
+      </c>
+      <c r="CB333" t="n">
+        <v>168</v>
+      </c>
+      <c r="CC333" t="n">
+        <v>71</v>
+      </c>
+      <c r="CD333" t="n">
+        <v>83</v>
+      </c>
+      <c r="CE333" t="n">
+        <v>97</v>
+      </c>
+      <c r="CF333" t="n">
+        <v>80</v>
+      </c>
+      <c r="CG333" t="n">
+        <v>81</v>
+      </c>
+      <c r="CH333" t="n">
+        <v>108</v>
+      </c>
+      <c r="CI333" t="n">
+        <v>93</v>
+      </c>
+      <c r="CJ333" t="n">
+        <v>84</v>
+      </c>
+      <c r="CK333" t="n">
+        <v>107</v>
+      </c>
+      <c r="CL333" t="n">
+        <v>106</v>
+      </c>
+      <c r="CM333" t="n">
+        <v>98</v>
+      </c>
+      <c r="CN333" t="n">
+        <v>78</v>
+      </c>
+      <c r="CO333" t="n">
+        <v>73</v>
+      </c>
+      <c r="CP333" t="n">
+        <v>91</v>
+      </c>
+      <c r="CQ333" t="n">
+        <v>93</v>
+      </c>
+      <c r="CR333" t="n">
+        <v>107</v>
+      </c>
+      <c r="CS333" t="n">
+        <v>96</v>
+      </c>
+      <c r="CT333" t="n">
+        <v>82</v>
+      </c>
+      <c r="CU333" t="n">
+        <v>90</v>
+      </c>
+      <c r="CV333" t="n">
+        <v>93</v>
+      </c>
+      <c r="CW333" t="n">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
